--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki.git\etoro-edavki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="629">
   <si>
     <t>Symbol</t>
   </si>
@@ -1663,6 +1663,249 @@
   </si>
   <si>
     <t>State Street Bank and Trust Company One Lincoln Center Boston, MA 02211 USA</t>
+  </si>
+  <si>
+    <t>2333.HK</t>
+  </si>
+  <si>
+    <t>00384.HK</t>
+  </si>
+  <si>
+    <t>VOW3.DE</t>
+  </si>
+  <si>
+    <t>ARKG</t>
+  </si>
+  <si>
+    <t>2899.HK</t>
+  </si>
+  <si>
+    <t>PAH3.DE</t>
+  </si>
+  <si>
+    <t>MCRO.L</t>
+  </si>
+  <si>
+    <t>00763.HK</t>
+  </si>
+  <si>
+    <t>LOGN.ZU</t>
+  </si>
+  <si>
+    <t>1958.HK</t>
+  </si>
+  <si>
+    <t>TUI.L</t>
+  </si>
+  <si>
+    <t>IIPR</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>LHA.DE</t>
+  </si>
+  <si>
+    <t>00175.HK</t>
+  </si>
+  <si>
+    <t>02196.HK</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>1628.HK</t>
+  </si>
+  <si>
+    <t>2238.HK</t>
+  </si>
+  <si>
+    <t>South Chaoyang Street No 2266, Baoding, 071000, China</t>
+  </si>
+  <si>
+    <t>CNE100000338</t>
+  </si>
+  <si>
+    <t>Great Wall Motor</t>
+  </si>
+  <si>
+    <t>US0463531089</t>
+  </si>
+  <si>
+    <t>AstraZeneca PLC ADR</t>
+  </si>
+  <si>
+    <t>CNE100000Q35</t>
+  </si>
+  <si>
+    <t>Guangzhou Automobile</t>
+  </si>
+  <si>
+    <t>CNE100000502</t>
+  </si>
+  <si>
+    <t>Zijin Mining</t>
+  </si>
+  <si>
+    <t>US45781V1017</t>
+  </si>
+  <si>
+    <t>Innovative Industrial Properties Inc. A</t>
+  </si>
+  <si>
+    <t>KYG3777B1032</t>
+  </si>
+  <si>
+    <t>Geely Automobile Holdings Ltd</t>
+  </si>
+  <si>
+    <t>DE0007664039</t>
+  </si>
+  <si>
+    <t>Volkswagen AG</t>
+  </si>
+  <si>
+    <t>DE000PAH0038</t>
+  </si>
+  <si>
+    <t>Porsche Automobil Holding SE</t>
+  </si>
+  <si>
+    <t>CNE100001M79</t>
+  </si>
+  <si>
+    <t>Shanghai Fosun Pharmaceutical</t>
+  </si>
+  <si>
+    <t>GB00BJ1F4N75</t>
+  </si>
+  <si>
+    <t>Micro Focus International PLC</t>
+  </si>
+  <si>
+    <t>CNE1000004Y2</t>
+  </si>
+  <si>
+    <t>ZTE Corp</t>
+  </si>
+  <si>
+    <t>2338.HK</t>
+  </si>
+  <si>
+    <t>CNE1000004L9</t>
+  </si>
+  <si>
+    <t>Weichai Power</t>
+  </si>
+  <si>
+    <t>CNE100001TJ4</t>
+  </si>
+  <si>
+    <t>BAIC Motor Corp Ltd</t>
+  </si>
+  <si>
+    <t>DE0008232125</t>
+  </si>
+  <si>
+    <t>Deutsche Lufthansa Aktiengesellschaft</t>
+  </si>
+  <si>
+    <t>CH0025751329</t>
+  </si>
+  <si>
+    <t>Logitech International SA</t>
+  </si>
+  <si>
+    <t>BMG2109G1033</t>
+  </si>
+  <si>
+    <t>China Gas Holdings Ltd</t>
+  </si>
+  <si>
+    <t>DE000TUAG000</t>
+  </si>
+  <si>
+    <t>TUI AG</t>
+  </si>
+  <si>
+    <t>USN070592100</t>
+  </si>
+  <si>
+    <t>ASML Holding NV</t>
+  </si>
+  <si>
+    <t>KYG9884T1013</t>
+  </si>
+  <si>
+    <t>Yuzhou Properties Co Ltd</t>
+  </si>
+  <si>
+    <t>US00214Q3020</t>
+  </si>
+  <si>
+    <t>ARK Genomic Revolution ETF</t>
+  </si>
+  <si>
+    <t>Cambridge Biomedical Campus, 1 Francis Crick Avenue, Cambridge, Cambridgeshire CB2 0AA, United Kingdom</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>GAC Center, No. 23 Xingguo Road, Zhujiang New Town, Tianhe District, Guangzhou, Guangdong 510623, China</t>
+  </si>
+  <si>
+    <t>Shangang County 1 Zijin Road, CN-FJ 364200 Longyan, Fujian, China</t>
+  </si>
+  <si>
+    <t>11440 WEST BERNARDO COURT, SUITE 220 SAN DIEGO CA 92127, USA</t>
+  </si>
+  <si>
+    <t>Room 2301 23 Floor, Great Eagle Centre 23 Harbour Road, HK- Wanchai, Hong Kong</t>
+  </si>
+  <si>
+    <t>Berliner Ring 2, Wolfsburg, Niedersachsen (Lwr Saxony) 38440, Germany</t>
+  </si>
+  <si>
+    <t>Porscheplatz 1, DE-70435 Stuttgart, Baden-Württemberg, Germany</t>
+  </si>
+  <si>
+    <t>Building A, No. 1289 Yishan Road, Shanghai 200233, China</t>
+  </si>
+  <si>
+    <t>The Lawn, 22-30 Old Bath Road, Newbury, Berkshire RG14 1QN, United Kingdom</t>
+  </si>
+  <si>
+    <t>No. 55 Siciene &amp; Tech South Road, Nanshan District, Shenzhen, Guangdong 518057, China</t>
+  </si>
+  <si>
+    <t>No. 197 Fu Shou East Street, Section A, High Technology Industrial Dev Zone, Weifang, Shandong 261061, China</t>
+  </si>
+  <si>
+    <t>No. 99, Shuanghe Street, Renhe Town, Shunyi District, Beijing 101300, China</t>
+  </si>
+  <si>
+    <t>Linnicher Strasse 48, Cologne, Nordrhein-Westfalen 50933, China</t>
+  </si>
+  <si>
+    <t>EPFL - Quartier de l'Innovation Daniel Borel Innovation Center, CH-1015 Lausanne, Waadt, Switzerland</t>
+  </si>
+  <si>
+    <t>Room 1601, 16th Floor, AXA Centre, 151 Gloucester Road, Hong Kong</t>
+  </si>
+  <si>
+    <t>Karl-Wiechert-Allee 4, Hannover, Niedersachsen (Lwr Saxony) 30625, Germany</t>
+  </si>
+  <si>
+    <t>De Run 6501, Veldhoven, Noord-Brabant 5504 DR, Netherlands</t>
+  </si>
+  <si>
+    <t>Yuzhou Plaza, 299 Jingang Road, Pudong New District, Shanghai 361003, China</t>
+  </si>
+  <si>
+    <t>155 WEST 19TH STREET, FIFTH FLOOR, NEW YORK, NY 10011, USA</t>
   </si>
 </sst>
 </file>
@@ -1697,10 +1940,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1755,7 +2002,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E137" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E157" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" name="ISIN" dataCellStyle="Navadno"/>
@@ -1967,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4312,29 +4559,349 @@
         <v>545</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki.git\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="691">
   <si>
     <t>Symbol</t>
   </si>
@@ -624,9 +624,6 @@
     <t>GE</t>
   </si>
   <si>
-    <t>US3696041033</t>
-  </si>
-  <si>
     <t>General Electric Co</t>
   </si>
   <si>
@@ -1906,6 +1903,195 @@
   </si>
   <si>
     <t>155 WEST 19TH STREET, FIFTH FLOOR, NEW YORK, NY 10011, USA</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>US29273V1008</t>
+  </si>
+  <si>
+    <t>Energy Transfer LP</t>
+  </si>
+  <si>
+    <t>8111 Westchester Drive, Suite 600, Dallas, TX 75225</t>
+  </si>
+  <si>
+    <t>SHEL.L</t>
+  </si>
+  <si>
+    <t>GB00BP6MXD84</t>
+  </si>
+  <si>
+    <t>Shell PLC</t>
+  </si>
+  <si>
+    <t>Carel van Bylandtlaan 30, The Hague 2596 HR, Netherlands</t>
+  </si>
+  <si>
+    <t>YINN</t>
+  </si>
+  <si>
+    <t>US25459W7719</t>
+  </si>
+  <si>
+    <t>Direxion Daily FTSE China Bull 3X Shares</t>
+  </si>
+  <si>
+    <t>1301 Avenue of the Americas, 6th Avenue 28th Floor, New York, 10019, United States</t>
+  </si>
+  <si>
+    <t>HMMJ</t>
+  </si>
+  <si>
+    <t>CA44054J1012</t>
+  </si>
+  <si>
+    <t>Horizons Marijuana Life Sciences Index ETF</t>
+  </si>
+  <si>
+    <t> 55 University Ave Suite 800, Toronto, ON M5E 1S2, Canada</t>
+  </si>
+  <si>
+    <t>SESG.PA</t>
+  </si>
+  <si>
+    <t>LU0088087324</t>
+  </si>
+  <si>
+    <t>SES GLOBAL FDR</t>
+  </si>
+  <si>
+    <t>Chateau de Betzdorf, Betzdorf, Betzdorf 6815, Luxembourg</t>
+  </si>
+  <si>
+    <t>LU</t>
+  </si>
+  <si>
+    <t>BBD</t>
+  </si>
+  <si>
+    <t>US0594603039</t>
+  </si>
+  <si>
+    <t>Banco Bradesco ADR</t>
+  </si>
+  <si>
+    <t>Cidade De Deus, Vila Yara, Osasco, SP 06029-900, Brazil</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>KIE</t>
+  </si>
+  <si>
+    <t>GB0004915632</t>
+  </si>
+  <si>
+    <t>Kier Group PLC</t>
+  </si>
+  <si>
+    <t>Optimum House, 2nd Floor Clippers Quay, Salford M50 3XP, United Kingdom</t>
+  </si>
+  <si>
+    <t>00966.HK</t>
+  </si>
+  <si>
+    <t>HK0000055878</t>
+  </si>
+  <si>
+    <t>China Taiping Insurance Holdin</t>
+  </si>
+  <si>
+    <t>18 King Wah Road, 25th Floor, North Point, Hong Kong</t>
+  </si>
+  <si>
+    <t>INVP</t>
+  </si>
+  <si>
+    <t>GB00B17BBQ50</t>
+  </si>
+  <si>
+    <t>Investec PLC</t>
+  </si>
+  <si>
+    <t>100 Grayston Drive, Sandown, Sandton 2196, South Africa</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>HKG50</t>
+  </si>
+  <si>
+    <t>HK0000004322</t>
+  </si>
+  <si>
+    <t>Hang Seng Indexes Co Ltd, 83 Des Voeux Road Central Hong Kong (SAR), Hong Kong</t>
+  </si>
+  <si>
+    <t>01211.HK</t>
+  </si>
+  <si>
+    <t>CNE100000296</t>
+  </si>
+  <si>
+    <t>BYD Co Ltd</t>
+  </si>
+  <si>
+    <t>3009, BYD Road, Pingshan District, Shenzhen, China</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>US26924G5080</t>
+  </si>
+  <si>
+    <t>ETFMG Alternative Harvest ETF</t>
+  </si>
+  <si>
+    <t>ETF Managers Group 30 Maple Ave, Suite 2 Summit, NJ 07091 USA</t>
+  </si>
+  <si>
+    <t>MU</t>
+  </si>
+  <si>
+    <t>US5951121038</t>
+  </si>
+  <si>
+    <t>Micron Technology, Inc.</t>
+  </si>
+  <si>
+    <t>8000 South Federal Way, Boise, ID 83716-9632, United States</t>
+  </si>
+  <si>
+    <t>APRN</t>
+  </si>
+  <si>
+    <t>US09523Q2003</t>
+  </si>
+  <si>
+    <t>Blue Apron Holdings Inc.</t>
+  </si>
+  <si>
+    <t>28 Liberty Street, New York, NY 10005, United States</t>
+  </si>
+  <si>
+    <t>ARKK</t>
+  </si>
+  <si>
+    <t>US00214Q1040</t>
+  </si>
+  <si>
+    <t>ARK Innovation ETF</t>
+  </si>
+  <si>
+    <t>3 E 28th Street, 7th Floor, New York, NY 10016, USA</t>
+  </si>
+  <si>
+    <t>US3696043013</t>
   </si>
 </sst>
 </file>
@@ -1940,10 +2126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2002,7 +2192,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E157" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E172" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" name="ISIN" dataCellStyle="Navadno"/>
@@ -2214,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3051,13 +3241,13 @@
         <v>200</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>148</v>
@@ -3065,16 +3255,16 @@
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>148</v>
@@ -3082,16 +3272,16 @@
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>148</v>
@@ -3099,16 +3289,16 @@
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>166</v>
@@ -3116,16 +3306,16 @@
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>148</v>
@@ -3133,16 +3323,16 @@
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>166</v>
@@ -3150,13 +3340,13 @@
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>195</v>
@@ -3167,16 +3357,16 @@
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>148</v>
@@ -3184,16 +3374,16 @@
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>148</v>
@@ -3201,16 +3391,16 @@
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>148</v>
@@ -3218,16 +3408,16 @@
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>148</v>
@@ -3235,16 +3425,16 @@
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>148</v>
@@ -3252,16 +3442,16 @@
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>148</v>
@@ -3269,13 +3459,13 @@
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>253</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>195</v>
@@ -3286,16 +3476,16 @@
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>148</v>
@@ -3303,16 +3493,16 @@
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>148</v>
@@ -3320,16 +3510,16 @@
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>161</v>
@@ -3337,16 +3527,16 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>148</v>
@@ -3354,16 +3544,16 @@
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>148</v>
@@ -3371,16 +3561,16 @@
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>148</v>
@@ -3388,16 +3578,16 @@
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>148</v>
@@ -3405,16 +3595,16 @@
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>285</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>148</v>
@@ -3422,16 +3612,16 @@
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>148</v>
@@ -3439,16 +3629,16 @@
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>182</v>
@@ -3456,16 +3646,16 @@
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>182</v>
@@ -3473,16 +3663,16 @@
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>182</v>
@@ -3490,16 +3680,16 @@
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>166</v>
@@ -3507,16 +3697,16 @@
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>148</v>
@@ -3524,13 +3714,13 @@
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>195</v>
@@ -3541,16 +3731,16 @@
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>148</v>
@@ -3558,16 +3748,16 @@
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>148</v>
@@ -3575,16 +3765,16 @@
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>148</v>
@@ -3592,16 +3782,16 @@
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>148</v>
@@ -3609,16 +3799,16 @@
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>148</v>
@@ -3626,16 +3816,16 @@
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>166</v>
@@ -3643,16 +3833,16 @@
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>148</v>
@@ -3660,13 +3850,13 @@
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>339</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>195</v>
@@ -3677,16 +3867,16 @@
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>148</v>
@@ -3694,16 +3884,16 @@
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>347</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>148</v>
@@ -3711,16 +3901,16 @@
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>148</v>
@@ -3728,16 +3918,16 @@
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>148</v>
@@ -3745,16 +3935,16 @@
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>148</v>
@@ -3762,16 +3952,16 @@
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>362</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>148</v>
@@ -3779,16 +3969,16 @@
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="C92" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>148</v>
@@ -3796,50 +3986,50 @@
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>380</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>148</v>
@@ -3847,33 +4037,33 @@
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>388</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>30</v>
@@ -3881,16 +4071,16 @@
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>148</v>
@@ -3898,16 +4088,16 @@
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>148</v>
@@ -3915,16 +4105,16 @@
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D100" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>148</v>
@@ -3932,16 +4122,16 @@
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>404</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>148</v>
@@ -3949,16 +4139,16 @@
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>148</v>
@@ -3966,16 +4156,16 @@
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>411</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>148</v>
@@ -3983,16 +4173,16 @@
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>161</v>
@@ -4000,16 +4190,16 @@
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="D105" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>148</v>
@@ -4017,16 +4207,16 @@
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>422</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>423</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>30</v>
@@ -4034,16 +4224,16 @@
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B107" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>148</v>
@@ -4051,16 +4241,16 @@
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>148</v>
@@ -4068,33 +4258,33 @@
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>435</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>439</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>148</v>
@@ -4102,16 +4292,16 @@
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>148</v>
@@ -4119,33 +4309,33 @@
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>451</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>148</v>
@@ -4153,16 +4343,16 @@
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>148</v>
@@ -4170,16 +4360,16 @@
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>458</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>459</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>187</v>
@@ -4187,33 +4377,33 @@
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>148</v>
@@ -4221,16 +4411,16 @@
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>488</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>489</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>148</v>
@@ -4238,16 +4428,16 @@
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C119" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>491</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>492</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>166</v>
@@ -4255,16 +4445,16 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>494</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>495</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>148</v>
@@ -4272,16 +4462,16 @@
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>498</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>161</v>
@@ -4289,16 +4479,16 @@
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>148</v>
@@ -4306,16 +4496,16 @@
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>148</v>
@@ -4323,16 +4513,16 @@
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>166</v>
@@ -4340,13 +4530,13 @@
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>195</v>
@@ -4357,16 +4547,16 @@
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>512</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>148</v>
@@ -4374,16 +4564,16 @@
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>148</v>
@@ -4391,13 +4581,13 @@
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>195</v>
@@ -4408,16 +4598,16 @@
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>519</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>520</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>148</v>
@@ -4425,16 +4615,16 @@
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>523</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>148</v>
@@ -4442,16 +4632,16 @@
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>148</v>
@@ -4459,16 +4649,16 @@
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>182</v>
@@ -4476,33 +4666,33 @@
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>534</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>535</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>187</v>
@@ -4510,16 +4700,16 @@
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C135" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>148</v>
@@ -4527,16 +4717,16 @@
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>540</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>541</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>148</v>
@@ -4544,33 +4734,33 @@
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="D138" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>30</v>
@@ -4578,33 +4768,33 @@
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>571</v>
-      </c>
       <c r="D139" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E139" s="4" t="s">
         <v>609</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>573</v>
-      </c>
       <c r="D140" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>30</v>
@@ -4612,16 +4802,16 @@
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>575</v>
-      </c>
       <c r="D141" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>30</v>
@@ -4629,16 +4819,16 @@
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>577</v>
-      </c>
       <c r="D142" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>148</v>
@@ -4646,16 +4836,16 @@
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>579</v>
-      </c>
       <c r="D143" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>9</v>
@@ -4663,16 +4853,16 @@
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>581</v>
-      </c>
       <c r="D144" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>161</v>
@@ -4680,16 +4870,16 @@
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>583</v>
-      </c>
       <c r="D145" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>161</v>
@@ -4697,16 +4887,16 @@
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>585</v>
-      </c>
       <c r="D146" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>30</v>
@@ -4714,33 +4904,33 @@
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="D147" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>589</v>
-      </c>
       <c r="D148" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>30</v>
@@ -4748,16 +4938,16 @@
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="C149" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>592</v>
-      </c>
       <c r="D149" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>30</v>
@@ -4765,16 +4955,16 @@
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>594</v>
-      </c>
       <c r="D150" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>30</v>
@@ -4782,16 +4972,16 @@
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>596</v>
-      </c>
       <c r="D151" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>30</v>
@@ -4799,16 +4989,16 @@
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>598</v>
-      </c>
       <c r="D152" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>187</v>
@@ -4816,16 +5006,16 @@
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>600</v>
-      </c>
       <c r="D153" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>9</v>
@@ -4833,16 +5023,16 @@
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>602</v>
-      </c>
       <c r="D154" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>161</v>
@@ -4850,16 +5040,16 @@
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>604</v>
-      </c>
       <c r="D155" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>182</v>
@@ -4867,16 +5057,16 @@
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>606</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>30</v>
@@ -4884,40 +5074,280 @@
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>608</v>
-      </c>
       <c r="D157" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B158" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B159" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B160" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B165" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="B167" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="E167" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="B168" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E168" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="E169" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="E170" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C171" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="731">
   <si>
     <t>Symbol</t>
   </si>
@@ -1293,15 +1293,9 @@
     <t>NVTKL.L</t>
   </si>
   <si>
-    <t>US66989PAB67</t>
-  </si>
-  <si>
     <t>NOVATEK OAO</t>
   </si>
   <si>
-    <t>PAO NOVATEK, Tarko-Sale, Yamalo-Nenets Autonomous District, 629850, Russia</t>
-  </si>
-  <si>
     <t>LDOS</t>
   </si>
   <si>
@@ -1389,15 +1383,9 @@
     <t>UBSG</t>
   </si>
   <si>
-    <t>CH0409606354</t>
-  </si>
-  <si>
     <t>UBS Group AG</t>
   </si>
   <si>
-    <t>Bahnhofstrasse 45 P.O. Box 8098 Zurich Switzerland</t>
-  </si>
-  <si>
     <t>CDI.PA</t>
   </si>
   <si>
@@ -2092,18 +2080,155 @@
   </si>
   <si>
     <t>US3696043013</t>
+  </si>
+  <si>
+    <t>AM.PA</t>
+  </si>
+  <si>
+    <t>FR0014004L86</t>
+  </si>
+  <si>
+    <t>Dassault Aviation SA</t>
+  </si>
+  <si>
+    <t>Immeuble Marcel-Dassault 9 Rond-Point des Champs-Elysées, FR-75008 Paris</t>
+  </si>
+  <si>
+    <t>FXPO</t>
+  </si>
+  <si>
+    <t>GB00B1XH2C03</t>
+  </si>
+  <si>
+    <t>Ferrexpo Plc</t>
+  </si>
+  <si>
+    <t>Bahnhofstrasse 13, Baar, Zug 6340</t>
+  </si>
+  <si>
+    <t>GOLD.BARRICK</t>
+  </si>
+  <si>
+    <t>CA0679011084</t>
+  </si>
+  <si>
+    <t>Barrick Gold</t>
+  </si>
+  <si>
+    <t>Brookfield Place, TD Canada Trust Tower, 161 Bay Street, Suite 3700, Toronto, ON M5J 2S1</t>
+  </si>
+  <si>
+    <t>MC.PA</t>
+  </si>
+  <si>
+    <t>FR0000121014</t>
+  </si>
+  <si>
+    <t>22 Avenue Montaigne Paris, 75008 France</t>
+  </si>
+  <si>
+    <t>NTDOY</t>
+  </si>
+  <si>
+    <t>US6544453037</t>
+  </si>
+  <si>
+    <t>Nintendo CO Ltd</t>
+  </si>
+  <si>
+    <t>4600 150th Ave NE, Redmond, WA 98052, United States</t>
+  </si>
+  <si>
+    <t>SMSN.L</t>
+  </si>
+  <si>
+    <t>US7960508882</t>
+  </si>
+  <si>
+    <t>Samsung Electronics Co Ltd</t>
+  </si>
+  <si>
+    <t>129 Samsung-ro, Yeongtong-gu Suwon, Gyeonggi, 16677 Republic Of Korea</t>
+  </si>
+  <si>
+    <t>SONY</t>
+  </si>
+  <si>
+    <t>US8356993076</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>25 Madison Avenue, New York City, United States</t>
+  </si>
+  <si>
+    <t>VALE</t>
+  </si>
+  <si>
+    <t>US91912E1055</t>
+  </si>
+  <si>
+    <t>Vale SA</t>
+  </si>
+  <si>
+    <t>Praia de Botafogo, 186 Rio De Janeiro, RJ 22250-145 Brazil</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>US9621661043</t>
+  </si>
+  <si>
+    <t>Weyerhaeuser Co</t>
+  </si>
+  <si>
+    <t>220 Occidental Avenue South, Seattle, WA 98104-7800</t>
+  </si>
+  <si>
+    <t>TER</t>
+  </si>
+  <si>
+    <t>US8807701029</t>
+  </si>
+  <si>
+    <t>Teradyne Inc</t>
+  </si>
+  <si>
+    <t>600 Riverpark Drive, North Reading, MA 01864</t>
+  </si>
+  <si>
+    <t>CH0244767585</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bahnhofstrasse 45, 8001 Zurich, Switzerland</t>
+  </si>
+  <si>
+    <t>US6698881090</t>
+  </si>
+  <si>
+    <t>2 Udaltsova Street, Moscow, 119415, Russian Federation</t>
+  </si>
+  <si>
+    <t>RU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2123,8 +2248,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2141,8 +2267,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Navadno 2" xfId="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2192,7 +2319,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E172" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E182" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" name="ISIN" dataCellStyle="Navadno"/>
@@ -2404,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3241,7 +3368,7 @@
         <v>200</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>201</v>
@@ -4199,7 +4326,7 @@
         <v>418</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>148</v>
@@ -4227,30 +4354,30 @@
         <v>423</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="D107" s="1" t="s">
-        <v>426</v>
+        <v>729</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>148</v>
+        <v>730</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>148</v>
@@ -4258,16 +4385,16 @@
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>370</v>
@@ -4275,16 +4402,16 @@
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>148</v>
@@ -4292,16 +4419,16 @@
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>442</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>148</v>
@@ -4309,33 +4436,33 @@
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="E112" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="D113" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>148</v>
@@ -4343,16 +4470,16 @@
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>148</v>
@@ -4360,16 +4487,16 @@
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>456</v>
+        <v>726</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>458</v>
+        <v>727</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>187</v>
@@ -4377,16 +4504,16 @@
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>370</v>
@@ -4394,16 +4521,16 @@
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>148</v>
@@ -4411,16 +4538,16 @@
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>148</v>
@@ -4428,16 +4555,16 @@
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>166</v>
@@ -4445,16 +4572,16 @@
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>148</v>
@@ -4462,16 +4589,16 @@
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>161</v>
@@ -4479,16 +4606,16 @@
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>148</v>
@@ -4496,16 +4623,16 @@
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>148</v>
@@ -4513,16 +4640,16 @@
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>166</v>
@@ -4530,13 +4657,13 @@
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>195</v>
@@ -4547,16 +4674,16 @@
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>148</v>
@@ -4564,16 +4691,16 @@
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>148</v>
@@ -4581,13 +4708,13 @@
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>195</v>
@@ -4598,16 +4725,16 @@
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>148</v>
@@ -4615,16 +4742,16 @@
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>148</v>
@@ -4632,16 +4759,16 @@
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>148</v>
@@ -4649,16 +4776,16 @@
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>182</v>
@@ -4666,33 +4793,33 @@
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>187</v>
@@ -4700,16 +4827,16 @@
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>148</v>
@@ -4717,16 +4844,16 @@
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>148</v>
@@ -4734,33 +4861,33 @@
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>30</v>
@@ -4768,33 +4895,33 @@
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>30</v>
@@ -4802,16 +4929,16 @@
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>30</v>
@@ -4819,16 +4946,16 @@
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>148</v>
@@ -4836,16 +4963,16 @@
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>9</v>
@@ -4853,16 +4980,16 @@
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>161</v>
@@ -4870,16 +4997,16 @@
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>161</v>
@@ -4887,16 +5014,16 @@
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>30</v>
@@ -4904,33 +5031,33 @@
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>30</v>
@@ -4938,16 +5065,16 @@
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E149" s="4" t="s">
         <v>30</v>
@@ -4955,16 +5082,16 @@
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>30</v>
@@ -4972,16 +5099,16 @@
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>30</v>
@@ -4989,16 +5116,16 @@
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>187</v>
@@ -5006,16 +5133,16 @@
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>9</v>
@@ -5023,16 +5150,16 @@
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>161</v>
@@ -5040,16 +5167,16 @@
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>182</v>
@@ -5057,16 +5184,16 @@
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>30</v>
@@ -5074,16 +5201,16 @@
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>148</v>
@@ -5091,16 +5218,16 @@
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>148</v>
@@ -5108,16 +5235,16 @@
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E159" s="6" t="s">
         <v>182</v>
@@ -5125,16 +5252,16 @@
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>148</v>
@@ -5142,84 +5269,84 @@
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="E161" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B163" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="E163" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>9</v>
@@ -5227,33 +5354,33 @@
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E166" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="E167" s="6" t="s">
         <v>9</v>
@@ -5261,16 +5388,16 @@
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="E168" s="6" t="s">
         <v>30</v>
@@ -5278,16 +5405,16 @@
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="E169" s="6" t="s">
         <v>148</v>
@@ -5295,16 +5422,16 @@
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>148</v>
@@ -5312,16 +5439,16 @@
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>148</v>
@@ -5329,41 +5456,201 @@
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B172" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E172" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="B173" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="C173" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="E172" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D173" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="E173" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="E175" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="E176" s="6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="E177" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E178" s="6" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="E179" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E180" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E182" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki.git\etoro-edavki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="760">
   <si>
     <t>Symbol</t>
   </si>
@@ -2212,6 +2212,93 @@
   </si>
   <si>
     <t>RU</t>
+  </si>
+  <si>
+    <t>US00214Q7088</t>
+  </si>
+  <si>
+    <t>ARK FINTECH INNOVATION ETF</t>
+  </si>
+  <si>
+    <t>ARKF</t>
+  </si>
+  <si>
+    <t>ARK Invest, 155 West 19th Street 5th Floor, New York, NY 10011, USA</t>
+  </si>
+  <si>
+    <t>US0321086078</t>
+  </si>
+  <si>
+    <t>Amplify Transformational Data Sharing ETF</t>
+  </si>
+  <si>
+    <t>AMPLIFY ETF TRUST. AMPLIFY INVESTMENTS LLC. 3250 Lacey Road, Suite 130. Downers Grove, IL 60515, USA</t>
+  </si>
+  <si>
+    <t>BLOK</t>
+  </si>
+  <si>
+    <t>06862.HK</t>
+  </si>
+  <si>
+    <t>AVV</t>
+  </si>
+  <si>
+    <t>FDX</t>
+  </si>
+  <si>
+    <t>PLUS.L</t>
+  </si>
+  <si>
+    <t>BESI.NV</t>
+  </si>
+  <si>
+    <t>GB00BBG9VN75</t>
+  </si>
+  <si>
+    <t>US31428X1063</t>
+  </si>
+  <si>
+    <t>IL0011284465</t>
+  </si>
+  <si>
+    <t>NL0012866412</t>
+  </si>
+  <si>
+    <t>KYG4290A1013</t>
+  </si>
+  <si>
+    <t>AVEVA Group PLC</t>
+  </si>
+  <si>
+    <t>FedEx Corporation</t>
+  </si>
+  <si>
+    <t>PLUS 500 LTD</t>
+  </si>
+  <si>
+    <t>BE Semiconductor Industries NV</t>
+  </si>
+  <si>
+    <t>Haidilao International Holding</t>
+  </si>
+  <si>
+    <t>AVEVA Group plc, High Cross Madingley Road, CB3 0HB Cambridge, Cambridgeshire, UK</t>
+  </si>
+  <si>
+    <t>FedEx Corporation, 942 Road South Shady Grove, TN 38120 Memphis, Tennessee, USA</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Plus500 Ltd., Building 25, Matam, Haifa 31905, Israel</t>
+  </si>
+  <si>
+    <t>BE Semiconductor Industries N.V., Ratio 6, NL-6921 RW Duiven, NL</t>
+  </si>
+  <si>
+    <t>Haidilao International Holding Ltd., Hutchins Drive Criquet Square, PO Box 2681, KY1-1111 Grand Cayman</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2406,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E182" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E189" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" name="ISIN" dataCellStyle="Navadno"/>
@@ -2531,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:E107"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5641,13 +5728,125 @@
         <v>148</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="E183" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="E184" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="B186" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B187" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="B188" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="E189" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki.git\etoro-edavki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E957EA1-1A41-4181-8AF9-256D5456E1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="51195" windowHeight="28305"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="780">
   <si>
     <t>Symbol</t>
   </si>
@@ -420,9 +421,6 @@
     <t>2601.HK</t>
   </si>
   <si>
-    <t>CNE1000008M8</t>
-  </si>
-  <si>
     <t>China Pacific Insurance (Group) Co Ltd</t>
   </si>
   <si>
@@ -2320,12 +2318,54 @@
   </si>
   <si>
     <t>AVEVA Group plc, High Cross Madingley Road, CB3 0HB Cambridge, Cambridgeshire, United Kingdom</t>
+  </si>
+  <si>
+    <t>CNE1000009Q7</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>MHY737601945</t>
+  </si>
+  <si>
+    <t>Seanergy Maritime Holdings Corp</t>
+  </si>
+  <si>
+    <t>VOLV-A</t>
+  </si>
+  <si>
+    <t>SE0000115420</t>
+  </si>
+  <si>
+    <t>Volvo AB ser. A</t>
+  </si>
+  <si>
+    <t>9618.HK</t>
+  </si>
+  <si>
+    <t>KYG8208B1014</t>
+  </si>
+  <si>
+    <t>JD.com Inc</t>
+  </si>
+  <si>
+    <t>154 Vouliagmenis Avenue, Athens, 166 74, Greece</t>
+  </si>
+  <si>
+    <t>GR</t>
+  </si>
+  <si>
+    <t>GropegArdsgatan 2, Gothenburg, 417 15, Sweden</t>
+  </si>
+  <si>
+    <t>No. 18 Kechuang 11 Street, 20th Floor, Building A, Daxing District, Beijing 101111, China</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2360,14 +2400,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2377,7 +2412,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Navadno 2" xfId="1"/>
+    <cellStyle name="Navadno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2409,7 +2444,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Info-style" pivot="0" count="3">
+    <tableStyle name="Info-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="firstRowStripe" dxfId="2"/>
       <tableStyleElement type="secondRowStripe" dxfId="1"/>
@@ -2427,13 +2462,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_1" displayName="Table_1" ref="A1:E191" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E194" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
-    <tableColumn id="1" name="Symbol" dataCellStyle="Navadno"/>
-    <tableColumn id="2" name="ISIN" dataCellStyle="Navadno"/>
-    <tableColumn id="3" name="Name" dataCellStyle="Navadno"/>
-    <tableColumn id="4" name="Address" dataCellStyle="Navadno"/>
-    <tableColumn id="5" name="CountryCode" dataDxfId="0" dataCellStyle="Navadno"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataCellStyle="Navadno"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address" dataCellStyle="Navadno"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode" dataDxfId="0" dataCellStyle="Navadno"/>
   </tableColumns>
   <tableStyleInfo name="Info-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2636,3289 +2671,3336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="E194" sqref="E194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="103.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="12.7109375" style="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="103.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>102</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>112</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" t="s">
         <v>125</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>129</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>766</v>
+      </c>
+      <c r="C33" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" t="s">
         <v>134</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>135</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D34" s="1" t="s">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="B35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="1" t="s">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B37" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38" t="s">
+        <v>155</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>169</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
+      </c>
+      <c r="D44" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" t="s">
+        <v>185</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
+      </c>
+      <c r="D46" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B48" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" t="s">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>199</v>
+      </c>
+      <c r="B49" t="s">
+        <v>684</v>
+      </c>
+      <c r="C49" t="s">
+        <v>200</v>
+      </c>
+      <c r="D49" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C53" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>218</v>
+      </c>
+      <c r="B54" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" t="s">
+        <v>221</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" t="s">
+        <v>224</v>
+      </c>
+      <c r="D55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D56" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" t="s">
+        <v>231</v>
+      </c>
+      <c r="D57" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" t="s">
+        <v>235</v>
+      </c>
+      <c r="D58" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" t="s">
+        <v>243</v>
+      </c>
+      <c r="D60" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" t="s">
+        <v>247</v>
+      </c>
+      <c r="D61" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" t="s">
+        <v>251</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>252</v>
+      </c>
+      <c r="B63" t="s">
+        <v>253</v>
+      </c>
+      <c r="C63" t="s">
+        <v>254</v>
+      </c>
+      <c r="D63" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>256</v>
+      </c>
+      <c r="B64" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>260</v>
+      </c>
+      <c r="B65" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" t="s">
+        <v>262</v>
+      </c>
+      <c r="D65" t="s">
+        <v>263</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" t="s">
+        <v>267</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" t="s">
+        <v>269</v>
+      </c>
+      <c r="C67" t="s">
+        <v>270</v>
+      </c>
+      <c r="D67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>276</v>
+      </c>
+      <c r="B69" t="s">
+        <v>277</v>
+      </c>
+      <c r="C69" t="s">
+        <v>278</v>
+      </c>
+      <c r="D69" t="s">
+        <v>279</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>280</v>
+      </c>
+      <c r="B70" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" t="s">
+        <v>282</v>
+      </c>
+      <c r="D70" t="s">
+        <v>283</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>284</v>
+      </c>
+      <c r="B71" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" t="s">
+        <v>286</v>
+      </c>
+      <c r="D71" t="s">
+        <v>287</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" t="s">
+        <v>291</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>292</v>
+      </c>
+      <c r="B73" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" t="s">
+        <v>294</v>
+      </c>
+      <c r="D73" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" t="s">
+        <v>293</v>
+      </c>
+      <c r="C74" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" t="s">
+        <v>291</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>297</v>
+      </c>
+      <c r="B75" t="s">
+        <v>298</v>
+      </c>
+      <c r="C75" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" t="s">
+        <v>300</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" t="s">
+        <v>302</v>
+      </c>
+      <c r="C76" t="s">
+        <v>303</v>
+      </c>
+      <c r="D76" t="s">
+        <v>304</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>305</v>
+      </c>
+      <c r="B77" t="s">
+        <v>306</v>
+      </c>
+      <c r="C77" t="s">
+        <v>307</v>
+      </c>
+      <c r="D77" t="s">
+        <v>194</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" t="s">
+        <v>310</v>
+      </c>
+      <c r="D78" t="s">
+        <v>311</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" t="s">
+        <v>314</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>316</v>
+      </c>
+      <c r="B80" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>319</v>
+      </c>
+      <c r="B81" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" t="s">
+        <v>321</v>
+      </c>
+      <c r="D81" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>323</v>
+      </c>
+      <c r="B82" t="s">
+        <v>324</v>
+      </c>
+      <c r="C82" t="s">
+        <v>325</v>
+      </c>
+      <c r="D82" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>327</v>
+      </c>
+      <c r="B83" t="s">
+        <v>328</v>
+      </c>
+      <c r="C83" t="s">
+        <v>329</v>
+      </c>
+      <c r="D83" t="s">
+        <v>330</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>331</v>
+      </c>
+      <c r="B84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C84" t="s">
+        <v>333</v>
+      </c>
+      <c r="D84" t="s">
+        <v>334</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>335</v>
+      </c>
+      <c r="B85" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" t="s">
+        <v>337</v>
+      </c>
+      <c r="D85" t="s">
+        <v>194</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>338</v>
+      </c>
+      <c r="B86" t="s">
+        <v>339</v>
+      </c>
+      <c r="C86" t="s">
+        <v>340</v>
+      </c>
+      <c r="D86" t="s">
+        <v>341</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>342</v>
+      </c>
+      <c r="B87" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87" t="s">
+        <v>344</v>
+      </c>
+      <c r="D87" t="s">
+        <v>345</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>346</v>
+      </c>
+      <c r="B88" t="s">
+        <v>347</v>
+      </c>
+      <c r="C88" t="s">
+        <v>348</v>
+      </c>
+      <c r="D88" t="s">
+        <v>349</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>350</v>
+      </c>
+      <c r="B89" t="s">
+        <v>351</v>
+      </c>
+      <c r="C89" t="s">
+        <v>352</v>
+      </c>
+      <c r="D89" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" t="s">
+        <v>355</v>
+      </c>
+      <c r="C90" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>357</v>
+      </c>
+      <c r="B91" t="s">
+        <v>358</v>
+      </c>
+      <c r="C91" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" t="s">
+        <v>360</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" t="s">
+        <v>362</v>
+      </c>
+      <c r="C92" t="s">
+        <v>363</v>
+      </c>
+      <c r="D92" t="s">
+        <v>364</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" t="s">
+        <v>366</v>
+      </c>
+      <c r="C93" t="s">
+        <v>367</v>
+      </c>
+      <c r="D93" t="s">
+        <v>368</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>370</v>
+      </c>
+      <c r="B94" t="s">
+        <v>371</v>
+      </c>
+      <c r="C94" t="s">
+        <v>372</v>
+      </c>
+      <c r="D94" t="s">
+        <v>373</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>375</v>
+      </c>
+      <c r="B95" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" t="s">
+        <v>377</v>
+      </c>
+      <c r="D95" t="s">
+        <v>378</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" t="s">
+        <v>381</v>
+      </c>
+      <c r="D96" t="s">
+        <v>382</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>383</v>
+      </c>
+      <c r="B97" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" t="s">
+        <v>386</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D39" s="1" t="s">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>387</v>
+      </c>
+      <c r="B98" t="s">
+        <v>388</v>
+      </c>
+      <c r="C98" t="s">
+        <v>389</v>
+      </c>
+      <c r="D98" t="s">
+        <v>390</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>391</v>
+      </c>
+      <c r="B99" t="s">
+        <v>392</v>
+      </c>
+      <c r="C99" t="s">
+        <v>393</v>
+      </c>
+      <c r="D99" t="s">
+        <v>394</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>395</v>
+      </c>
+      <c r="B100" t="s">
+        <v>396</v>
+      </c>
+      <c r="C100" t="s">
+        <v>397</v>
+      </c>
+      <c r="D100" t="s">
+        <v>398</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>399</v>
+      </c>
+      <c r="B101" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" t="s">
+        <v>401</v>
+      </c>
+      <c r="D101" t="s">
+        <v>402</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>403</v>
+      </c>
+      <c r="B102" t="s">
+        <v>404</v>
+      </c>
+      <c r="C102" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" t="s">
+        <v>406</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>407</v>
+      </c>
+      <c r="B103" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" t="s">
+        <v>410</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>411</v>
+      </c>
+      <c r="B104" t="s">
+        <v>412</v>
+      </c>
+      <c r="C104" t="s">
+        <v>413</v>
+      </c>
+      <c r="D104" t="s">
+        <v>414</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>415</v>
+      </c>
+      <c r="B105" t="s">
+        <v>416</v>
+      </c>
+      <c r="C105" t="s">
+        <v>417</v>
+      </c>
+      <c r="D105" t="s">
+        <v>541</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>418</v>
+      </c>
+      <c r="B106" t="s">
+        <v>419</v>
+      </c>
+      <c r="C106" t="s">
+        <v>420</v>
+      </c>
+      <c r="D106" t="s">
+        <v>421</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" t="s">
+        <v>726</v>
+      </c>
+      <c r="C107" t="s">
+        <v>423</v>
+      </c>
+      <c r="D107" t="s">
+        <v>727</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>424</v>
+      </c>
+      <c r="B108" t="s">
+        <v>425</v>
+      </c>
+      <c r="C108" t="s">
+        <v>426</v>
+      </c>
+      <c r="D108" t="s">
+        <v>427</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>428</v>
+      </c>
+      <c r="B109" t="s">
+        <v>429</v>
+      </c>
+      <c r="C109" t="s">
+        <v>430</v>
+      </c>
+      <c r="D109" t="s">
+        <v>431</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>432</v>
+      </c>
+      <c r="B110" t="s">
+        <v>433</v>
+      </c>
+      <c r="C110" t="s">
+        <v>434</v>
+      </c>
+      <c r="D110" t="s">
+        <v>435</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>436</v>
+      </c>
+      <c r="B111" t="s">
+        <v>437</v>
+      </c>
+      <c r="C111" t="s">
+        <v>438</v>
+      </c>
+      <c r="D111" t="s">
+        <v>439</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>440</v>
+      </c>
+      <c r="B112" t="s">
+        <v>441</v>
+      </c>
+      <c r="C112" t="s">
+        <v>442</v>
+      </c>
+      <c r="D112" t="s">
+        <v>443</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>445</v>
+      </c>
+      <c r="B113" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" t="s">
+        <v>447</v>
+      </c>
+      <c r="D113" t="s">
+        <v>541</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>448</v>
+      </c>
+      <c r="B114" t="s">
+        <v>449</v>
+      </c>
+      <c r="C114" t="s">
+        <v>450</v>
+      </c>
+      <c r="D114" t="s">
+        <v>451</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>452</v>
+      </c>
+      <c r="B115" t="s">
+        <v>724</v>
+      </c>
+      <c r="C115" t="s">
+        <v>453</v>
+      </c>
+      <c r="D115" t="s">
+        <v>725</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>454</v>
+      </c>
+      <c r="B116" t="s">
+        <v>455</v>
+      </c>
+      <c r="C116" t="s">
+        <v>456</v>
+      </c>
+      <c r="D116" t="s">
+        <v>457</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>458</v>
+      </c>
+      <c r="B117" t="s">
+        <v>459</v>
+      </c>
+      <c r="C117" t="s">
+        <v>460</v>
+      </c>
+      <c r="D117" t="s">
+        <v>461</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>462</v>
+      </c>
+      <c r="B118" t="s">
+        <v>484</v>
+      </c>
+      <c r="C118" t="s">
+        <v>482</v>
+      </c>
+      <c r="D118" t="s">
+        <v>483</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>463</v>
+      </c>
+      <c r="B119" t="s">
+        <v>487</v>
+      </c>
+      <c r="C119" t="s">
+        <v>485</v>
+      </c>
+      <c r="D119" t="s">
+        <v>486</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="1" t="s">
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>464</v>
+      </c>
+      <c r="B120" t="s">
+        <v>490</v>
+      </c>
+      <c r="C120" t="s">
+        <v>488</v>
+      </c>
+      <c r="D120" t="s">
+        <v>489</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>465</v>
+      </c>
+      <c r="B121" t="s">
+        <v>492</v>
+      </c>
+      <c r="C121" t="s">
+        <v>491</v>
+      </c>
+      <c r="D121" t="s">
+        <v>493</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>466</v>
+      </c>
+      <c r="B122" t="s">
+        <v>496</v>
+      </c>
+      <c r="C122" t="s">
+        <v>494</v>
+      </c>
+      <c r="D122" t="s">
+        <v>495</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>467</v>
+      </c>
+      <c r="B123" t="s">
+        <v>499</v>
+      </c>
+      <c r="C123" t="s">
+        <v>497</v>
+      </c>
+      <c r="D123" t="s">
+        <v>498</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>468</v>
+      </c>
+      <c r="B124" t="s">
+        <v>502</v>
+      </c>
+      <c r="C124" t="s">
+        <v>500</v>
+      </c>
+      <c r="D124" t="s">
+        <v>501</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>469</v>
+      </c>
+      <c r="B125" t="s">
+        <v>504</v>
+      </c>
+      <c r="C125" t="s">
+        <v>503</v>
+      </c>
+      <c r="D125" t="s">
+        <v>194</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>470</v>
+      </c>
+      <c r="B126" t="s">
+        <v>507</v>
+      </c>
+      <c r="C126" t="s">
+        <v>505</v>
+      </c>
+      <c r="D126" t="s">
+        <v>506</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>471</v>
+      </c>
+      <c r="B127" t="s">
+        <v>510</v>
+      </c>
+      <c r="C127" t="s">
+        <v>508</v>
+      </c>
+      <c r="D127" t="s">
+        <v>509</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>472</v>
+      </c>
+      <c r="B128" t="s">
+        <v>512</v>
+      </c>
+      <c r="C128" t="s">
+        <v>511</v>
+      </c>
+      <c r="D128" t="s">
+        <v>194</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>473</v>
+      </c>
+      <c r="B129" t="s">
+        <v>515</v>
+      </c>
+      <c r="C129" t="s">
+        <v>513</v>
+      </c>
+      <c r="D129" t="s">
+        <v>514</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>474</v>
+      </c>
+      <c r="B130" t="s">
+        <v>518</v>
+      </c>
+      <c r="C130" t="s">
+        <v>516</v>
+      </c>
+      <c r="D130" t="s">
+        <v>517</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>475</v>
+      </c>
+      <c r="B131" t="s">
+        <v>520</v>
+      </c>
+      <c r="C131" t="s">
+        <v>519</v>
+      </c>
+      <c r="D131" t="s">
+        <v>541</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>477</v>
+      </c>
+      <c r="B132" t="s">
+        <v>523</v>
+      </c>
+      <c r="C132" t="s">
+        <v>521</v>
+      </c>
+      <c r="D132" t="s">
+        <v>522</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D45" s="1" t="s">
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>478</v>
+      </c>
+      <c r="B133" t="s">
+        <v>526</v>
+      </c>
+      <c r="C133" t="s">
+        <v>524</v>
+      </c>
+      <c r="D133" t="s">
+        <v>525</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>479</v>
+      </c>
+      <c r="B134" t="s">
+        <v>530</v>
+      </c>
+      <c r="C134" t="s">
+        <v>528</v>
+      </c>
+      <c r="D134" t="s">
+        <v>529</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>480</v>
+      </c>
+      <c r="B135" t="s">
+        <v>533</v>
+      </c>
+      <c r="C135" t="s">
+        <v>531</v>
+      </c>
+      <c r="D135" t="s">
+        <v>532</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>481</v>
+      </c>
+      <c r="B136" t="s">
+        <v>536</v>
+      </c>
+      <c r="C136" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" t="s">
+        <v>535</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>476</v>
+      </c>
+      <c r="B137" t="s">
+        <v>540</v>
+      </c>
+      <c r="C137" t="s">
+        <v>537</v>
+      </c>
+      <c r="D137" t="s">
+        <v>538</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>542</v>
+      </c>
+      <c r="B138" t="s">
+        <v>562</v>
+      </c>
+      <c r="C138" t="s">
+        <v>563</v>
+      </c>
+      <c r="D138" t="s">
+        <v>561</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>558</v>
+      </c>
+      <c r="B139" t="s">
+        <v>564</v>
+      </c>
+      <c r="C139" t="s">
+        <v>565</v>
+      </c>
+      <c r="D139" t="s">
+        <v>603</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>560</v>
+      </c>
+      <c r="B140" t="s">
+        <v>566</v>
+      </c>
+      <c r="C140" t="s">
+        <v>567</v>
+      </c>
+      <c r="D140" t="s">
+        <v>604</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>546</v>
+      </c>
+      <c r="B141" t="s">
+        <v>568</v>
+      </c>
+      <c r="C141" t="s">
+        <v>569</v>
+      </c>
+      <c r="D141" t="s">
+        <v>605</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>553</v>
+      </c>
+      <c r="B142" t="s">
+        <v>570</v>
+      </c>
+      <c r="C142" t="s">
+        <v>571</v>
+      </c>
+      <c r="D142" t="s">
+        <v>606</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>556</v>
+      </c>
+      <c r="B143" t="s">
+        <v>572</v>
+      </c>
+      <c r="C143" t="s">
+        <v>573</v>
+      </c>
+      <c r="D143" t="s">
+        <v>607</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>544</v>
+      </c>
+      <c r="B144" t="s">
+        <v>574</v>
+      </c>
+      <c r="C144" t="s">
+        <v>575</v>
+      </c>
+      <c r="D144" t="s">
+        <v>608</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>547</v>
+      </c>
+      <c r="B145" t="s">
+        <v>576</v>
+      </c>
+      <c r="C145" t="s">
+        <v>577</v>
+      </c>
+      <c r="D145" t="s">
+        <v>609</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>557</v>
+      </c>
+      <c r="B146" t="s">
+        <v>578</v>
+      </c>
+      <c r="C146" t="s">
+        <v>579</v>
+      </c>
+      <c r="D146" t="s">
+        <v>610</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>548</v>
+      </c>
+      <c r="B147" t="s">
+        <v>580</v>
+      </c>
+      <c r="C147" t="s">
+        <v>581</v>
+      </c>
+      <c r="D147" t="s">
+        <v>611</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>549</v>
+      </c>
+      <c r="B148" t="s">
+        <v>582</v>
+      </c>
+      <c r="C148" t="s">
+        <v>583</v>
+      </c>
+      <c r="D148" t="s">
+        <v>612</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>584</v>
+      </c>
+      <c r="B149" t="s">
+        <v>585</v>
+      </c>
+      <c r="C149" t="s">
+        <v>586</v>
+      </c>
+      <c r="D149" t="s">
+        <v>613</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>551</v>
+      </c>
+      <c r="B150" t="s">
+        <v>587</v>
+      </c>
+      <c r="C150" t="s">
+        <v>588</v>
+      </c>
+      <c r="D150" t="s">
+        <v>614</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>555</v>
+      </c>
+      <c r="B151" t="s">
+        <v>589</v>
+      </c>
+      <c r="C151" t="s">
+        <v>590</v>
+      </c>
+      <c r="D151" t="s">
+        <v>615</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>550</v>
+      </c>
+      <c r="B152" t="s">
+        <v>591</v>
+      </c>
+      <c r="C152" t="s">
+        <v>592</v>
+      </c>
+      <c r="D152" t="s">
+        <v>616</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>543</v>
+      </c>
+      <c r="B153" t="s">
+        <v>593</v>
+      </c>
+      <c r="C153" t="s">
+        <v>594</v>
+      </c>
+      <c r="D153" t="s">
+        <v>617</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>552</v>
+      </c>
+      <c r="B154" t="s">
+        <v>595</v>
+      </c>
+      <c r="C154" t="s">
+        <v>596</v>
+      </c>
+      <c r="D154" t="s">
+        <v>618</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>554</v>
+      </c>
+      <c r="B155" t="s">
+        <v>597</v>
+      </c>
+      <c r="C155" t="s">
+        <v>598</v>
+      </c>
+      <c r="D155" t="s">
+        <v>619</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>559</v>
+      </c>
+      <c r="B156" t="s">
+        <v>599</v>
+      </c>
+      <c r="C156" t="s">
+        <v>600</v>
+      </c>
+      <c r="D156" t="s">
+        <v>620</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>545</v>
+      </c>
+      <c r="B157" t="s">
+        <v>601</v>
+      </c>
+      <c r="C157" t="s">
+        <v>602</v>
+      </c>
+      <c r="D157" t="s">
+        <v>621</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>622</v>
+      </c>
+      <c r="B158" t="s">
+        <v>623</v>
+      </c>
+      <c r="C158" t="s">
+        <v>624</v>
+      </c>
+      <c r="D158" t="s">
+        <v>625</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>626</v>
+      </c>
+      <c r="B159" t="s">
+        <v>627</v>
+      </c>
+      <c r="C159" t="s">
+        <v>628</v>
+      </c>
+      <c r="D159" t="s">
+        <v>629</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>630</v>
+      </c>
+      <c r="B160" t="s">
+        <v>631</v>
+      </c>
+      <c r="C160" t="s">
+        <v>632</v>
+      </c>
+      <c r="D160" t="s">
+        <v>633</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>634</v>
+      </c>
+      <c r="B161" t="s">
+        <v>635</v>
+      </c>
+      <c r="C161" t="s">
+        <v>636</v>
+      </c>
+      <c r="D161" t="s">
+        <v>637</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>638</v>
+      </c>
+      <c r="B162" t="s">
+        <v>639</v>
+      </c>
+      <c r="C162" t="s">
+        <v>640</v>
+      </c>
+      <c r="D162" t="s">
+        <v>641</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>643</v>
+      </c>
+      <c r="B163" t="s">
+        <v>644</v>
+      </c>
+      <c r="C163" t="s">
+        <v>645</v>
+      </c>
+      <c r="D163" t="s">
+        <v>646</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>648</v>
+      </c>
+      <c r="B164" t="s">
+        <v>649</v>
+      </c>
+      <c r="C164" t="s">
+        <v>650</v>
+      </c>
+      <c r="D164" t="s">
+        <v>651</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>652</v>
+      </c>
+      <c r="B165" t="s">
+        <v>653</v>
+      </c>
+      <c r="C165" t="s">
+        <v>654</v>
+      </c>
+      <c r="D165" t="s">
+        <v>655</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>656</v>
+      </c>
+      <c r="B166" t="s">
+        <v>657</v>
+      </c>
+      <c r="C166" t="s">
+        <v>658</v>
+      </c>
+      <c r="D166" t="s">
+        <v>659</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>661</v>
+      </c>
+      <c r="B167" t="s">
+        <v>662</v>
+      </c>
+      <c r="C167" t="s">
+        <v>661</v>
+      </c>
+      <c r="D167" t="s">
+        <v>663</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>664</v>
+      </c>
+      <c r="B168" t="s">
+        <v>665</v>
+      </c>
+      <c r="C168" t="s">
+        <v>666</v>
+      </c>
+      <c r="D168" t="s">
+        <v>667</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>668</v>
+      </c>
+      <c r="B169" t="s">
+        <v>669</v>
+      </c>
+      <c r="C169" t="s">
+        <v>670</v>
+      </c>
+      <c r="D169" t="s">
+        <v>671</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>672</v>
+      </c>
+      <c r="B170" t="s">
+        <v>673</v>
+      </c>
+      <c r="C170" t="s">
+        <v>674</v>
+      </c>
+      <c r="D170" t="s">
+        <v>675</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>676</v>
+      </c>
+      <c r="B171" t="s">
+        <v>677</v>
+      </c>
+      <c r="C171" t="s">
+        <v>678</v>
+      </c>
+      <c r="D171" t="s">
+        <v>679</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>680</v>
+      </c>
+      <c r="B172" t="s">
+        <v>681</v>
+      </c>
+      <c r="C172" t="s">
+        <v>682</v>
+      </c>
+      <c r="D172" t="s">
+        <v>683</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>685</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="B173" t="s">
+        <v>686</v>
+      </c>
+      <c r="C173" t="s">
+        <v>687</v>
+      </c>
+      <c r="D173" t="s">
+        <v>688</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="E107" s="2" t="s">
+    </row>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>689</v>
+      </c>
+      <c r="B174" t="s">
+        <v>690</v>
+      </c>
+      <c r="C174" t="s">
+        <v>691</v>
+      </c>
+      <c r="D174" t="s">
+        <v>692</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>693</v>
+      </c>
+      <c r="B175" t="s">
+        <v>694</v>
+      </c>
+      <c r="C175" t="s">
+        <v>695</v>
+      </c>
+      <c r="D175" t="s">
+        <v>696</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>697</v>
+      </c>
+      <c r="B176" t="s">
+        <v>698</v>
+      </c>
+      <c r="C176" t="s">
+        <v>430</v>
+      </c>
+      <c r="D176" t="s">
+        <v>699</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>700</v>
+      </c>
+      <c r="B177" t="s">
+        <v>701</v>
+      </c>
+      <c r="C177" t="s">
+        <v>702</v>
+      </c>
+      <c r="D177" t="s">
+        <v>703</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>704</v>
+      </c>
+      <c r="B178" t="s">
+        <v>705</v>
+      </c>
+      <c r="C178" t="s">
+        <v>706</v>
+      </c>
+      <c r="D178" t="s">
+        <v>707</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>708</v>
+      </c>
+      <c r="B179" t="s">
+        <v>709</v>
+      </c>
+      <c r="C179" t="s">
+        <v>710</v>
+      </c>
+      <c r="D179" t="s">
+        <v>711</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>712</v>
+      </c>
+      <c r="B180" t="s">
+        <v>713</v>
+      </c>
+      <c r="C180" t="s">
+        <v>714</v>
+      </c>
+      <c r="D180" t="s">
+        <v>715</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>716</v>
+      </c>
+      <c r="B181" t="s">
+        <v>717</v>
+      </c>
+      <c r="C181" t="s">
+        <v>718</v>
+      </c>
+      <c r="D181" t="s">
+        <v>719</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>720</v>
+      </c>
+      <c r="B182" t="s">
+        <v>721</v>
+      </c>
+      <c r="C182" t="s">
+        <v>722</v>
+      </c>
+      <c r="D182" t="s">
+        <v>723</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>731</v>
+      </c>
+      <c r="B183" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C183" t="s">
+        <v>730</v>
+      </c>
+      <c r="D183" t="s">
+        <v>732</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>736</v>
+      </c>
+      <c r="B184" t="s">
+        <v>733</v>
+      </c>
+      <c r="C184" t="s">
+        <v>734</v>
+      </c>
+      <c r="D184" t="s">
+        <v>735</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>738</v>
+      </c>
+      <c r="B185" t="s">
+        <v>742</v>
+      </c>
+      <c r="C185" t="s">
+        <v>747</v>
+      </c>
+      <c r="D185" t="s">
+        <v>765</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>739</v>
+      </c>
+      <c r="B186" t="s">
+        <v>743</v>
+      </c>
+      <c r="C186" t="s">
+        <v>748</v>
+      </c>
+      <c r="D186" t="s">
+        <v>752</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>740</v>
+      </c>
+      <c r="B187" t="s">
+        <v>744</v>
+      </c>
+      <c r="C187" t="s">
+        <v>749</v>
+      </c>
+      <c r="D187" t="s">
+        <v>754</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>741</v>
+      </c>
+      <c r="B188" t="s">
+        <v>745</v>
+      </c>
+      <c r="C188" t="s">
+        <v>750</v>
+      </c>
+      <c r="D188" t="s">
+        <v>755</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>737</v>
+      </c>
+      <c r="B189" t="s">
+        <v>746</v>
+      </c>
+      <c r="C189" t="s">
+        <v>751</v>
+      </c>
+      <c r="D189" t="s">
+        <v>756</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>757</v>
+      </c>
+      <c r="B190" t="s">
+        <v>758</v>
+      </c>
+      <c r="C190" t="s">
+        <v>759</v>
+      </c>
+      <c r="D190" t="s">
+        <v>760</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>761</v>
+      </c>
+      <c r="B191" t="s">
+        <v>762</v>
+      </c>
+      <c r="C191" t="s">
+        <v>763</v>
+      </c>
+      <c r="D191" t="s">
+        <v>764</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E193" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="E143" s="4" t="s">
+    </row>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="E154" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="E157" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="B158" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C158" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="B159" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="C159" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="E159" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="E160" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="E161" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="B163" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="C163" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>650</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="D164" s="5" t="s">
-        <v>652</v>
-      </c>
-      <c r="E164" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>653</v>
-      </c>
-      <c r="B165" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>658</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="D166" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="C167" s="5" t="s">
-        <v>662</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="E167" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>666</v>
-      </c>
-      <c r="C168" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>668</v>
-      </c>
-      <c r="E168" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="B169" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="C169" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="E169" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B170" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="E170" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="B171" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="E171" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B172" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>684</v>
-      </c>
-      <c r="E172" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>686</v>
-      </c>
-      <c r="B173" s="5" t="s">
-        <v>687</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="E173" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="D174" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="E174" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="B175" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="D175" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="E175" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="B176" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D176" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="E176" s="6" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="B177" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="E177" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="B178" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="E178" s="6" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="B179" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="D179" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E179" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="B180" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="D180" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="E180" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>718</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>719</v>
-      </c>
-      <c r="D181" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="E181" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="B182" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>723</v>
-      </c>
-      <c r="D182" s="5" t="s">
-        <v>724</v>
-      </c>
-      <c r="E182" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="B183" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="D183" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="E183" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="B184" s="5" t="s">
-        <v>734</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="D184" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="E184" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="B185" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="D185" s="5" t="s">
-        <v>766</v>
-      </c>
-      <c r="E185" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>740</v>
-      </c>
-      <c r="B186" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="D186" s="5" t="s">
-        <v>753</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="B187" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>755</v>
-      </c>
-      <c r="E187" s="6" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="B188" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>756</v>
-      </c>
-      <c r="E188" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="B189" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="D189" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="E189" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B190" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>760</v>
-      </c>
-      <c r="D190" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="E190" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="B191" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>764</v>
-      </c>
-      <c r="D191" s="5" t="s">
-        <v>765</v>
-      </c>
-      <c r="E191" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6675,11 +6757,11 @@
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A104" r:id="rId1"/>
-    <hyperlink ref="A106" r:id="rId2"/>
-    <hyperlink ref="A109" r:id="rId3"/>
-    <hyperlink ref="A112" r:id="rId4"/>
-    <hyperlink ref="A116" r:id="rId5"/>
+    <hyperlink ref="A104" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A106" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A112" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A116" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E957EA1-1A41-4181-8AF9-256D5456E1A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D359B6DE-0AE3-41E7-99E2-F3AF56E8683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="793">
   <si>
     <t>Symbol</t>
   </si>
@@ -2360,6 +2360,45 @@
   </si>
   <si>
     <t>No. 18 Kechuang 11 Street, 20th Floor, Building A, Daxing District, Beijing 101111, China</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>US38141G1040</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Group Inc</t>
+  </si>
+  <si>
+    <t>URA</t>
+  </si>
+  <si>
+    <t>US37954Y8710</t>
+  </si>
+  <si>
+    <t>Global X Uranium ETF</t>
+  </si>
+  <si>
+    <t>GDXJ</t>
+  </si>
+  <si>
+    <t>US92189F7915</t>
+  </si>
+  <si>
+    <t>VanEck Vectors Junior Gold Miners ETF</t>
+  </si>
+  <si>
+    <t>200 West Street New York, NY 10282 United States</t>
+  </si>
+  <si>
+    <t>605 Third Avenue 43rd Floor New York, NY 10158, United States</t>
+  </si>
+  <si>
+    <t>33 Sir John Rogerson's Quay Dublin 2 Ireland</t>
+  </si>
+  <si>
+    <t>IE</t>
   </si>
 </sst>
 </file>
@@ -2462,7 +2501,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E194" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E197" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
@@ -2674,8 +2713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E194" sqref="E194"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E187" sqref="E187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5937,59 +5976,107 @@
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" t="s">
         <v>767</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
         <v>768</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" t="s">
         <v>769</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" t="s">
         <v>776</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="1" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" t="s">
         <v>770</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s">
         <v>771</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" t="s">
         <v>772</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" t="s">
         <v>778</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="1" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="A194" t="s">
         <v>773</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
         <v>774</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" t="s">
         <v>775</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" t="s">
         <v>779</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>792</v>
+      </c>
+    </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jozem/Razvijam/GitHub/etoro-edavki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D359B6DE-0AE3-41E7-99E2-F3AF56E8683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED36D2C-58E2-644B-9EFA-997BB022D4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="760" windowWidth="26700" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="828">
   <si>
     <t>Symbol</t>
   </si>
@@ -2399,6 +2399,111 @@
   </si>
   <si>
     <t>IE</t>
+  </si>
+  <si>
+    <t>DIA.US</t>
+  </si>
+  <si>
+    <t>US78467X1090</t>
+  </si>
+  <si>
+    <t>SPDR Dow Jones Industrial Average ETF Trust</t>
+  </si>
+  <si>
+    <t>GLEN.L</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>ENI</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>UUP</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>US35671D8570</t>
+  </si>
+  <si>
+    <t>JE00B4T3BW64</t>
+  </si>
+  <si>
+    <t>IT0003132476</t>
+  </si>
+  <si>
+    <t>US9497461015</t>
+  </si>
+  <si>
+    <t>US6541061031</t>
+  </si>
+  <si>
+    <t>US81369Y8865</t>
+  </si>
+  <si>
+    <t>US46141D2036</t>
+  </si>
+  <si>
+    <t>US46090E1038</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan Inc</t>
+  </si>
+  <si>
+    <t>Glencore Plc</t>
+  </si>
+  <si>
+    <t>Eni Energy Company</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp; Co</t>
+  </si>
+  <si>
+    <t>NIKE</t>
+  </si>
+  <si>
+    <t>Utilities Select Sector SPDR</t>
+  </si>
+  <si>
+    <t>Invesco DB US Dollar Index Bullish Fund</t>
+  </si>
+  <si>
+    <t>Invesco QQQ</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan Inc., 333 Avenue North Central, AZ 85004 Phoenix, Arizona, United States</t>
+  </si>
+  <si>
+    <t>Glencore plc, Baarermattstrasse 3, CH-6341 Baar, Zug, Switzerland</t>
+  </si>
+  <si>
+    <t>Eni SpA, Piazzale Enrico Mattei 1, IT-00144 Roma, Lazio, Italy</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp; Company, 420 Street Montgomery, CA 94104 San Francisco, California, United States</t>
+  </si>
+  <si>
+    <t>Nike, Inc., 1 Bowerman Drive, OR 97005 Beaverton, Oregon, United States</t>
+  </si>
+  <si>
+    <t>Invesco Capital Management, LLC, 3500 Lacey Road, Suite 700, Downers Grove, IL 60515, United States</t>
+  </si>
+  <si>
+    <t>State Street Bank and Trust Company One Lincoln Center Boston, MA 02211, United States</t>
   </si>
 </sst>
 </file>
@@ -2416,6 +2521,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2439,19 +2545,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Navadno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2501,13 +2603,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E197" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E206">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataCellStyle="Navadno"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address" dataCellStyle="Navadno"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode" dataDxfId="0" dataCellStyle="Navadno"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Info-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2713,22 +2815,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="E207" sqref="E207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="103.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="103.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2745,7 +2847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2762,7 +2864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2779,7 +2881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2796,7 +2898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2813,7 +2915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2830,7 +2932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2847,7 +2949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2864,7 +2966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2881,7 +2983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -2898,7 +3000,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -2915,7 +3017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -2932,7 +3034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -2949,7 +3051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2966,7 +3068,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -2983,7 +3085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -3000,7 +3102,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -3017,7 +3119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -3034,7 +3136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -3051,7 +3153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -3068,7 +3170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -3085,7 +3187,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -3102,7 +3204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -3119,7 +3221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -3136,7 +3238,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -3153,7 +3255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -3170,7 +3272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -3187,7 +3289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -3204,7 +3306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -3221,7 +3323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -3238,7 +3340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -3255,7 +3357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -3272,7 +3374,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -3289,7 +3391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -3306,7 +3408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -3323,7 +3425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -3340,7 +3442,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>148</v>
       </c>
@@ -3357,7 +3459,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>152</v>
       </c>
@@ -3374,7 +3476,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>156</v>
       </c>
@@ -3391,7 +3493,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>161</v>
       </c>
@@ -3408,7 +3510,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>166</v>
       </c>
@@ -3425,7 +3527,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>170</v>
       </c>
@@ -3442,7 +3544,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>174</v>
       </c>
@@ -3459,7 +3561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>177</v>
       </c>
@@ -3476,7 +3578,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -3493,7 +3595,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>187</v>
       </c>
@@ -3510,7 +3612,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>191</v>
       </c>
@@ -3527,7 +3629,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>195</v>
       </c>
@@ -3544,7 +3646,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -3561,7 +3663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>202</v>
       </c>
@@ -3578,7 +3680,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -3595,7 +3697,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>210</v>
       </c>
@@ -3612,7 +3714,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>214</v>
       </c>
@@ -3629,7 +3731,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -3646,7 +3748,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>222</v>
       </c>
@@ -3663,7 +3765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>225</v>
       </c>
@@ -3680,7 +3782,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>229</v>
       </c>
@@ -3697,7 +3799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>233</v>
       </c>
@@ -3714,7 +3816,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>237</v>
       </c>
@@ -3731,7 +3833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>241</v>
       </c>
@@ -3748,7 +3850,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>245</v>
       </c>
@@ -3765,7 +3867,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>249</v>
       </c>
@@ -3782,7 +3884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>252</v>
       </c>
@@ -3799,7 +3901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>256</v>
       </c>
@@ -3816,7 +3918,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>260</v>
       </c>
@@ -3833,7 +3935,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>264</v>
       </c>
@@ -3850,7 +3952,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>268</v>
       </c>
@@ -3867,7 +3969,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>272</v>
       </c>
@@ -3884,7 +3986,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>276</v>
       </c>
@@ -3901,7 +4003,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>280</v>
       </c>
@@ -3918,7 +4020,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>284</v>
       </c>
@@ -3935,7 +4037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>288</v>
       </c>
@@ -3952,7 +4054,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>292</v>
       </c>
@@ -3969,7 +4071,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>295</v>
       </c>
@@ -3986,7 +4088,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>297</v>
       </c>
@@ -4003,7 +4105,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>301</v>
       </c>
@@ -4020,7 +4122,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>305</v>
       </c>
@@ -4037,7 +4139,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>308</v>
       </c>
@@ -4054,7 +4156,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>312</v>
       </c>
@@ -4071,7 +4173,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>316</v>
       </c>
@@ -4088,7 +4190,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>319</v>
       </c>
@@ -4105,7 +4207,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>323</v>
       </c>
@@ -4122,7 +4224,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>327</v>
       </c>
@@ -4139,7 +4241,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>331</v>
       </c>
@@ -4156,7 +4258,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>335</v>
       </c>
@@ -4173,7 +4275,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>338</v>
       </c>
@@ -4190,7 +4292,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>342</v>
       </c>
@@ -4207,7 +4309,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>346</v>
       </c>
@@ -4224,7 +4326,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>350</v>
       </c>
@@ -4241,7 +4343,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>354</v>
       </c>
@@ -4258,7 +4360,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>357</v>
       </c>
@@ -4275,7 +4377,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>361</v>
       </c>
@@ -4292,7 +4394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>365</v>
       </c>
@@ -4309,7 +4411,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>370</v>
       </c>
@@ -4326,7 +4428,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>375</v>
       </c>
@@ -4343,7 +4445,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>379</v>
       </c>
@@ -4360,7 +4462,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>383</v>
       </c>
@@ -4377,7 +4479,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>387</v>
       </c>
@@ -4394,7 +4496,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>391</v>
       </c>
@@ -4411,7 +4513,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>395</v>
       </c>
@@ -4428,7 +4530,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>399</v>
       </c>
@@ -4445,7 +4547,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>403</v>
       </c>
@@ -4462,7 +4564,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>407</v>
       </c>
@@ -4479,7 +4581,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>411</v>
       </c>
@@ -4496,7 +4598,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>415</v>
       </c>
@@ -4513,7 +4615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>418</v>
       </c>
@@ -4530,7 +4632,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>422</v>
       </c>
@@ -4547,7 +4649,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>424</v>
       </c>
@@ -4564,7 +4666,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>428</v>
       </c>
@@ -4581,7 +4683,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>432</v>
       </c>
@@ -4598,7 +4700,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>436</v>
       </c>
@@ -4615,7 +4717,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>440</v>
       </c>
@@ -4632,7 +4734,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>445</v>
       </c>
@@ -4649,7 +4751,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>448</v>
       </c>
@@ -4666,7 +4768,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>452</v>
       </c>
@@ -4683,7 +4785,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>454</v>
       </c>
@@ -4700,7 +4802,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>458</v>
       </c>
@@ -4717,7 +4819,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>462</v>
       </c>
@@ -4734,7 +4836,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>463</v>
       </c>
@@ -4751,7 +4853,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>464</v>
       </c>
@@ -4768,7 +4870,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>465</v>
       </c>
@@ -4785,7 +4887,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>466</v>
       </c>
@@ -4802,7 +4904,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>467</v>
       </c>
@@ -4819,7 +4921,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>468</v>
       </c>
@@ -4836,7 +4938,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>469</v>
       </c>
@@ -4853,7 +4955,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>470</v>
       </c>
@@ -4870,7 +4972,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>471</v>
       </c>
@@ -4887,7 +4989,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>472</v>
       </c>
@@ -4904,7 +5006,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>473</v>
       </c>
@@ -4921,7 +5023,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>474</v>
       </c>
@@ -4938,7 +5040,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>475</v>
       </c>
@@ -4955,7 +5057,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>477</v>
       </c>
@@ -4972,7 +5074,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>478</v>
       </c>
@@ -4989,7 +5091,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>479</v>
       </c>
@@ -5006,7 +5108,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>480</v>
       </c>
@@ -5023,7 +5125,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>481</v>
       </c>
@@ -5040,7 +5142,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>476</v>
       </c>
@@ -5057,7 +5159,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>542</v>
       </c>
@@ -5074,7 +5176,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>558</v>
       </c>
@@ -5091,7 +5193,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>560</v>
       </c>
@@ -5108,7 +5210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>546</v>
       </c>
@@ -5125,7 +5227,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>553</v>
       </c>
@@ -5142,7 +5244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>556</v>
       </c>
@@ -5159,7 +5261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>544</v>
       </c>
@@ -5176,7 +5278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>547</v>
       </c>
@@ -5193,7 +5295,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>557</v>
       </c>
@@ -5210,7 +5312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>548</v>
       </c>
@@ -5227,7 +5329,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>549</v>
       </c>
@@ -5244,7 +5346,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>584</v>
       </c>
@@ -5261,7 +5363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>551</v>
       </c>
@@ -5278,7 +5380,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>555</v>
       </c>
@@ -5295,7 +5397,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>550</v>
       </c>
@@ -5312,7 +5414,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>543</v>
       </c>
@@ -5329,7 +5431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>552</v>
       </c>
@@ -5346,7 +5448,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>554</v>
       </c>
@@ -5363,7 +5465,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>559</v>
       </c>
@@ -5380,7 +5482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>545</v>
       </c>
@@ -5397,7 +5499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>622</v>
       </c>
@@ -5414,7 +5516,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>626</v>
       </c>
@@ -5431,7 +5533,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>630</v>
       </c>
@@ -5448,7 +5550,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>634</v>
       </c>
@@ -5465,7 +5567,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>638</v>
       </c>
@@ -5482,7 +5584,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>643</v>
       </c>
@@ -5499,7 +5601,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>648</v>
       </c>
@@ -5516,7 +5618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>652</v>
       </c>
@@ -5533,7 +5635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>656</v>
       </c>
@@ -5550,7 +5652,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>661</v>
       </c>
@@ -5567,7 +5669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>664</v>
       </c>
@@ -5584,7 +5686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>668</v>
       </c>
@@ -5601,7 +5703,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>672</v>
       </c>
@@ -5618,7 +5720,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>676</v>
       </c>
@@ -5635,7 +5737,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>680</v>
       </c>
@@ -5652,7 +5754,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>685</v>
       </c>
@@ -5669,7 +5771,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>689</v>
       </c>
@@ -5686,7 +5788,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>693</v>
       </c>
@@ -5703,7 +5805,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>697</v>
       </c>
@@ -5720,7 +5822,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>700</v>
       </c>
@@ -5737,7 +5839,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>704</v>
       </c>
@@ -5754,7 +5856,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>708</v>
       </c>
@@ -5771,7 +5873,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>712</v>
       </c>
@@ -5788,7 +5890,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>716</v>
       </c>
@@ -5805,7 +5907,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>720</v>
       </c>
@@ -5822,7 +5924,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>731</v>
       </c>
@@ -5839,7 +5941,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>736</v>
       </c>
@@ -5856,7 +5958,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>738</v>
       </c>
@@ -5873,7 +5975,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>739</v>
       </c>
@@ -5890,7 +5992,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>740</v>
       </c>
@@ -5907,7 +6009,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>741</v>
       </c>
@@ -5924,7 +6026,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>737</v>
       </c>
@@ -5941,7 +6043,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>757</v>
       </c>
@@ -5958,7 +6060,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>761</v>
       </c>
@@ -5975,7 +6077,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>767</v>
       </c>
@@ -5992,7 +6094,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>770</v>
       </c>
@@ -6009,7 +6111,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>773</v>
       </c>
@@ -6026,822 +6128,966 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>780</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s">
         <v>781</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" t="s">
         <v>782</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" t="s">
         <v>789</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="E195" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>783</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
         <v>784</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" t="s">
         <v>785</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" t="s">
         <v>790</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="E196" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>786</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s">
         <v>787</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" t="s">
         <v>788</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" t="s">
         <v>791</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="1" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>793</v>
+      </c>
+      <c r="B198" t="s">
+        <v>794</v>
+      </c>
+      <c r="C198" t="s">
+        <v>795</v>
+      </c>
+      <c r="D198" t="s">
+        <v>827</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>797</v>
+      </c>
+      <c r="B199" t="s">
+        <v>804</v>
+      </c>
+      <c r="C199" t="s">
+        <v>812</v>
+      </c>
+      <c r="D199" t="s">
+        <v>820</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>796</v>
+      </c>
+      <c r="B200" t="s">
+        <v>805</v>
+      </c>
+      <c r="C200" t="s">
+        <v>813</v>
+      </c>
+      <c r="D200" t="s">
+        <v>821</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>798</v>
+      </c>
+      <c r="B201" t="s">
+        <v>806</v>
+      </c>
+      <c r="C201" t="s">
+        <v>814</v>
+      </c>
+      <c r="D201" t="s">
+        <v>822</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>799</v>
+      </c>
+      <c r="B202" t="s">
+        <v>807</v>
+      </c>
+      <c r="C202" t="s">
+        <v>815</v>
+      </c>
+      <c r="D202" t="s">
+        <v>824</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>800</v>
+      </c>
+      <c r="B203" t="s">
+        <v>808</v>
+      </c>
+      <c r="C203" t="s">
+        <v>816</v>
+      </c>
+      <c r="D203" t="s">
+        <v>825</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>801</v>
+      </c>
+      <c r="B204" t="s">
+        <v>809</v>
+      </c>
+      <c r="C204" t="s">
+        <v>817</v>
+      </c>
+      <c r="D204" t="s">
+        <v>827</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>802</v>
+      </c>
+      <c r="B205" t="s">
+        <v>810</v>
+      </c>
+      <c r="C205" t="s">
+        <v>818</v>
+      </c>
+      <c r="D205" t="s">
+        <v>826</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>803</v>
+      </c>
+      <c r="B206" t="s">
+        <v>811</v>
+      </c>
+      <c r="C206" t="s">
+        <v>819</v>
+      </c>
+      <c r="D206" t="s">
+        <v>826</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A104" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D359B6DE-0AE3-41E7-99E2-F3AF56E8683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0DDABF-FCA5-449A-87F1-79021B5D3ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="863">
   <si>
     <t>Symbol</t>
   </si>
@@ -1807,9 +1807,6 @@
     <t>China Gas Holdings Ltd</t>
   </si>
   <si>
-    <t>DE000TUAG000</t>
-  </si>
-  <si>
     <t>TUI AG</t>
   </si>
   <si>
@@ -2326,9 +2323,6 @@
     <t>SHIP</t>
   </si>
   <si>
-    <t>MHY737601945</t>
-  </si>
-  <si>
     <t>Seanergy Maritime Holdings Corp</t>
   </si>
   <si>
@@ -2399,6 +2393,222 @@
   </si>
   <si>
     <t>IE</t>
+  </si>
+  <si>
+    <t>MRVL</t>
+  </si>
+  <si>
+    <t>US5738741041</t>
+  </si>
+  <si>
+    <t>Marvell Technology Group Ltd</t>
+  </si>
+  <si>
+    <t>VST</t>
+  </si>
+  <si>
+    <t>US92840M1027</t>
+  </si>
+  <si>
+    <t>Vistra Corp</t>
+  </si>
+  <si>
+    <t>HPQ</t>
+  </si>
+  <si>
+    <t>US40434L1052</t>
+  </si>
+  <si>
+    <t>Hewlett Packard</t>
+  </si>
+  <si>
+    <t>BMY</t>
+  </si>
+  <si>
+    <t>US1101221083</t>
+  </si>
+  <si>
+    <t>Bristol-Myers Squibb Co</t>
+  </si>
+  <si>
+    <t>SIG</t>
+  </si>
+  <si>
+    <t>BMG812761002</t>
+  </si>
+  <si>
+    <t>Signet Jewelers LTD</t>
+  </si>
+  <si>
+    <t>TAK</t>
+  </si>
+  <si>
+    <t>US8740602052</t>
+  </si>
+  <si>
+    <t>Takeda Pharmaceutical Co Ltd-ADR</t>
+  </si>
+  <si>
+    <t>SBRY.L</t>
+  </si>
+  <si>
+    <t>GB00B019KW72</t>
+  </si>
+  <si>
+    <t>J Sainsbury PLC</t>
+  </si>
+  <si>
+    <t>HOG</t>
+  </si>
+  <si>
+    <t>US4128221086</t>
+  </si>
+  <si>
+    <t>Harley-Davidson Inc</t>
+  </si>
+  <si>
+    <t>6555 Sierra Drive, Irving, TX 75039, USA</t>
+  </si>
+  <si>
+    <t>Canon s Court 22 Victoria Street, BM-HM 12 Hamilton, Bermuda</t>
+  </si>
+  <si>
+    <t>1501 Road Page Mill, CA 94304 Palo Alto, California, USA</t>
+  </si>
+  <si>
+    <t>14th Floor 430 E Street 29th, NY 10016 New York City, New York, USA</t>
+  </si>
+  <si>
+    <t>Clarendon House, 2 Church Street, Hamilton HM11, Bermuda</t>
+  </si>
+  <si>
+    <t>4-1-1 Dosho-machi, Chuo-Ku, Osaka 540-8645, Japan</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>33 Holborn, EC1N 2HT London, United Kingdom</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>3700 West Juneau Avenue, Milwaukee, WI 53208-2818, USA</t>
+  </si>
+  <si>
+    <t>3.HK</t>
+  </si>
+  <si>
+    <t>HK0003000038</t>
+  </si>
+  <si>
+    <t>Hong Kong &amp; China Gas Co Ltd</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>US8552441094</t>
+  </si>
+  <si>
+    <t>Starbucks Corporation</t>
+  </si>
+  <si>
+    <t>CQQQ</t>
+  </si>
+  <si>
+    <t>US46138E8003</t>
+  </si>
+  <si>
+    <t>Invesco China Technology ETF</t>
+  </si>
+  <si>
+    <t>23rd Floor 363 Java Road, HK- Hong Kong</t>
+  </si>
+  <si>
+    <t>2401 Utah Avenue South, PO Box 34507, WA 98134 Seattle, Washington, USA</t>
+  </si>
+  <si>
+    <t>3500 Lacey Road Suite 700, Downers Grove, 60515, United States</t>
+  </si>
+  <si>
+    <t>MHY737604006</t>
+  </si>
+  <si>
+    <t>DE000TUAG505</t>
+  </si>
+  <si>
+    <t>UK100</t>
+  </si>
+  <si>
+    <t>GB0001383545</t>
+  </si>
+  <si>
+    <t>JNUG</t>
+  </si>
+  <si>
+    <t>US25460G8318</t>
+  </si>
+  <si>
+    <t>Direxion Daily Junior Gold Miners Index Bull 2X Shares</t>
+  </si>
+  <si>
+    <t>JD.US</t>
+  </si>
+  <si>
+    <t>US47215P1066</t>
+  </si>
+  <si>
+    <t>JD.com-ADR</t>
+  </si>
+  <si>
+    <t>INGA.NV</t>
+  </si>
+  <si>
+    <t>NL0011821202</t>
+  </si>
+  <si>
+    <t>ING Groep NV</t>
+  </si>
+  <si>
+    <t>FITB</t>
+  </si>
+  <si>
+    <t>US3167731005</t>
+  </si>
+  <si>
+    <t>Fifth Third Bancorp</t>
+  </si>
+  <si>
+    <t>IGG</t>
+  </si>
+  <si>
+    <t>GB00B06QFB75</t>
+  </si>
+  <si>
+    <t>IG Group Holdings PLC</t>
+  </si>
+  <si>
+    <t>FTSE 100 Index</t>
+  </si>
+  <si>
+    <t>FTSE International Limited, 10 Paternoster Square, London, EC4M 7LS, United Kingdom</t>
+  </si>
+  <si>
+    <t>Rafferty Asset Management, LLC, 1301 Avenue of the Americas 28th Floor, New York, 10019, United States</t>
+  </si>
+  <si>
+    <t>JD.com, Inc., BuildingA, North Star Century Center No. 8 Beichen West Street, 100101, Beijing, China</t>
+  </si>
+  <si>
+    <t>ING Groep NV, Amsterdamse Poort Bijlmerplein 888, 1102 MG, Amsterdam</t>
+  </si>
+  <si>
+    <t>Fifth Third Bancorp, 38 Fountain Square Plaza, 45263, Cincinnati, USA</t>
+  </si>
+  <si>
+    <t>IG Group Holdings plc, Cannon Bridge House 25 Dowgate Hill, EC4R 2YA, London, United Kingdom</t>
   </si>
 </sst>
 </file>
@@ -2501,7 +2711,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E197" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E214" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
@@ -2713,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E187" sqref="E187"/>
+    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="E215" sqref="E215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3277,7 +3487,7 @@
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -3549,7 +3759,7 @@
         <v>199</v>
       </c>
       <c r="B49" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C49" t="s">
         <v>200</v>
@@ -4535,16 +4745,16 @@
         <v>422</v>
       </c>
       <c r="B107" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C107" t="s">
         <v>423</v>
       </c>
       <c r="D107" t="s">
+        <v>726</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4671,13 +4881,13 @@
         <v>452</v>
       </c>
       <c r="B115" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C115" t="s">
         <v>453</v>
       </c>
       <c r="D115" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>186</v>
@@ -5085,7 +5295,7 @@
         <v>565</v>
       </c>
       <c r="D139" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>165</v>
@@ -5102,7 +5312,7 @@
         <v>567</v>
       </c>
       <c r="D140" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>30</v>
@@ -5119,7 +5329,7 @@
         <v>569</v>
       </c>
       <c r="D141" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>30</v>
@@ -5136,7 +5346,7 @@
         <v>571</v>
       </c>
       <c r="D142" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>147</v>
@@ -5153,7 +5363,7 @@
         <v>573</v>
       </c>
       <c r="D143" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>9</v>
@@ -5170,7 +5380,7 @@
         <v>575</v>
       </c>
       <c r="D144" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>160</v>
@@ -5187,7 +5397,7 @@
         <v>577</v>
       </c>
       <c r="D145" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>160</v>
@@ -5204,7 +5414,7 @@
         <v>579</v>
       </c>
       <c r="D146" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>30</v>
@@ -5221,7 +5431,7 @@
         <v>581</v>
       </c>
       <c r="D147" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>165</v>
@@ -5238,7 +5448,7 @@
         <v>583</v>
       </c>
       <c r="D148" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>30</v>
@@ -5255,7 +5465,7 @@
         <v>586</v>
       </c>
       <c r="D149" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>30</v>
@@ -5272,7 +5482,7 @@
         <v>588</v>
       </c>
       <c r="D150" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>30</v>
@@ -5289,7 +5499,7 @@
         <v>590</v>
       </c>
       <c r="D151" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>30</v>
@@ -5306,7 +5516,7 @@
         <v>592</v>
       </c>
       <c r="D152" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>186</v>
@@ -5323,7 +5533,7 @@
         <v>594</v>
       </c>
       <c r="D153" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>9</v>
@@ -5334,13 +5544,13 @@
         <v>552</v>
       </c>
       <c r="B154" t="s">
+        <v>838</v>
+      </c>
+      <c r="C154" t="s">
         <v>595</v>
       </c>
-      <c r="C154" t="s">
-        <v>596</v>
-      </c>
       <c r="D154" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E154" s="1" t="s">
         <v>160</v>
@@ -5351,13 +5561,13 @@
         <v>554</v>
       </c>
       <c r="B155" t="s">
+        <v>596</v>
+      </c>
+      <c r="C155" t="s">
         <v>597</v>
       </c>
-      <c r="C155" t="s">
-        <v>598</v>
-      </c>
       <c r="D155" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E155" s="1" t="s">
         <v>181</v>
@@ -5368,13 +5578,13 @@
         <v>559</v>
       </c>
       <c r="B156" t="s">
+        <v>598</v>
+      </c>
+      <c r="C156" t="s">
         <v>599</v>
       </c>
-      <c r="C156" t="s">
-        <v>600</v>
-      </c>
       <c r="D156" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E156" s="1" t="s">
         <v>30</v>
@@ -5385,13 +5595,13 @@
         <v>545</v>
       </c>
       <c r="B157" t="s">
+        <v>600</v>
+      </c>
+      <c r="C157" t="s">
         <v>601</v>
       </c>
-      <c r="C157" t="s">
-        <v>602</v>
-      </c>
       <c r="D157" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E157" s="1" t="s">
         <v>147</v>
@@ -5399,16 +5609,16 @@
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>621</v>
+      </c>
+      <c r="B158" t="s">
         <v>622</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>623</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>624</v>
-      </c>
-      <c r="D158" t="s">
-        <v>625</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>147</v>
@@ -5416,16 +5626,16 @@
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>625</v>
+      </c>
+      <c r="B159" t="s">
         <v>626</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>627</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>628</v>
-      </c>
-      <c r="D159" t="s">
-        <v>629</v>
       </c>
       <c r="E159" s="1" t="s">
         <v>181</v>
@@ -5433,16 +5643,16 @@
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>629</v>
+      </c>
+      <c r="B160" t="s">
         <v>630</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>631</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>632</v>
-      </c>
-      <c r="D160" t="s">
-        <v>633</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>147</v>
@@ -5450,16 +5660,16 @@
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>633</v>
+      </c>
+      <c r="B161" t="s">
         <v>634</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>635</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>636</v>
-      </c>
-      <c r="D161" t="s">
-        <v>637</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>539</v>
@@ -5467,50 +5677,50 @@
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>637</v>
+      </c>
+      <c r="B162" t="s">
         <v>638</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>639</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>640</v>
       </c>
-      <c r="D162" t="s">
+      <c r="E162" s="1" t="s">
         <v>641</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>642</v>
+      </c>
+      <c r="B163" t="s">
         <v>643</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>644</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>645</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" s="1" t="s">
         <v>646</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>647</v>
+      </c>
+      <c r="B164" t="s">
         <v>648</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>649</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>650</v>
-      </c>
-      <c r="D164" t="s">
-        <v>651</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>165</v>
@@ -5518,16 +5728,16 @@
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>651</v>
+      </c>
+      <c r="B165" t="s">
         <v>652</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>653</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>654</v>
-      </c>
-      <c r="D165" t="s">
-        <v>655</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>9</v>
@@ -5535,33 +5745,33 @@
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>655</v>
+      </c>
+      <c r="B166" t="s">
         <v>656</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>657</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>658</v>
       </c>
-      <c r="D166" t="s">
+      <c r="E166" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>660</v>
+      </c>
+      <c r="B167" t="s">
         <v>661</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>660</v>
+      </c>
+      <c r="D167" t="s">
         <v>662</v>
-      </c>
-      <c r="C167" t="s">
-        <v>661</v>
-      </c>
-      <c r="D167" t="s">
-        <v>663</v>
       </c>
       <c r="E167" s="1" t="s">
         <v>9</v>
@@ -5569,16 +5779,16 @@
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>663</v>
+      </c>
+      <c r="B168" t="s">
         <v>664</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>665</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>666</v>
-      </c>
-      <c r="D168" t="s">
-        <v>667</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>30</v>
@@ -5586,16 +5796,16 @@
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>667</v>
+      </c>
+      <c r="B169" t="s">
         <v>668</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>669</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>670</v>
-      </c>
-      <c r="D169" t="s">
-        <v>671</v>
       </c>
       <c r="E169" s="1" t="s">
         <v>147</v>
@@ -5603,16 +5813,16 @@
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>671</v>
+      </c>
+      <c r="B170" t="s">
         <v>672</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>673</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>674</v>
-      </c>
-      <c r="D170" t="s">
-        <v>675</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>147</v>
@@ -5620,16 +5830,16 @@
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>675</v>
+      </c>
+      <c r="B171" t="s">
         <v>676</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>677</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>678</v>
-      </c>
-      <c r="D171" t="s">
-        <v>679</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>147</v>
@@ -5637,16 +5847,16 @@
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>679</v>
+      </c>
+      <c r="B172" t="s">
         <v>680</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>681</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>682</v>
-      </c>
-      <c r="D172" t="s">
-        <v>683</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>147</v>
@@ -5654,16 +5864,16 @@
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>684</v>
+      </c>
+      <c r="B173" t="s">
         <v>685</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>686</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>687</v>
-      </c>
-      <c r="D173" t="s">
-        <v>688</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>369</v>
@@ -5671,16 +5881,16 @@
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>688</v>
+      </c>
+      <c r="B174" t="s">
         <v>689</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>690</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>691</v>
-      </c>
-      <c r="D174" t="s">
-        <v>692</v>
       </c>
       <c r="E174" s="1" t="s">
         <v>186</v>
@@ -5688,16 +5898,16 @@
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>692</v>
+      </c>
+      <c r="B175" t="s">
         <v>693</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>694</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>695</v>
-      </c>
-      <c r="D175" t="s">
-        <v>696</v>
       </c>
       <c r="E175" s="1" t="s">
         <v>539</v>
@@ -5705,16 +5915,16 @@
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>696</v>
+      </c>
+      <c r="B176" t="s">
         <v>697</v>
-      </c>
-      <c r="B176" t="s">
-        <v>698</v>
       </c>
       <c r="C176" t="s">
         <v>430</v>
       </c>
       <c r="D176" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E176" s="1" t="s">
         <v>369</v>
@@ -5722,16 +5932,16 @@
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>699</v>
+      </c>
+      <c r="B177" t="s">
         <v>700</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>701</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>702</v>
-      </c>
-      <c r="D177" t="s">
-        <v>703</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>147</v>
@@ -5739,16 +5949,16 @@
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>703</v>
+      </c>
+      <c r="B178" t="s">
         <v>704</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>705</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>706</v>
-      </c>
-      <c r="D178" t="s">
-        <v>707</v>
       </c>
       <c r="E178" s="1" t="s">
         <v>473</v>
@@ -5756,16 +5966,16 @@
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>707</v>
+      </c>
+      <c r="B179" t="s">
         <v>708</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>709</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>710</v>
-      </c>
-      <c r="D179" t="s">
-        <v>711</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>147</v>
@@ -5773,33 +5983,33 @@
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>711</v>
+      </c>
+      <c r="B180" t="s">
         <v>712</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>713</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>714</v>
       </c>
-      <c r="D180" t="s">
-        <v>715</v>
-      </c>
       <c r="E180" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>715</v>
+      </c>
+      <c r="B181" t="s">
         <v>716</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>717</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>718</v>
-      </c>
-      <c r="D181" t="s">
-        <v>719</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>147</v>
@@ -5807,16 +6017,16 @@
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>719</v>
+      </c>
+      <c r="B182" t="s">
         <v>720</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>721</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>722</v>
-      </c>
-      <c r="D182" t="s">
-        <v>723</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>147</v>
@@ -5824,16 +6034,16 @@
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>730</v>
+      </c>
+      <c r="B183" t="s">
+        <v>728</v>
+      </c>
+      <c r="C183" t="s">
+        <v>729</v>
+      </c>
+      <c r="D183" t="s">
         <v>731</v>
-      </c>
-      <c r="B183" t="s">
-        <v>729</v>
-      </c>
-      <c r="C183" t="s">
-        <v>730</v>
-      </c>
-      <c r="D183" t="s">
-        <v>732</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>147</v>
@@ -5841,16 +6051,16 @@
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B184" t="s">
+        <v>732</v>
+      </c>
+      <c r="C184" t="s">
         <v>733</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>734</v>
-      </c>
-      <c r="D184" t="s">
-        <v>735</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>147</v>
@@ -5858,16 +6068,16 @@
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B185" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C185" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D185" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>165</v>
@@ -5875,16 +6085,16 @@
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B186" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C186" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D186" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>147</v>
@@ -5892,33 +6102,33 @@
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B187" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C187" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D187" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B188" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C188" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D188" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>181</v>
@@ -5926,16 +6136,16 @@
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B189" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C189" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D189" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>59</v>
@@ -5943,16 +6153,16 @@
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>756</v>
+      </c>
+      <c r="B190" t="s">
         <v>757</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>758</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>759</v>
-      </c>
-      <c r="D190" t="s">
-        <v>760</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>147</v>
@@ -5960,16 +6170,16 @@
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>760</v>
+      </c>
+      <c r="B191" t="s">
         <v>761</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>762</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>763</v>
-      </c>
-      <c r="D191" t="s">
-        <v>764</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>147</v>
@@ -5977,33 +6187,33 @@
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>766</v>
+      </c>
+      <c r="B192" t="s">
+        <v>837</v>
+      </c>
+      <c r="C192" t="s">
         <v>767</v>
       </c>
-      <c r="B192" t="s">
-        <v>768</v>
-      </c>
-      <c r="C192" t="s">
-        <v>769</v>
-      </c>
       <c r="D192" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>768</v>
+      </c>
+      <c r="B193" t="s">
+        <v>769</v>
+      </c>
+      <c r="C193" t="s">
         <v>770</v>
       </c>
-      <c r="B193" t="s">
-        <v>771</v>
-      </c>
-      <c r="C193" t="s">
-        <v>772</v>
-      </c>
       <c r="D193" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>444</v>
@@ -6011,99 +6221,371 @@
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>771</v>
+      </c>
+      <c r="B194" t="s">
+        <v>772</v>
+      </c>
+      <c r="C194" t="s">
         <v>773</v>
       </c>
-      <c r="B194" t="s">
-        <v>774</v>
-      </c>
-      <c r="C194" t="s">
-        <v>775</v>
-      </c>
       <c r="D194" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" t="s">
+        <v>778</v>
+      </c>
+      <c r="B195" t="s">
+        <v>779</v>
+      </c>
+      <c r="C195" t="s">
         <v>780</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="D195" t="s">
+        <v>787</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>781</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="B196" t="s">
         <v>782</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="C196" t="s">
+        <v>783</v>
+      </c>
+      <c r="D196" t="s">
+        <v>788</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>784</v>
+      </c>
+      <c r="B197" t="s">
+        <v>785</v>
+      </c>
+      <c r="C197" t="s">
+        <v>786</v>
+      </c>
+      <c r="D197" t="s">
         <v>789</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D196" s="2" t="s">
+      <c r="E197" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="E196" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D197" s="2" t="s">
+    </row>
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>791</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="B198" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C198" t="s">
+        <v>793</v>
+      </c>
+      <c r="D198" t="s">
+        <v>816</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>794</v>
+      </c>
+      <c r="B199" t="s">
+        <v>795</v>
+      </c>
+      <c r="C199" t="s">
+        <v>796</v>
+      </c>
+      <c r="D199" t="s">
+        <v>815</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>797</v>
+      </c>
+      <c r="B200" t="s">
+        <v>798</v>
+      </c>
+      <c r="C200" t="s">
+        <v>799</v>
+      </c>
+      <c r="D200" t="s">
+        <v>817</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>800</v>
+      </c>
+      <c r="B201" t="s">
+        <v>801</v>
+      </c>
+      <c r="C201" t="s">
+        <v>802</v>
+      </c>
+      <c r="D201" t="s">
+        <v>818</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>803</v>
+      </c>
+      <c r="B202" t="s">
+        <v>804</v>
+      </c>
+      <c r="C202" t="s">
+        <v>805</v>
+      </c>
+      <c r="D202" t="s">
+        <v>819</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>806</v>
+      </c>
+      <c r="B203" t="s">
+        <v>807</v>
+      </c>
+      <c r="C203" t="s">
+        <v>808</v>
+      </c>
+      <c r="D203" t="s">
+        <v>820</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>809</v>
+      </c>
+      <c r="B204" t="s">
+        <v>810</v>
+      </c>
+      <c r="C204" t="s">
+        <v>811</v>
+      </c>
+      <c r="D204" t="s">
+        <v>822</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>812</v>
+      </c>
+      <c r="B205" t="s">
+        <v>813</v>
+      </c>
+      <c r="C205" t="s">
+        <v>814</v>
+      </c>
+      <c r="D205" t="s">
+        <v>824</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>825</v>
+      </c>
+      <c r="B206" t="s">
+        <v>826</v>
+      </c>
+      <c r="C206" t="s">
+        <v>827</v>
+      </c>
+      <c r="D206" t="s">
+        <v>834</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>828</v>
+      </c>
+      <c r="B207" t="s">
+        <v>829</v>
+      </c>
+      <c r="C207" t="s">
+        <v>830</v>
+      </c>
+      <c r="D207" t="s">
+        <v>835</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>831</v>
+      </c>
+      <c r="B208" t="s">
+        <v>832</v>
+      </c>
+      <c r="C208" t="s">
+        <v>833</v>
+      </c>
+      <c r="D208" t="s">
+        <v>836</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0DDABF-FCA5-449A-87F1-79021B5D3ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA399E72-CBCB-4B14-9BAF-334262DE48D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="898">
   <si>
     <t>Symbol</t>
   </si>
@@ -2609,13 +2609,118 @@
   </si>
   <si>
     <t>IG Group Holdings plc, Cannon Bridge House 25 Dowgate Hill, EC4R 2YA, London, United Kingdom</t>
+  </si>
+  <si>
+    <t>DIA.US</t>
+  </si>
+  <si>
+    <t>US78467X1090</t>
+  </si>
+  <si>
+    <t>SPDR Dow Jones Industrial Average ETF Trust</t>
+  </si>
+  <si>
+    <t>State Street Bank and Trust Company One Lincoln Center Boston, MA 02211, United States</t>
+  </si>
+  <si>
+    <t>ENI</t>
+  </si>
+  <si>
+    <t>IT0003132476</t>
+  </si>
+  <si>
+    <t>Eni Energy Company</t>
+  </si>
+  <si>
+    <t>Eni SpA, Piazzale Enrico Mattei 1, IT-00144 Roma, Lazio, Italy</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>US35671D8570</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan Inc</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan Inc., 333 Avenue North Central, AZ 85004 Phoenix, Arizona, United States</t>
+  </si>
+  <si>
+    <t>GLEN.L</t>
+  </si>
+  <si>
+    <t>JE00B4T3BW64</t>
+  </si>
+  <si>
+    <t>Glencore Plc</t>
+  </si>
+  <si>
+    <t>Glencore plc, Baarermattstrasse 3, CH-6341 Baar, Zug, Switzerland</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>US9497461015</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp; Co</t>
+  </si>
+  <si>
+    <t>Wells Fargo &amp; Company, 420 Street Montgomery, CA 94104 San Francisco, California, United States</t>
+  </si>
+  <si>
+    <t>NKE</t>
+  </si>
+  <si>
+    <t>US6541061031</t>
+  </si>
+  <si>
+    <t>NIKE</t>
+  </si>
+  <si>
+    <t>Nike, Inc., 1 Bowerman Drive, OR 97005 Beaverton, Oregon, United States</t>
+  </si>
+  <si>
+    <t>XLU</t>
+  </si>
+  <si>
+    <t>US81369Y8865</t>
+  </si>
+  <si>
+    <t>Utilities Select Sector SPDR</t>
+  </si>
+  <si>
+    <t>UUP</t>
+  </si>
+  <si>
+    <t>US46141D2036</t>
+  </si>
+  <si>
+    <t>Invesco DB US Dollar Index Bullish Fund</t>
+  </si>
+  <si>
+    <t>Invesco Capital Management, LLC, 3500 Lacey Road, Suite 700, Downers Grove, IL 60515, United States</t>
+  </si>
+  <si>
+    <t>QQQ</t>
+  </si>
+  <si>
+    <t>US46090E1038</t>
+  </si>
+  <si>
+    <t>Invesco QQQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2626,6 +2731,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2645,9 +2756,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2659,9 +2771,10 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Navadno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Navadno 2 2" xfId="2" xr:uid="{A6128BC9-A440-44F0-B407-83B01CC70D87}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -2711,7 +2824,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E214" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E223" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
@@ -2923,8 +3036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E215" sqref="E215"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="A215" sqref="A215:E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6475,116 +6588,260 @@
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+      <c r="A209" t="s">
         <v>839</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" t="s">
         <v>840</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" t="s">
         <v>856</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" t="s">
         <v>857</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="A210" t="s">
         <v>841</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" t="s">
         <v>842</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" t="s">
         <v>843</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" t="s">
         <v>858</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="A211" t="s">
         <v>844</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" t="s">
         <v>845</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" t="s">
         <v>846</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" t="s">
         <v>859</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="A212" t="s">
         <v>847</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" t="s">
         <v>848</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" t="s">
         <v>849</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" t="s">
         <v>860</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E212" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+      <c r="A213" t="s">
         <v>850</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" t="s">
         <v>851</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" t="s">
         <v>852</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" t="s">
         <v>861</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+      <c r="A214" t="s">
         <v>853</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" t="s">
         <v>854</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" t="s">
         <v>855</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" t="s">
         <v>862</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="E214" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
     <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA399E72-CBCB-4B14-9BAF-334262DE48D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D9168-5754-435F-914F-68235BCFC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1396">
   <si>
     <t>Symbol</t>
   </si>
@@ -460,9 +460,6 @@
     <t>Apple Inc</t>
   </si>
   <si>
-    <t>One Apple Park Way, Cupertino, CA 95014-2083, USA</t>
-  </si>
-  <si>
     <t>US</t>
   </si>
   <si>
@@ -487,9 +484,6 @@
     <t>Bank of America Corp</t>
   </si>
   <si>
-    <t>100 North Tryon Street, Charlotte, NC 28255, USA</t>
-  </si>
-  <si>
     <t>BMW.DE</t>
   </si>
   <si>
@@ -529,9 +523,6 @@
     <t>Citigroup Inc</t>
   </si>
   <si>
-    <t>388 Greenwich Street, New York, NY 10013, USA</t>
-  </si>
-  <si>
     <t>COST</t>
   </si>
   <si>
@@ -541,9 +532,6 @@
     <t>Costco Wholesale Corp</t>
   </si>
   <si>
-    <t>999 Lake Drive, WA 98027 Issaquah, Washington, USA</t>
-  </si>
-  <si>
     <t>DJ30</t>
   </si>
   <si>
@@ -604,9 +592,6 @@
     <t>iShares Inc, MSCI Brazil Capped ETF</t>
   </si>
   <si>
-    <t>BlackRock Fund Advisors, 400 Howard Street, San Francisco, CA 94105, USA</t>
-  </si>
-  <si>
     <t>GAW</t>
   </si>
   <si>
@@ -871,9 +856,6 @@
     <t>Pfizer Inc</t>
   </si>
   <si>
-    <t>235 East 42nd Street, US-10017 New York, NY, USA</t>
-  </si>
-  <si>
     <t>QCOM</t>
   </si>
   <si>
@@ -1081,9 +1063,6 @@
     <t>Vanguard S&amp;P 500 ETF</t>
   </si>
   <si>
-    <t>The Vanguard Group Instl Investor Information Dept P.O. Box 2900 Valley Forge, PA 19482-2900 USA</t>
-  </si>
-  <si>
     <t>VWO</t>
   </si>
   <si>
@@ -1192,9 +1171,6 @@
     <t>BlackRock Inc</t>
   </si>
   <si>
-    <t>40 East 52nd Street, New York, NY, USA 10022</t>
-  </si>
-  <si>
     <t>ALB</t>
   </si>
   <si>
@@ -1252,9 +1228,6 @@
     <t>TGS-NOPEC Geophysical Company</t>
   </si>
   <si>
-    <t>10451 Clay Road, Houston, Texas, 77041, USA</t>
-  </si>
-  <si>
     <t>RHM.DE</t>
   </si>
   <si>
@@ -1498,9 +1471,6 @@
     <t>Henkel AG &amp; Co. KGaA</t>
   </si>
   <si>
-    <t>DE0006048408</t>
-  </si>
-  <si>
     <t>Henkelstrasse 67, Düsseldorf 40589, Germany</t>
   </si>
   <si>
@@ -1645,9 +1615,6 @@
     <t>CA01559R1038</t>
   </si>
   <si>
-    <t>State Street Bank and Trust Company One Lincoln Center Boston, MA 02211 USA</t>
-  </si>
-  <si>
     <t>2333.HK</t>
   </si>
   <si>
@@ -1837,9 +1804,6 @@
     <t>Shangang County 1 Zijin Road, CN-FJ 364200 Longyan, Fujian, China</t>
   </si>
   <si>
-    <t>11440 WEST BERNARDO COURT, SUITE 220 SAN DIEGO CA 92127, USA</t>
-  </si>
-  <si>
     <t>Room 2301 23 Floor, Great Eagle Centre 23 Harbour Road, HK- Wanchai, Hong Kong</t>
   </si>
   <si>
@@ -1882,9 +1846,6 @@
     <t>Yuzhou Plaza, 299 Jingang Road, Pudong New District, Shanghai 361003, China</t>
   </si>
   <si>
-    <t>155 WEST 19TH STREET, FIFTH FLOOR, NEW YORK, NY 10011, USA</t>
-  </si>
-  <si>
     <t>ET</t>
   </si>
   <si>
@@ -2032,9 +1993,6 @@
     <t>ETFMG Alternative Harvest ETF</t>
   </si>
   <si>
-    <t>ETF Managers Group 30 Maple Ave, Suite 2 Summit, NJ 07091 USA</t>
-  </si>
-  <si>
     <t>MU</t>
   </si>
   <si>
@@ -2068,9 +2026,6 @@
     <t>ARK Innovation ETF</t>
   </si>
   <si>
-    <t>3 E 28th Street, 7th Floor, New York, NY 10016, USA</t>
-  </si>
-  <si>
     <t>US3696043013</t>
   </si>
   <si>
@@ -2215,18 +2170,12 @@
     <t>ARKF</t>
   </si>
   <si>
-    <t>ARK Invest, 155 West 19th Street 5th Floor, New York, NY 10011, USA</t>
-  </si>
-  <si>
     <t>US0321086078</t>
   </si>
   <si>
     <t>Amplify Transformational Data Sharing ETF</t>
   </si>
   <si>
-    <t>AMPLIFY ETF TRUST. AMPLIFY INVESTMENTS LLC. 3250 Lacey Road, Suite 130. Downers Grove, IL 60515, USA</t>
-  </si>
-  <si>
     <t>BLOK</t>
   </si>
   <si>
@@ -2275,9 +2224,6 @@
     <t>Haidilao International Holding</t>
   </si>
   <si>
-    <t>FedEx Corporation, 942 Road South Shady Grove, TN 38120 Memphis, Tennessee, USA</t>
-  </si>
-  <si>
     <t>IL</t>
   </si>
   <si>
@@ -2299,9 +2245,6 @@
     <t>Walgreens Boots Alliance Inc</t>
   </si>
   <si>
-    <t>108 Wilmot Road Deerfield, IL 60015 USA</t>
-  </si>
-  <si>
     <t>PHM</t>
   </si>
   <si>
@@ -2467,18 +2410,9 @@
     <t>Harley-Davidson Inc</t>
   </si>
   <si>
-    <t>6555 Sierra Drive, Irving, TX 75039, USA</t>
-  </si>
-  <si>
     <t>Canon s Court 22 Victoria Street, BM-HM 12 Hamilton, Bermuda</t>
   </si>
   <si>
-    <t>1501 Road Page Mill, CA 94304 Palo Alto, California, USA</t>
-  </si>
-  <si>
-    <t>14th Floor 430 E Street 29th, NY 10016 New York City, New York, USA</t>
-  </si>
-  <si>
     <t>Clarendon House, 2 Church Street, Hamilton HM11, Bermuda</t>
   </si>
   <si>
@@ -2491,12 +2425,6 @@
     <t>33 Holborn, EC1N 2HT London, United Kingdom</t>
   </si>
   <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>3700 West Juneau Avenue, Milwaukee, WI 53208-2818, USA</t>
-  </si>
-  <si>
     <t>3.HK</t>
   </si>
   <si>
@@ -2527,9 +2455,6 @@
     <t>23rd Floor 363 Java Road, HK- Hong Kong</t>
   </si>
   <si>
-    <t>2401 Utah Avenue South, PO Box 34507, WA 98134 Seattle, Washington, USA</t>
-  </si>
-  <si>
     <t>3500 Lacey Road Suite 700, Downers Grove, 60515, United States</t>
   </si>
   <si>
@@ -2605,9 +2530,6 @@
     <t>ING Groep NV, Amsterdamse Poort Bijlmerplein 888, 1102 MG, Amsterdam</t>
   </si>
   <si>
-    <t>Fifth Third Bancorp, 38 Fountain Square Plaza, 45263, Cincinnati, USA</t>
-  </si>
-  <si>
     <t>IG Group Holdings plc, Cannon Bridge House 25 Dowgate Hill, EC4R 2YA, London, United Kingdom</t>
   </si>
   <si>
@@ -2714,6 +2636,1578 @@
   </si>
   <si>
     <t>Invesco QQQ</t>
+  </si>
+  <si>
+    <t>One Apple Park Way, Cupertino, CA 95014-2083, United States</t>
+  </si>
+  <si>
+    <t>100 North Tryon Street, Charlotte, NC 28255, United States</t>
+  </si>
+  <si>
+    <t>388 Greenwich Street, New York, NY 10013, United States</t>
+  </si>
+  <si>
+    <t>999 Lake Drive, WA 98027 Issaquah, Washington, United States</t>
+  </si>
+  <si>
+    <t>BlackRock Fund Advisors, 400 Howard Street, San Francisco, CA 94105, United States</t>
+  </si>
+  <si>
+    <t>235 East 42nd Street, US-10017 New York, NY, United States</t>
+  </si>
+  <si>
+    <t>The Vanguard Group Instl Investor Information Dept P.O. Box 2900 Valley Forge, PA 19482-2900 United States</t>
+  </si>
+  <si>
+    <t>40 East 52nd Street, New York, NY, United States 10022</t>
+  </si>
+  <si>
+    <t>10451 Clay Road, Houston, Texas, 77041, United States</t>
+  </si>
+  <si>
+    <t>State Street Bank and Trust Company One Lincoln Center Boston, MA 02211 United States</t>
+  </si>
+  <si>
+    <t>11440 WEST BERNARDO COURT, SUITE 220 SAN DIEGO CA 92127, United States</t>
+  </si>
+  <si>
+    <t>155 WEST 19TH STREET, FIFTH FLOOR, NEW YORK, NY 10011, United States</t>
+  </si>
+  <si>
+    <t>ETF Managers Group 30 Maple Ave, Suite 2 Summit, NJ 07091 United States</t>
+  </si>
+  <si>
+    <t>3 E 28th Street, 7th Floor, New York, NY 10016, United States</t>
+  </si>
+  <si>
+    <t>ARK Invest, 155 West 19th Street 5th Floor, New York, NY 10011, United States</t>
+  </si>
+  <si>
+    <t>AMPLIFY ETF TRUST. AMPLIFY INVESTMENTS LLC. 3250 Lacey Road, Suite 130. Downers Grove, IL 60515, United States</t>
+  </si>
+  <si>
+    <t>FedEx Corporation, 942 Road South Shady Grove, TN 38120 Memphis, Tennessee, United States</t>
+  </si>
+  <si>
+    <t>108 Wilmot Road Deerfield, IL 60015 United States</t>
+  </si>
+  <si>
+    <t>6555 Sierra Drive, Irving, TX 75039, United States</t>
+  </si>
+  <si>
+    <t>1501 Road Page Mill, CA 94304 Palo Alto, California, United States</t>
+  </si>
+  <si>
+    <t>14th Floor 430 E Street 29th, NY 10016 New York City, New York, United States</t>
+  </si>
+  <si>
+    <t>3700 West Juneau Avenue, Milwaukee, WI 53208-2818, United States</t>
+  </si>
+  <si>
+    <t>2401 Utah Avenue South, PO Box 34507, WA 98134 Seattle, Washington, United States</t>
+  </si>
+  <si>
+    <t>Fifth Third Bancorp, 38 Fountain Square Plaza, 45263, Cincinnati, United States</t>
+  </si>
+  <si>
+    <t>DE0006048432</t>
+  </si>
+  <si>
+    <t>QSR</t>
+  </si>
+  <si>
+    <t>CA76131D1033</t>
+  </si>
+  <si>
+    <t>Restaurant Brands International Inc.</t>
+  </si>
+  <si>
+    <t>GSK.L</t>
+  </si>
+  <si>
+    <t>GB00BN7SWP63</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>US3448491049</t>
+  </si>
+  <si>
+    <t>Foot Locker Inc</t>
+  </si>
+  <si>
+    <t>CWK</t>
+  </si>
+  <si>
+    <t>GB0002318888</t>
+  </si>
+  <si>
+    <t>Cranswick PLC</t>
+  </si>
+  <si>
+    <t>SIE.DE</t>
+  </si>
+  <si>
+    <t>DE0007236101</t>
+  </si>
+  <si>
+    <t>Siemens Aktiengesellschaft</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>US7427181091</t>
+  </si>
+  <si>
+    <t>Procter &amp; Gamble Co</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>US0394831020</t>
+  </si>
+  <si>
+    <t>Archer-Daniels-Midland Co</t>
+  </si>
+  <si>
+    <t>JNJ</t>
+  </si>
+  <si>
+    <t>US4781601046</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>SWKS</t>
+  </si>
+  <si>
+    <t>US83088M1027</t>
+  </si>
+  <si>
+    <t>Skyworks Solutions</t>
+  </si>
+  <si>
+    <t>MHFI</t>
+  </si>
+  <si>
+    <t>US78409V1044</t>
+  </si>
+  <si>
+    <t>S&amp;P Global Inc</t>
+  </si>
+  <si>
+    <t>YUM</t>
+  </si>
+  <si>
+    <t>US9884981013</t>
+  </si>
+  <si>
+    <t>Yum Brands Inc</t>
+  </si>
+  <si>
+    <t>STAG</t>
+  </si>
+  <si>
+    <t>US85254J1025</t>
+  </si>
+  <si>
+    <t>STAG Industrial Inc.</t>
+  </si>
+  <si>
+    <t>NEM</t>
+  </si>
+  <si>
+    <t>US6516391066</t>
+  </si>
+  <si>
+    <t>Newmont Mining Corp</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>US25746U1097</t>
+  </si>
+  <si>
+    <t>Dominion Energy Inc</t>
+  </si>
+  <si>
+    <t>ROG.ZU</t>
+  </si>
+  <si>
+    <t>CH0012032048</t>
+  </si>
+  <si>
+    <t>Roche Holding Ltd</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>US94106L1098</t>
+  </si>
+  <si>
+    <t>Waste Management Inc</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>US7134481081</t>
+  </si>
+  <si>
+    <t>PepsiCo</t>
+  </si>
+  <si>
+    <t>NESTE</t>
+  </si>
+  <si>
+    <t>FI0009013296</t>
+  </si>
+  <si>
+    <t>Neste Oyj</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>US9311421039</t>
+  </si>
+  <si>
+    <t>Walmart Inc.</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>US58933Y1055</t>
+  </si>
+  <si>
+    <t>Merck &amp; Co.</t>
+  </si>
+  <si>
+    <t>LRCX</t>
+  </si>
+  <si>
+    <t>US5128071082</t>
+  </si>
+  <si>
+    <t>Lam Research Corp</t>
+  </si>
+  <si>
+    <t>HDV</t>
+  </si>
+  <si>
+    <t>US46429B6636</t>
+  </si>
+  <si>
+    <t>iShares Core High Dividend ETF</t>
+  </si>
+  <si>
+    <t>IVV</t>
+  </si>
+  <si>
+    <t>US4642872000</t>
+  </si>
+  <si>
+    <t>iShares Core S&amp;P 500 ETF</t>
+  </si>
+  <si>
+    <t>NESN</t>
+  </si>
+  <si>
+    <t>CH0038863350</t>
+  </si>
+  <si>
+    <t>Nestle SA</t>
+  </si>
+  <si>
+    <t>CSCO</t>
+  </si>
+  <si>
+    <t>US17275R1023</t>
+  </si>
+  <si>
+    <t>Cisco Systems Inc</t>
+  </si>
+  <si>
+    <t>BAYN.DE</t>
+  </si>
+  <si>
+    <t>DE000BAY0017</t>
+  </si>
+  <si>
+    <t>Bayer AG</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>FR0000120321</t>
+  </si>
+  <si>
+    <t>LOreal SA</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>US3695501086</t>
+  </si>
+  <si>
+    <t>General Dynamics Corp</t>
+  </si>
+  <si>
+    <t>RIO.L</t>
+  </si>
+  <si>
+    <t>GB0007188757</t>
+  </si>
+  <si>
+    <t>Rio Tinto</t>
+  </si>
+  <si>
+    <t>6 St James's Square LONDON SW1Y 4AD United Kingdom</t>
+  </si>
+  <si>
+    <t>PUM.DE</t>
+  </si>
+  <si>
+    <t>DE0006969603</t>
+  </si>
+  <si>
+    <t>PUMA AG</t>
+  </si>
+  <si>
+    <t>EPD</t>
+  </si>
+  <si>
+    <t>US2937921078</t>
+  </si>
+  <si>
+    <t>Enterprise Products Partners LP</t>
+  </si>
+  <si>
+    <t>JUP</t>
+  </si>
+  <si>
+    <t>GB00B53P2009</t>
+  </si>
+  <si>
+    <t>Jupiter Fund Management PLC</t>
+  </si>
+  <si>
+    <t>NSC</t>
+  </si>
+  <si>
+    <t>US6558441084</t>
+  </si>
+  <si>
+    <t>Norfolk Southern Corp</t>
+  </si>
+  <si>
+    <t>MONY</t>
+  </si>
+  <si>
+    <t>GB00B1ZBKY84</t>
+  </si>
+  <si>
+    <t>Moneysupermarket.com Group PLC</t>
+  </si>
+  <si>
+    <t>Moneysupermarket House St David's Park Ewloe Chester CH5 3UZ United Kingdom</t>
+  </si>
+  <si>
+    <t>S92.DE</t>
+  </si>
+  <si>
+    <t>DE000A0DJ6J9</t>
+  </si>
+  <si>
+    <t>SMA Solar Technology AG</t>
+  </si>
+  <si>
+    <t>Sonnenallee 1 ; 34266 Niestetal ; Germany</t>
+  </si>
+  <si>
+    <t>AJG</t>
+  </si>
+  <si>
+    <t>US3635761097</t>
+  </si>
+  <si>
+    <t>Arthur J.Gallagher &amp; Co</t>
+  </si>
+  <si>
+    <t>DKS</t>
+  </si>
+  <si>
+    <t>US2533931026</t>
+  </si>
+  <si>
+    <t>Dicks Sporting Goods Inc</t>
+  </si>
+  <si>
+    <t>BIG</t>
+  </si>
+  <si>
+    <t>US0893021032</t>
+  </si>
+  <si>
+    <t>Big Lots Inc</t>
+  </si>
+  <si>
+    <t>QIWI</t>
+  </si>
+  <si>
+    <t>US74735M1080</t>
+  </si>
+  <si>
+    <t>Qiwi Plc-ADR</t>
+  </si>
+  <si>
+    <t>CY</t>
+  </si>
+  <si>
+    <t>BBY</t>
+  </si>
+  <si>
+    <t>US0865161014</t>
+  </si>
+  <si>
+    <t>Best Buy Co Inc</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>US7433151039</t>
+  </si>
+  <si>
+    <t>Progressive Corp</t>
+  </si>
+  <si>
+    <t>THO</t>
+  </si>
+  <si>
+    <t>US8851601018</t>
+  </si>
+  <si>
+    <t>Thor Industries Inc</t>
+  </si>
+  <si>
+    <t>DOX</t>
+  </si>
+  <si>
+    <t>GB0022569080</t>
+  </si>
+  <si>
+    <t>Amdocs Ltd</t>
+  </si>
+  <si>
+    <t>PAY</t>
+  </si>
+  <si>
+    <t>GB00B02QND93</t>
+  </si>
+  <si>
+    <t>PayPoint PLC</t>
+  </si>
+  <si>
+    <t>JOUT</t>
+  </si>
+  <si>
+    <t>US4791671088</t>
+  </si>
+  <si>
+    <t>Johnson Outdoors Inc.</t>
+  </si>
+  <si>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>US6703461052</t>
+  </si>
+  <si>
+    <t>Nucor Corp</t>
+  </si>
+  <si>
+    <t>AON</t>
+  </si>
+  <si>
+    <t>IE00BLP1HW54</t>
+  </si>
+  <si>
+    <t>Aon plc</t>
+  </si>
+  <si>
+    <t>PSN.L</t>
+  </si>
+  <si>
+    <t>GB0006825383</t>
+  </si>
+  <si>
+    <t>Persimmon</t>
+  </si>
+  <si>
+    <t>CLX</t>
+  </si>
+  <si>
+    <t>US1890541097</t>
+  </si>
+  <si>
+    <t>Clorox Co</t>
+  </si>
+  <si>
+    <t>CASY</t>
+  </si>
+  <si>
+    <t>US1475281036</t>
+  </si>
+  <si>
+    <t>Casey's General Stores Inc</t>
+  </si>
+  <si>
+    <t>BTI</t>
+  </si>
+  <si>
+    <t>US1104481072</t>
+  </si>
+  <si>
+    <t>British American Tobacco PLC ADR</t>
+  </si>
+  <si>
+    <t>SCCO</t>
+  </si>
+  <si>
+    <t>US84265V1052</t>
+  </si>
+  <si>
+    <t>Southern Copper Corp</t>
+  </si>
+  <si>
+    <t>WSM</t>
+  </si>
+  <si>
+    <t>US9699041011</t>
+  </si>
+  <si>
+    <t>Williams-Sonoma Inc</t>
+  </si>
+  <si>
+    <t>WEC</t>
+  </si>
+  <si>
+    <t>US92939U1060</t>
+  </si>
+  <si>
+    <t>WEC Energy Group</t>
+  </si>
+  <si>
+    <t>CHD</t>
+  </si>
+  <si>
+    <t>US1713401024</t>
+  </si>
+  <si>
+    <t>Church &amp; Dwight Co Inc</t>
+  </si>
+  <si>
+    <t>AWK</t>
+  </si>
+  <si>
+    <t>US0304201033</t>
+  </si>
+  <si>
+    <t>American Water Works Co Inc</t>
+  </si>
+  <si>
+    <t>ENB</t>
+  </si>
+  <si>
+    <t>CA29250N1050</t>
+  </si>
+  <si>
+    <t>Enbridge Inc</t>
+  </si>
+  <si>
+    <t>KGC</t>
+  </si>
+  <si>
+    <t>CA4969024047</t>
+  </si>
+  <si>
+    <t>Kinross Gold Corp</t>
+  </si>
+  <si>
+    <t>NUS</t>
+  </si>
+  <si>
+    <t>US67018T1051</t>
+  </si>
+  <si>
+    <t>Nu Skin Enterprises Inc</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>US0311621009</t>
+  </si>
+  <si>
+    <t>Amgen Inc</t>
+  </si>
+  <si>
+    <t>WPM</t>
+  </si>
+  <si>
+    <t>CA9628791027</t>
+  </si>
+  <si>
+    <t>Wheaton Precious Metals Corp</t>
+  </si>
+  <si>
+    <t>SHW</t>
+  </si>
+  <si>
+    <t>US8243481061</t>
+  </si>
+  <si>
+    <t>Sherwin-Williams Co</t>
+  </si>
+  <si>
+    <t>ZIM</t>
+  </si>
+  <si>
+    <t>IL0065100930</t>
+  </si>
+  <si>
+    <t>ZIM Shipping Services Ltd</t>
+  </si>
+  <si>
+    <t>SLGN</t>
+  </si>
+  <si>
+    <t>US8270481091</t>
+  </si>
+  <si>
+    <t>Silgan Holdings Inc</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>IE000S9YS762</t>
+  </si>
+  <si>
+    <t>Linde PLC</t>
+  </si>
+  <si>
+    <t>BHP</t>
+  </si>
+  <si>
+    <t>US0886061086</t>
+  </si>
+  <si>
+    <t>BHP Group Ltd ADR</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>RIO</t>
+  </si>
+  <si>
+    <t>US7672041008</t>
+  </si>
+  <si>
+    <t>Rio Tinto PLC ADR</t>
+  </si>
+  <si>
+    <t>RMD</t>
+  </si>
+  <si>
+    <t>US7611521078</t>
+  </si>
+  <si>
+    <t>ResMed Inc</t>
+  </si>
+  <si>
+    <t>DGRO</t>
+  </si>
+  <si>
+    <t>US46434V6213</t>
+  </si>
+  <si>
+    <t>iShares Core Dividend Growth ETF</t>
+  </si>
+  <si>
+    <t>HOC</t>
+  </si>
+  <si>
+    <t>GB00B1FW5029</t>
+  </si>
+  <si>
+    <t>Hochschild Mining PLC</t>
+  </si>
+  <si>
+    <t>IAPD</t>
+  </si>
+  <si>
+    <t>IE00B14X4T88</t>
+  </si>
+  <si>
+    <t>iShares Asia Pacific Dividend UCITS ETF</t>
+  </si>
+  <si>
+    <t>WGO</t>
+  </si>
+  <si>
+    <t>US9746371007</t>
+  </si>
+  <si>
+    <t>Winnebago Industries Inc.</t>
+  </si>
+  <si>
+    <t>HUN</t>
+  </si>
+  <si>
+    <t>US4470111075</t>
+  </si>
+  <si>
+    <t>Huntsman Corp</t>
+  </si>
+  <si>
+    <t>FNV</t>
+  </si>
+  <si>
+    <t>CA3518581051</t>
+  </si>
+  <si>
+    <t>Franco-Nevada Corp</t>
+  </si>
+  <si>
+    <t>CEY</t>
+  </si>
+  <si>
+    <t>JE00B5TT1872</t>
+  </si>
+  <si>
+    <t>Centamin PLC</t>
+  </si>
+  <si>
+    <t>DLR</t>
+  </si>
+  <si>
+    <t>US2538681030</t>
+  </si>
+  <si>
+    <t>Digital Realty Trust Inc</t>
+  </si>
+  <si>
+    <t>VTIP</t>
+  </si>
+  <si>
+    <t>US9220208055</t>
+  </si>
+  <si>
+    <t>Vanguard Short-Term Inflation-Protected Securities ETF</t>
+  </si>
+  <si>
+    <t>DIV</t>
+  </si>
+  <si>
+    <t>US37950E2919</t>
+  </si>
+  <si>
+    <t>Global SuperDividend US ETF</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>US7561091049</t>
+  </si>
+  <si>
+    <t>Realty Income Corp</t>
+  </si>
+  <si>
+    <t>AMT</t>
+  </si>
+  <si>
+    <t>US03027X1000</t>
+  </si>
+  <si>
+    <t>American Tower Corp</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>US3024913036</t>
+  </si>
+  <si>
+    <t>FMC Corp</t>
+  </si>
+  <si>
+    <t>DELL</t>
+  </si>
+  <si>
+    <t>US24703L2025</t>
+  </si>
+  <si>
+    <t>Dell Technologies Inc C</t>
+  </si>
+  <si>
+    <t>BATS.L</t>
+  </si>
+  <si>
+    <t>GB0002875804</t>
+  </si>
+  <si>
+    <t>British American Tobacco</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>US1508701034</t>
+  </si>
+  <si>
+    <t>Celanese Corp</t>
+  </si>
+  <si>
+    <t>VNA.DE</t>
+  </si>
+  <si>
+    <t>DE000A1ML7J1</t>
+  </si>
+  <si>
+    <t>Vonovia SE</t>
+  </si>
+  <si>
+    <t>LKQ</t>
+  </si>
+  <si>
+    <t>US5018892084</t>
+  </si>
+  <si>
+    <t>LKQ Corp</t>
+  </si>
+  <si>
+    <t>PSX</t>
+  </si>
+  <si>
+    <t>US7185461040</t>
+  </si>
+  <si>
+    <t>Phillips 66</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>US1170431092</t>
+  </si>
+  <si>
+    <t>Brunswick Corp</t>
+  </si>
+  <si>
+    <t>NOC</t>
+  </si>
+  <si>
+    <t>US6668071029</t>
+  </si>
+  <si>
+    <t>Northrop Grumman Corp</t>
+  </si>
+  <si>
+    <t>ISF</t>
+  </si>
+  <si>
+    <t>IE0005042456</t>
+  </si>
+  <si>
+    <t>iShares Core FTSE 100 UCITS ETF (Dist)</t>
+  </si>
+  <si>
+    <t>VGT</t>
+  </si>
+  <si>
+    <t>US92204A7028</t>
+  </si>
+  <si>
+    <t>Vanguard Information Technology</t>
+  </si>
+  <si>
+    <t>VUG</t>
+  </si>
+  <si>
+    <t>US9229087369</t>
+  </si>
+  <si>
+    <t>Vanguard Growth ETF</t>
+  </si>
+  <si>
+    <t>VTI</t>
+  </si>
+  <si>
+    <t>US9229087690</t>
+  </si>
+  <si>
+    <t>Vanguard Total Stock Market ETF</t>
+  </si>
+  <si>
+    <t>TEF</t>
+  </si>
+  <si>
+    <t>US8793822086</t>
+  </si>
+  <si>
+    <t>Telefonica SA (US)-ADR</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>GPN</t>
+  </si>
+  <si>
+    <t>US37940X1028</t>
+  </si>
+  <si>
+    <t>Global Payments Inc</t>
+  </si>
+  <si>
+    <t>PCH</t>
+  </si>
+  <si>
+    <t>US7376301039</t>
+  </si>
+  <si>
+    <t>PotlatchDeltic Corp</t>
+  </si>
+  <si>
+    <t>AVGO</t>
+  </si>
+  <si>
+    <t>US11135F1012</t>
+  </si>
+  <si>
+    <t>Broadcom Inc</t>
+  </si>
+  <si>
+    <t>SEIC</t>
+  </si>
+  <si>
+    <t>US7841171033</t>
+  </si>
+  <si>
+    <t>SEI Investments Company</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>US00287Y1091</t>
+  </si>
+  <si>
+    <t>AbbVie Inc</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>US9129091081</t>
+  </si>
+  <si>
+    <t>United States Steel Corp</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>US88579Y1010</t>
+  </si>
+  <si>
+    <t>3M</t>
+  </si>
+  <si>
+    <t>BFH</t>
+  </si>
+  <si>
+    <t>US0185811082</t>
+  </si>
+  <si>
+    <t>Bread Financial Holdings Inc</t>
+  </si>
+  <si>
+    <t>VCIT</t>
+  </si>
+  <si>
+    <t>US92206C8709</t>
+  </si>
+  <si>
+    <t>Vanguard Intermediate-Term Corp</t>
+  </si>
+  <si>
+    <t>CAJPY</t>
+  </si>
+  <si>
+    <t>US1380063099</t>
+  </si>
+  <si>
+    <t>Canon Inc - ADR</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>IE00BY7QL619</t>
+  </si>
+  <si>
+    <t>Johnson Controls Inc</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>US9029733048</t>
+  </si>
+  <si>
+    <t>US Bancorp</t>
+  </si>
+  <si>
+    <t>SPLV</t>
+  </si>
+  <si>
+    <t>US46138E3541</t>
+  </si>
+  <si>
+    <t>Invesco S&amp;P 500 Low Volatility</t>
+  </si>
+  <si>
+    <t>ADS.DE</t>
+  </si>
+  <si>
+    <t>DE000A1EWWW0</t>
+  </si>
+  <si>
+    <t>Adidas AG</t>
+  </si>
+  <si>
+    <t>LEVI</t>
+  </si>
+  <si>
+    <t>US52736R1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levi Strauss &amp; Co. </t>
+  </si>
+  <si>
+    <t>SAOC</t>
+  </si>
+  <si>
+    <t>SA14TG012N13</t>
+  </si>
+  <si>
+    <t>Aramco Saudi Arabian Oil Corp</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>US3453708600</t>
+  </si>
+  <si>
+    <t>Ford Motor Co</t>
+  </si>
+  <si>
+    <t>SHEL</t>
+  </si>
+  <si>
+    <t>US7802593050</t>
+  </si>
+  <si>
+    <t>Shell PLC (ADR)</t>
+  </si>
+  <si>
+    <t>NOKI</t>
+  </si>
+  <si>
+    <t>US6549022043</t>
+  </si>
+  <si>
+    <t>Nokia Oyj-ADR</t>
+  </si>
+  <si>
+    <t>CRK</t>
+  </si>
+  <si>
+    <t>US2057683029</t>
+  </si>
+  <si>
+    <t>Comstock Resources Inc</t>
+  </si>
+  <si>
+    <t>JOE</t>
+  </si>
+  <si>
+    <t>US7901481009</t>
+  </si>
+  <si>
+    <t>The St. Joe Company</t>
+  </si>
+  <si>
+    <t>ATHM</t>
+  </si>
+  <si>
+    <t>US05278C1071</t>
+  </si>
+  <si>
+    <t>Autohome-ADR</t>
+  </si>
+  <si>
+    <t>VET</t>
+  </si>
+  <si>
+    <t>CA9237251058</t>
+  </si>
+  <si>
+    <t>Vermilion Energy</t>
+  </si>
+  <si>
+    <t>OCI.NV</t>
+  </si>
+  <si>
+    <t>NL0010558797</t>
+  </si>
+  <si>
+    <t>OCI NV</t>
+  </si>
+  <si>
+    <t>SKM</t>
+  </si>
+  <si>
+    <t>US78440P3064</t>
+  </si>
+  <si>
+    <t>SK Telecom Co Ltd-ADR</t>
+  </si>
+  <si>
+    <t>3323.HK</t>
+  </si>
+  <si>
+    <t>CNE1000002N9</t>
+  </si>
+  <si>
+    <t>China National Building Material</t>
+  </si>
+  <si>
+    <t>MDT.US</t>
+  </si>
+  <si>
+    <t>IE00BTN1Y115</t>
+  </si>
+  <si>
+    <t>Medtronic PLC</t>
+  </si>
+  <si>
+    <t>SHV</t>
+  </si>
+  <si>
+    <t>US4642886794</t>
+  </si>
+  <si>
+    <t>iShares Short Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>DG.US</t>
+  </si>
+  <si>
+    <t>US2566771059</t>
+  </si>
+  <si>
+    <t>Dollar General Corporation</t>
+  </si>
+  <si>
+    <t>CTAS</t>
+  </si>
+  <si>
+    <t>US1729081059</t>
+  </si>
+  <si>
+    <t>Cintas Corp</t>
+  </si>
+  <si>
+    <t>FXI</t>
+  </si>
+  <si>
+    <t>US4642871846</t>
+  </si>
+  <si>
+    <t>iShares China Large-Cap ETF</t>
+  </si>
+  <si>
+    <t>226 Wyecroft Road, L6K 3X7, Oakville, United States</t>
+  </si>
+  <si>
+    <t>980 Great West Road Brentford, TW8 9GS, Middlesex, United Kingdom</t>
+  </si>
+  <si>
+    <t>112 West 34th Street, 10120, New York, United States</t>
+  </si>
+  <si>
+    <t>74 Helsinki Road Sutton Fields, HU7 0YW, Hull, United Kingdom</t>
+  </si>
+  <si>
+    <t>Nonnendammallee 101, 13629, Berlin, Germany</t>
+  </si>
+  <si>
+    <t>One Procter &amp; Gamble Plaza, Cincinnati, Ohio 45202, United States</t>
+  </si>
+  <si>
+    <t>77 W. Wacker Dr., Chicago, Illinois 60601, United States</t>
+  </si>
+  <si>
+    <t>One Johnson &amp; Johnson Plz, New Brunswick, New Jersey 08933, United States</t>
+  </si>
+  <si>
+    <t>5260 California Avenue, Irvine, California 92617, United States</t>
+  </si>
+  <si>
+    <t>55 Water Street, New York, New York 10041, United States</t>
+  </si>
+  <si>
+    <t>1441 Gardiner Lane, Louisville, Kentucky 40213, United States</t>
+  </si>
+  <si>
+    <t>One Federal Street, 23rd Floor, Boston, Massachusetts 02110, United States</t>
+  </si>
+  <si>
+    <t>6900 E Layton Ave, Suite 700, Denver, Colorado 80237, United States</t>
+  </si>
+  <si>
+    <t>120 Tredegar Street, Richmond, Virginia 23219, United States</t>
+  </si>
+  <si>
+    <t>Grenzacherstrasse 124, 4058, Basel, Switzerland</t>
+  </si>
+  <si>
+    <t>800 Capitol Street, Ste 3000, Houston, Texas 77002, United States</t>
+  </si>
+  <si>
+    <t>700 Anderson Hill Rd, Purchase, New York 10577, United States</t>
+  </si>
+  <si>
+    <t>Neste Corp., Keilaranta 21, 00095, Espoo</t>
+  </si>
+  <si>
+    <t>702 Southwest 8th St, Bentonville, Arkansas 72716, United States</t>
+  </si>
+  <si>
+    <t>2000 Galloping Hill Road, Kenilworth, New Jersey 07033, United States</t>
+  </si>
+  <si>
+    <t>4650 Cushing Blvd, Fremont, California 94538, United States</t>
+  </si>
+  <si>
+    <t>BlackRock, Inc., 55 East 52nd Street, New York, NY 10055, United States</t>
+  </si>
+  <si>
+    <t>Avenue Nestlé 55, 1800, Vevey, Switzerland</t>
+  </si>
+  <si>
+    <t>170 West Tasman Dr, San Jose, California 95134-1706, United States</t>
+  </si>
+  <si>
+    <t>Kaiser-Wilhelm-Allee 1, 51373 Leverkusen, Germany</t>
+  </si>
+  <si>
+    <t>41 rue Martre, Clichy Cedex CLICHY 92117, France</t>
+  </si>
+  <si>
+    <t>11011 Sunset Hills Rd, Reston, Virginia 20190, United States</t>
+  </si>
+  <si>
+    <t>PUMA Way 1. DE-91074 Herzogenaurach, Bayern. Germany</t>
+  </si>
+  <si>
+    <t>1100 Louisiana 10th Floor, Houston, Texas 77002, United States</t>
+  </si>
+  <si>
+    <t>The Zig Zag Building, 70 Victoria Street LONDON SW1E 6SQ United Kingdom</t>
+  </si>
+  <si>
+    <t>650 W Peachtree Street Nw, Atlanta, Georgia 30308, United States</t>
+  </si>
+  <si>
+    <t>2850 Golf Road, Rolling Meadows, Illinois 60008-4050, United States</t>
+  </si>
+  <si>
+    <t>345 Court Street, Coraopolis, Pennsylvania 15108, United States</t>
+  </si>
+  <si>
+    <t>4900 E Dublin Granville Rd, Columbus, Ohio 43081-7651, United States</t>
+  </si>
+  <si>
+    <t>12-14 Kennedy Ave., Kennedy Business Centre, Office 203, Nicosia, G4 1087, Cyprus</t>
+  </si>
+  <si>
+    <t>7601 Penn Ave South, Richfield, Minnesota 55423, United States</t>
+  </si>
+  <si>
+    <t>6300 Wilson Mills Rd, Mayfield Village, Ohio 44143, United States</t>
+  </si>
+  <si>
+    <t>601 E. Beardsley Avenue, Elkhart, Indiana 46514, United States</t>
+  </si>
+  <si>
+    <t>Hirzel House, Smith Street, St. Peter Port, Guernsey, X0 GY1 2NG, United Kingdom</t>
+  </si>
+  <si>
+    <t>1 The Boulevard, Shire Park, Welwyn Garden City, Hertfordshire, AL7 1EL, United Kingdom</t>
+  </si>
+  <si>
+    <t>Johnson Outdoors Inc., 555 Main Street, Suite 100, Racine, WI 53403, United States</t>
+  </si>
+  <si>
+    <t>1915 Rexford Rd, Charlotte, North Carolina 28211, United States</t>
+  </si>
+  <si>
+    <t>Metropolitan Building, James Joyce Street, Dublin 1, L2 D01 K0Y8, Ireland</t>
+  </si>
+  <si>
+    <t>Persimmon House, Fulford, York YO19 4FE, United Kingdom</t>
+  </si>
+  <si>
+    <t>1221 Broadway, Oakland, California 94612-1888, United States</t>
+  </si>
+  <si>
+    <t>Po Box 3001, Ankeny, Iowa 50021, United States</t>
+  </si>
+  <si>
+    <t>Globe House, 4 Temple Place, London, X0 WC2R 2PG, United Kingdom</t>
+  </si>
+  <si>
+    <t>7310 North 16th St., Suite 135, Phoenix, Arizona 85020, United States</t>
+  </si>
+  <si>
+    <t>3250 Van Ness Avenue, San Francisco, California 94109, United States</t>
+  </si>
+  <si>
+    <t>231 W Michigan St, P O Box 1331, Milwaukee, Wisconsin 53201, United States</t>
+  </si>
+  <si>
+    <t>500 Charles Ewing Boulevard, Ewing, New Jersey 08628, United States</t>
+  </si>
+  <si>
+    <t>1 Water Street, Camden, New Jersey 08102-1658, United States</t>
+  </si>
+  <si>
+    <t>200 425 - 1st Street Sw, Calgary, A0 T2P 3L8, Alberta, Canada</t>
+  </si>
+  <si>
+    <t>25 York Street, 17th Floor, Toronto, A6 M5J 2V5, Ontario, Canada</t>
+  </si>
+  <si>
+    <t>75 West Center St, Attn: Gregory Belliston, Provo, Utah 84601, United States</t>
+  </si>
+  <si>
+    <t>One Amgen Center Drive, Thousand Oaks, California 91320, United States</t>
+  </si>
+  <si>
+    <t>Suite 3500, 1021 West Hastings Streeet, Vancouver, A1 V6E 0C3, British Columbia, Canada</t>
+  </si>
+  <si>
+    <t>101 Prospect Ave Nw, Cleveland, Ohio 44115, United States</t>
+  </si>
+  <si>
+    <t>9 Andrei Sakharov Street, P.o. Box 15067, Haifa, L3 3190500, Israel</t>
+  </si>
+  <si>
+    <t>4 Landmark Sq, Stamford, Connecticut 06901, United States</t>
+  </si>
+  <si>
+    <t>Forge, 43 Church Street West, Woking Surrey, X0 GU216HT, United Kingdom</t>
+  </si>
+  <si>
+    <t>16/171 Collins Street, Melbourne, Victoria Australia, C3 3000, Australia</t>
+  </si>
+  <si>
+    <t>6 St James's Square, London, Sw1y 4ad, X0 00000, United Kingdom</t>
+  </si>
+  <si>
+    <t>9001 Spectrum Center Blvd., San Diego, California 92123, United States</t>
+  </si>
+  <si>
+    <t>4th Floor, Saltire Court, 20 Castle Terrace, Edinburgh, EH1 2EN, United Kingdom</t>
+  </si>
+  <si>
+    <t>13200 Pioneer Trail, Suite 150, Eden Prairie, Minnesota 55347, United States</t>
+  </si>
+  <si>
+    <t>10003 Woodloch Forest Drive, The Woodlands, Texas 77380, United States</t>
+  </si>
+  <si>
+    <t>199 Bay Street, Suite 2000, Commerce Court West, Toronto, A6 M5L 1G9, Ontario, Canada</t>
+  </si>
+  <si>
+    <t>Centamin Plc, 2 Mulcaster Street, JE2 3NJ, St. Helier</t>
+  </si>
+  <si>
+    <t>5707 Southwest Parkway, Building 1, Suite 275, Austin, Texas 78735, United States</t>
+  </si>
+  <si>
+    <t>Vanguard Group, 100 Vanguard Blvd., Malvern, PA 19355, United States</t>
+  </si>
+  <si>
+    <t>623 Fifth Avenue, 15th Floor, New York, NY 10022, United States</t>
+  </si>
+  <si>
+    <t>11995 El Camino Real, San Diego, California 92130, United States</t>
+  </si>
+  <si>
+    <t>116 Huntington Ave, Boston, Massachusetts 02116, United States</t>
+  </si>
+  <si>
+    <t>2929 Walnut Street, Philadelphia, Pennsylvania 19104, United States</t>
+  </si>
+  <si>
+    <t>One Dell Way, Round Rock, Texas 78682, United States</t>
+  </si>
+  <si>
+    <t>Globe House, London, WC2R 2PG, United Kingdom</t>
+  </si>
+  <si>
+    <t>222 W. Las Colinas Blvd., Suite 900n, Irving, Texas 75039-5421, United States</t>
+  </si>
+  <si>
+    <t>Vonovia SE, Universitätsstr. 133, 44803 Bochum, Germany</t>
+  </si>
+  <si>
+    <t>500 West Madison Street, Suite 2800, Chicago, Illinois 60661, United States</t>
+  </si>
+  <si>
+    <t>2331 Citywest Blvd., Houston, Texas 77042, United States</t>
+  </si>
+  <si>
+    <t>26125 N. Riverwoods Blvd. Suite 500, Mettawa, Illinois 60045-3420, United States</t>
+  </si>
+  <si>
+    <t>2980 Fairview Park Drive, C/o Northrop Grumman Corp, Falls Church, Virginia 22042, United States</t>
+  </si>
+  <si>
+    <t>100 Vanguard Blvd., Malvern, PA 19355, United States</t>
+  </si>
+  <si>
+    <t>Gran Via 28, 28013 Madrid, U3 00000, Spain</t>
+  </si>
+  <si>
+    <t>3550 Lenox Road, Atlanta, Georgia 30326, United States</t>
+  </si>
+  <si>
+    <t>601 West First Avenue Suite 1600, 99201, Spokane, United States</t>
+  </si>
+  <si>
+    <t>1320 Ridder Park Drive, 95131-2313, San Jose, United States</t>
+  </si>
+  <si>
+    <t>1 Freedom Valley Drive, Oaks, PA 19456, United States</t>
+  </si>
+  <si>
+    <t>1 North Waukegan Road, North Chicago, IL 60064, United States</t>
+  </si>
+  <si>
+    <t>600 Grant Street, Pittsburgh, PA 15219, United States</t>
+  </si>
+  <si>
+    <t>3M Center, St. Paul, MN 55144, United States</t>
+  </si>
+  <si>
+    <t>850 Dixie Highway, Louisville, KY 40210, United States</t>
+  </si>
+  <si>
+    <t>100 Vanguard Boulevard, Malvern, PA 19355, United States</t>
+  </si>
+  <si>
+    <t>30-2, Shimomaruko 3-chome, Ohta-ku, Tokyo 146-8501, Japan</t>
+  </si>
+  <si>
+    <t>507 E. Michigan Street, Milwaukee, WI 53202, United States</t>
+  </si>
+  <si>
+    <t>U.S. Bancorp Center, 800 Nicollet Mall, Minneapolis, MN 55402, United States</t>
+  </si>
+  <si>
+    <t>1555 Peachtree Street NE, Atlanta, GA 30309, United States</t>
+  </si>
+  <si>
+    <t>Adi-Dassler-Strasse 1, 91074 Herzogenaurach, Germany</t>
+  </si>
+  <si>
+    <t>1155 Battery Street, San Francisco, CA 94111, United States</t>
+  </si>
+  <si>
+    <t>Dhahran, 31311, Saudi Arabia</t>
+  </si>
+  <si>
+    <t>3131 East Michigan Avenue, Dearborn, MI 48126, United States</t>
+  </si>
+  <si>
+    <t>Carel van Bylandtlaan 30, 2596 HR The Hague, Netherlands</t>
+  </si>
+  <si>
+    <t>Karaportti 3, 02610 Espoo, Finland</t>
+  </si>
+  <si>
+    <t>5300 Town and Country Blvd., Suite 500, Frisco, TX 75034, United States</t>
+  </si>
+  <si>
+    <t>133 South WaterSound Parkway, Suite 100, Watersound, FL 32461, United States</t>
+  </si>
+  <si>
+    <t>Tower B, CEC Plaza, 3 Dan Ling Street, Haidian District, Beijing 100080, China</t>
+  </si>
+  <si>
+    <t>300, 520-3rd Avenue SW, Calgary, Alberta, T2P 0R3, Canada</t>
+  </si>
+  <si>
+    <t>Amstelplein 1, 1096 HA Amsterdam, Netherlands</t>
+  </si>
+  <si>
+    <t>11 Euljiro 2-gil, Jung-gu, Seoul, South Korea</t>
+  </si>
+  <si>
+    <t>7088 Shennan Boulevard, Futian District, Shenzhen, Guangdong, China</t>
+  </si>
+  <si>
+    <t>20 Lower Hatch Street, Dublin 2, Ireland</t>
+  </si>
+  <si>
+    <t>No. 221, Huangpu Avenue, Tianhe District, Guangzhou, China</t>
+  </si>
+  <si>
+    <t>100 Mission Ridge, Goodlettsville, TN 37072, United States</t>
+  </si>
+  <si>
+    <t>6800 Cintas Boulevard, P.O. Box 625737, Cincinnati, OH 45262-5737, United States</t>
+  </si>
+  <si>
+    <t>55 East 52nd Street, New York, NY 10055, United States</t>
   </si>
 </sst>
 </file>
@@ -2761,13 +4255,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2824,7 +4314,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E223" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E348" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
@@ -3036,8 +4526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215:E223"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3081,7 +4571,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3098,7 +4588,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3115,7 +4605,7 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3132,7 +4622,7 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3149,7 +4639,7 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3166,7 +4656,7 @@
       <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3183,7 +4673,7 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3200,7 +4690,7 @@
       <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3217,7 +4707,7 @@
       <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3234,7 +4724,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3251,7 +4741,7 @@
       <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3268,7 +4758,7 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3285,7 +4775,7 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3302,7 +4792,7 @@
       <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3319,7 +4809,7 @@
       <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3336,7 +4826,7 @@
       <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3353,7 +4843,7 @@
       <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3370,7 +4860,7 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3387,7 +4877,7 @@
       <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3404,7 +4894,7 @@
       <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3421,7 +4911,7 @@
       <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3438,7 +4928,7 @@
       <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3455,7 +4945,7 @@
       <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3472,7 +4962,7 @@
       <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3489,7 +4979,7 @@
       <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3506,7 +4996,7 @@
       <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3523,7 +5013,7 @@
       <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3540,7 +5030,7 @@
       <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3557,7 +5047,7 @@
       <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3574,7 +5064,7 @@
       <c r="D31" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3591,7 +5081,7 @@
       <c r="D32" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3600,7 +5090,7 @@
         <v>132</v>
       </c>
       <c r="B33" t="s">
-        <v>765</v>
+        <v>746</v>
       </c>
       <c r="C33" t="s">
         <v>133</v>
@@ -3608,7 +5098,7 @@
       <c r="D33" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3625,7 +5115,7 @@
       <c r="D34" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3642,7 +5132,7 @@
       <c r="D35" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3657,3320 +5147,5320 @@
         <v>145</v>
       </c>
       <c r="D36" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>147</v>
+        <v>872</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
         <v>148</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>149</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>150</v>
       </c>
-      <c r="D37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>147</v>
+      <c r="E37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" t="s">
         <v>152</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>153</v>
       </c>
-      <c r="C38" t="s">
-        <v>154</v>
-      </c>
       <c r="D38" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>147</v>
+        <v>873</v>
+      </c>
+      <c r="E38" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" t="s">
         <v>156</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>157</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>158</v>
-      </c>
-      <c r="D39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>160</v>
+      </c>
+      <c r="C40" t="s">
         <v>161</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>162</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>163</v>
-      </c>
-      <c r="D40" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" t="s">
         <v>166</v>
       </c>
-      <c r="B41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C41" t="s">
-        <v>168</v>
-      </c>
       <c r="D41" t="s">
-        <v>169</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>147</v>
+        <v>874</v>
+      </c>
+      <c r="E41" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>147</v>
+        <v>875</v>
+      </c>
+      <c r="E42" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>147</v>
+        <v>172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" t="s">
         <v>177</v>
-      </c>
-      <c r="B44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" t="s">
+        <v>180</v>
+      </c>
+      <c r="D45" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" t="s">
         <v>182</v>
-      </c>
-      <c r="B45" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" t="s">
-        <v>184</v>
-      </c>
-      <c r="D45" t="s">
-        <v>185</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D46" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>147</v>
+        <v>186</v>
+      </c>
+      <c r="E46" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>147</v>
+        <v>876</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B48" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>165</v>
+        <v>193</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="C49" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>201</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>147</v>
+        <v>196</v>
+      </c>
+      <c r="E49" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>205</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>147</v>
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B51" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>147</v>
+        <v>204</v>
+      </c>
+      <c r="E51" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>165</v>
+        <v>208</v>
+      </c>
+      <c r="E52" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>147</v>
+        <v>212</v>
+      </c>
+      <c r="E53" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>165</v>
+        <v>216</v>
+      </c>
+      <c r="E54" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>147</v>
+        <v>876</v>
+      </c>
+      <c r="E55" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D56" t="s">
-        <v>228</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>147</v>
+        <v>223</v>
+      </c>
+      <c r="E56" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D57" t="s">
-        <v>232</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>147</v>
+        <v>227</v>
+      </c>
+      <c r="E57" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>147</v>
+        <v>231</v>
+      </c>
+      <c r="E58" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
-        <v>240</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>147</v>
+        <v>235</v>
+      </c>
+      <c r="E59" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>147</v>
+        <v>239</v>
+      </c>
+      <c r="E60" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s">
-        <v>248</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>147</v>
+        <v>243</v>
+      </c>
+      <c r="E61" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D62" t="s">
-        <v>194</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>147</v>
+        <v>876</v>
+      </c>
+      <c r="E62" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C63" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D63" t="s">
-        <v>255</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>147</v>
+        <v>250</v>
+      </c>
+      <c r="E63" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C64" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D64" t="s">
-        <v>259</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>147</v>
+        <v>254</v>
+      </c>
+      <c r="E64" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C65" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D65" t="s">
-        <v>263</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>160</v>
+        <v>258</v>
+      </c>
+      <c r="E65" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>147</v>
+        <v>262</v>
+      </c>
+      <c r="E66" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C67" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>147</v>
+        <v>266</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C68" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D68" t="s">
-        <v>275</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>147</v>
+        <v>270</v>
+      </c>
+      <c r="E68" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C69" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D69" t="s">
-        <v>279</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>147</v>
+        <v>274</v>
+      </c>
+      <c r="E69" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>283</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>147</v>
+        <v>877</v>
+      </c>
+      <c r="E70" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C71" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>147</v>
+        <v>281</v>
+      </c>
+      <c r="E71" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D72" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>181</v>
+        <v>285</v>
+      </c>
+      <c r="E72" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C73" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>181</v>
+        <v>285</v>
+      </c>
+      <c r="E73" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C74" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D74" t="s">
-        <v>291</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>181</v>
+        <v>285</v>
+      </c>
+      <c r="E74" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B75" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D75" t="s">
-        <v>300</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>165</v>
+        <v>294</v>
+      </c>
+      <c r="E75" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="D76" t="s">
-        <v>304</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>147</v>
+        <v>298</v>
+      </c>
+      <c r="E76" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B77" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C77" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="D77" t="s">
-        <v>194</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>147</v>
+        <v>876</v>
+      </c>
+      <c r="E77" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B78" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D78" t="s">
-        <v>311</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>147</v>
+        <v>305</v>
+      </c>
+      <c r="E78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B79" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>147</v>
+        <v>309</v>
+      </c>
+      <c r="E79" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C80" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D80" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>147</v>
+        <v>312</v>
+      </c>
+      <c r="E80" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B81" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C81" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D81" t="s">
-        <v>322</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>147</v>
+        <v>316</v>
+      </c>
+      <c r="E81" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B82" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C82" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D82" t="s">
-        <v>326</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>147</v>
+        <v>320</v>
+      </c>
+      <c r="E82" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C83" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D83" t="s">
-        <v>330</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>165</v>
+        <v>324</v>
+      </c>
+      <c r="E83" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B84" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C84" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D84" t="s">
-        <v>334</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>147</v>
+        <v>328</v>
+      </c>
+      <c r="E84" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B85" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C85" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="D85" t="s">
-        <v>194</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>147</v>
+        <v>876</v>
+      </c>
+      <c r="E85" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B86" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C86" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="D86" t="s">
-        <v>341</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>147</v>
+        <v>335</v>
+      </c>
+      <c r="E86" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B87" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C87" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D87" t="s">
-        <v>345</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>147</v>
+        <v>339</v>
+      </c>
+      <c r="E87" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C88" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D88" t="s">
-        <v>349</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>147</v>
+        <v>343</v>
+      </c>
+      <c r="E88" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B89" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C89" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D89" t="s">
-        <v>353</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>147</v>
+        <v>878</v>
+      </c>
+      <c r="E89" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B90" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C90" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D90" t="s">
-        <v>353</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>147</v>
+        <v>878</v>
+      </c>
+      <c r="E90" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B91" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C91" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D91" t="s">
-        <v>360</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>147</v>
+        <v>353</v>
+      </c>
+      <c r="E91" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B92" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C92" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D92" t="s">
-        <v>364</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>147</v>
+        <v>357</v>
+      </c>
+      <c r="E92" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B93" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C93" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D93" t="s">
-        <v>368</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
+      </c>
+      <c r="E93" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B94" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C94" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="D94" t="s">
-        <v>373</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>374</v>
+        <v>366</v>
+      </c>
+      <c r="E94" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B95" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C95" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D95" t="s">
-        <v>378</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>147</v>
+        <v>371</v>
+      </c>
+      <c r="E95" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B96" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C96" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D96" t="s">
-        <v>382</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
+      </c>
+      <c r="E96" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B97" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C97" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="D97" t="s">
-        <v>386</v>
-      </c>
-      <c r="E97" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E97" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B98" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C98" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D98" t="s">
-        <v>390</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>147</v>
+        <v>879</v>
+      </c>
+      <c r="E98" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B99" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C99" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="D99" t="s">
-        <v>394</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>147</v>
+        <v>386</v>
+      </c>
+      <c r="E99" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B100" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C100" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D100" t="s">
-        <v>398</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>147</v>
+        <v>390</v>
+      </c>
+      <c r="E100" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B101" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C101" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D101" t="s">
-        <v>402</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>147</v>
+        <v>394</v>
+      </c>
+      <c r="E101" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B102" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C102" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D102" t="s">
-        <v>406</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>147</v>
+        <v>398</v>
+      </c>
+      <c r="E102" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B103" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C103" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D103" t="s">
-        <v>410</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>147</v>
+        <v>880</v>
+      </c>
+      <c r="E103" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B104" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="C104" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D104" t="s">
-        <v>414</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>160</v>
+        <v>405</v>
+      </c>
+      <c r="E104" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B105" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C105" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D105" t="s">
-        <v>541</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>147</v>
+        <v>881</v>
+      </c>
+      <c r="E105" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B106" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C106" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D106" t="s">
-        <v>421</v>
-      </c>
-      <c r="E106" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E106" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B107" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="C107" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D107" t="s">
-        <v>726</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>727</v>
+        <v>711</v>
+      </c>
+      <c r="E107" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B108" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C108" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D108" t="s">
-        <v>427</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>147</v>
+        <v>418</v>
+      </c>
+      <c r="E108" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B109" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C109" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D109" t="s">
-        <v>431</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>369</v>
+        <v>422</v>
+      </c>
+      <c r="E109" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="B110" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C110" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="D110" t="s">
-        <v>435</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>147</v>
+        <v>426</v>
+      </c>
+      <c r="E110" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B111" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C111" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D111" t="s">
-        <v>439</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>147</v>
+        <v>430</v>
+      </c>
+      <c r="E111" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="B112" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C112" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D112" t="s">
-        <v>443</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>444</v>
+        <v>434</v>
+      </c>
+      <c r="E112" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B113" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C113" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="D113" t="s">
-        <v>541</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>147</v>
+        <v>881</v>
+      </c>
+      <c r="E113" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B114" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C114" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D114" t="s">
-        <v>451</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>147</v>
+        <v>442</v>
+      </c>
+      <c r="E114" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B115" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="C115" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D115" t="s">
-        <v>724</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>186</v>
+        <v>709</v>
+      </c>
+      <c r="E115" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B116" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C116" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="D116" t="s">
-        <v>457</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>369</v>
+        <v>448</v>
+      </c>
+      <c r="E116" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="B117" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C117" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="D117" t="s">
-        <v>461</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>147</v>
+        <v>452</v>
+      </c>
+      <c r="E117" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B118" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="C118" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D118" t="s">
-        <v>483</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>147</v>
+        <v>474</v>
+      </c>
+      <c r="E118" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="B119" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C119" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D119" t="s">
-        <v>486</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>165</v>
+        <v>477</v>
+      </c>
+      <c r="E119" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="B120" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="C120" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D120" t="s">
-        <v>489</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>147</v>
+        <v>480</v>
+      </c>
+      <c r="E120" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="B121" t="s">
-        <v>492</v>
+        <v>896</v>
       </c>
       <c r="C121" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="D121" t="s">
-        <v>493</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>160</v>
+        <v>483</v>
+      </c>
+      <c r="E121" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B122" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C122" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="D122" t="s">
-        <v>495</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>147</v>
+        <v>485</v>
+      </c>
+      <c r="E122" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="B123" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C123" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D123" t="s">
-        <v>498</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>147</v>
+        <v>488</v>
+      </c>
+      <c r="E123" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B124" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="C124" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="D124" t="s">
-        <v>501</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>165</v>
+        <v>491</v>
+      </c>
+      <c r="E124" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B125" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="C125" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D125" t="s">
-        <v>194</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>147</v>
+        <v>876</v>
+      </c>
+      <c r="E125" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B126" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C126" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="D126" t="s">
-        <v>506</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>147</v>
+        <v>496</v>
+      </c>
+      <c r="E126" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B127" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C127" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D127" t="s">
-        <v>509</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>147</v>
+        <v>499</v>
+      </c>
+      <c r="E127" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B128" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C128" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D128" t="s">
-        <v>194</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>147</v>
+        <v>876</v>
+      </c>
+      <c r="E128" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B129" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C129" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D129" t="s">
-        <v>514</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>147</v>
+        <v>504</v>
+      </c>
+      <c r="E129" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B130" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C130" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D130" t="s">
-        <v>517</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>147</v>
+        <v>507</v>
+      </c>
+      <c r="E130" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B131" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C131" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D131" t="s">
-        <v>541</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>147</v>
+        <v>881</v>
+      </c>
+      <c r="E131" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="B132" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C132" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D132" t="s">
-        <v>522</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>181</v>
+        <v>512</v>
+      </c>
+      <c r="E132" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="B133" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C133" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="D133" t="s">
-        <v>525</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>527</v>
+        <v>515</v>
+      </c>
+      <c r="E133" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B134" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C134" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D134" t="s">
-        <v>529</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>186</v>
+        <v>519</v>
+      </c>
+      <c r="E134" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="B135" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="C135" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D135" t="s">
-        <v>532</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>147</v>
+        <v>522</v>
+      </c>
+      <c r="E135" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B136" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="C136" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D136" t="s">
-        <v>535</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>147</v>
+        <v>525</v>
+      </c>
+      <c r="E136" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="B137" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C137" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D137" t="s">
-        <v>538</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>539</v>
+        <v>528</v>
+      </c>
+      <c r="E137" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="B138" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="C138" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D138" t="s">
-        <v>561</v>
-      </c>
-      <c r="E138" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E138" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="B139" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D139" t="s">
-        <v>602</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>165</v>
+        <v>591</v>
+      </c>
+      <c r="E139" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B140" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C140" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D140" t="s">
-        <v>603</v>
-      </c>
-      <c r="E140" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="E140" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="B141" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="C141" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D141" t="s">
-        <v>604</v>
-      </c>
-      <c r="E141" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E141" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="B142" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="C142" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D142" t="s">
-        <v>605</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>147</v>
+        <v>882</v>
+      </c>
+      <c r="E142" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B143" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="C143" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D143" t="s">
-        <v>606</v>
-      </c>
-      <c r="E143" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E143" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="B144" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="C144" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D144" t="s">
-        <v>607</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>160</v>
+        <v>595</v>
+      </c>
+      <c r="E144" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="B145" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="C145" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D145" t="s">
-        <v>608</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>160</v>
+        <v>596</v>
+      </c>
+      <c r="E145" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B146" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="C146" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D146" t="s">
-        <v>609</v>
-      </c>
-      <c r="E146" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="E146" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B147" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="C147" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D147" t="s">
-        <v>610</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>165</v>
+        <v>598</v>
+      </c>
+      <c r="E147" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B148" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="C148" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D148" t="s">
-        <v>611</v>
-      </c>
-      <c r="E148" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E148" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B149" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C149" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D149" t="s">
-        <v>612</v>
-      </c>
-      <c r="E149" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E149" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="B150" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="C150" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D150" t="s">
-        <v>613</v>
-      </c>
-      <c r="E150" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="E150" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B151" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C151" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D151" t="s">
-        <v>614</v>
-      </c>
-      <c r="E151" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E151" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="B152" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C152" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D152" t="s">
-        <v>615</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>186</v>
+        <v>603</v>
+      </c>
+      <c r="E152" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="B153" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C153" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D153" t="s">
-        <v>616</v>
-      </c>
-      <c r="E153" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E153" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B154" t="s">
-        <v>838</v>
+        <v>813</v>
       </c>
       <c r="C154" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D154" t="s">
-        <v>617</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>160</v>
+        <v>605</v>
+      </c>
+      <c r="E154" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B155" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="C155" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D155" t="s">
-        <v>618</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>181</v>
+        <v>606</v>
+      </c>
+      <c r="E155" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B156" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="C156" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D156" t="s">
-        <v>619</v>
-      </c>
-      <c r="E156" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="E156" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B157" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="C157" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D157" t="s">
-        <v>620</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>147</v>
+        <v>883</v>
+      </c>
+      <c r="E157" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="B158" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="C158" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D158" t="s">
-        <v>624</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>147</v>
+        <v>611</v>
+      </c>
+      <c r="E158" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="B159" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="C159" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D159" t="s">
-        <v>628</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>181</v>
+        <v>615</v>
+      </c>
+      <c r="E159" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="B160" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="C160" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D160" t="s">
-        <v>632</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>147</v>
+        <v>619</v>
+      </c>
+      <c r="E160" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="B161" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="C161" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="D161" t="s">
-        <v>636</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>539</v>
+        <v>623</v>
+      </c>
+      <c r="E161" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="B162" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="C162" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D162" t="s">
-        <v>640</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
+      </c>
+      <c r="E162" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B163" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="C163" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D163" t="s">
-        <v>645</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>646</v>
+        <v>632</v>
+      </c>
+      <c r="E163" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="B164" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="C164" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="D164" t="s">
-        <v>650</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>165</v>
+        <v>637</v>
+      </c>
+      <c r="E164" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="B165" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="C165" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="D165" t="s">
-        <v>654</v>
-      </c>
-      <c r="E165" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E165" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="B166" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="C166" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D166" t="s">
-        <v>658</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>659</v>
+        <v>645</v>
+      </c>
+      <c r="E166" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B167" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="C167" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="D167" t="s">
-        <v>662</v>
-      </c>
-      <c r="E167" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="E167" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B168" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="C168" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="D168" t="s">
-        <v>666</v>
-      </c>
-      <c r="E168" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="E168" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="B169" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="C169" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="D169" t="s">
-        <v>670</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>147</v>
+        <v>884</v>
+      </c>
+      <c r="E169" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B170" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="C170" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="D170" t="s">
-        <v>674</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>147</v>
+        <v>660</v>
+      </c>
+      <c r="E170" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="B171" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="C171" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="D171" t="s">
-        <v>678</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>147</v>
+        <v>664</v>
+      </c>
+      <c r="E171" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="B172" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="C172" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="D172" t="s">
-        <v>682</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>147</v>
+        <v>885</v>
+      </c>
+      <c r="E172" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="B173" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="C173" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
       <c r="D173" t="s">
-        <v>687</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>369</v>
+        <v>672</v>
+      </c>
+      <c r="E173" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="B174" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="C174" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="D174" t="s">
-        <v>691</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>186</v>
+        <v>676</v>
+      </c>
+      <c r="E174" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="B175" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="C175" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
       <c r="D175" t="s">
-        <v>695</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>539</v>
+        <v>680</v>
+      </c>
+      <c r="E175" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="B176" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="C176" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D176" t="s">
-        <v>698</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>369</v>
+        <v>683</v>
+      </c>
+      <c r="E176" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="B177" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="C177" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="D177" t="s">
-        <v>702</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>147</v>
+        <v>687</v>
+      </c>
+      <c r="E177" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="B178" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="C178" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="D178" t="s">
-        <v>706</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>473</v>
+        <v>691</v>
+      </c>
+      <c r="E178" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
       <c r="B179" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="C179" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="D179" t="s">
-        <v>710</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>147</v>
+        <v>695</v>
+      </c>
+      <c r="E179" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="B180" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="C180" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="D180" t="s">
-        <v>714</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>646</v>
+        <v>699</v>
+      </c>
+      <c r="E180" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="B181" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="C181" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="D181" t="s">
-        <v>718</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>147</v>
+        <v>703</v>
+      </c>
+      <c r="E181" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="B182" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="C182" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="D182" t="s">
-        <v>722</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>147</v>
+        <v>707</v>
+      </c>
+      <c r="E182" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="B183" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="C183" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="D183" t="s">
-        <v>731</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>147</v>
+        <v>886</v>
+      </c>
+      <c r="E183" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="B184" t="s">
-        <v>732</v>
+        <v>716</v>
       </c>
       <c r="C184" t="s">
-        <v>733</v>
+        <v>717</v>
       </c>
       <c r="D184" t="s">
-        <v>734</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>147</v>
+        <v>887</v>
+      </c>
+      <c r="E184" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="B185" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="C185" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="D185" t="s">
-        <v>764</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>165</v>
+        <v>745</v>
+      </c>
+      <c r="E185" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="B186" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="C186" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="D186" t="s">
-        <v>751</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>147</v>
+        <v>888</v>
+      </c>
+      <c r="E186" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="B187" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="C187" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="D187" t="s">
-        <v>753</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>752</v>
+        <v>735</v>
+      </c>
+      <c r="E187" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="B188" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="C188" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="D188" t="s">
-        <v>754</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>181</v>
+        <v>736</v>
+      </c>
+      <c r="E188" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="B189" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="C189" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="D189" t="s">
-        <v>755</v>
-      </c>
-      <c r="E189" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E189" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>756</v>
+        <v>738</v>
       </c>
       <c r="B190" t="s">
-        <v>757</v>
+        <v>739</v>
       </c>
       <c r="C190" t="s">
-        <v>758</v>
+        <v>740</v>
       </c>
       <c r="D190" t="s">
-        <v>759</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>147</v>
+        <v>889</v>
+      </c>
+      <c r="E190" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>760</v>
+        <v>741</v>
       </c>
       <c r="B191" t="s">
-        <v>761</v>
+        <v>742</v>
       </c>
       <c r="C191" t="s">
-        <v>762</v>
+        <v>743</v>
       </c>
       <c r="D191" t="s">
-        <v>763</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>147</v>
+        <v>744</v>
+      </c>
+      <c r="E191" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>766</v>
+        <v>747</v>
       </c>
       <c r="B192" t="s">
-        <v>837</v>
+        <v>812</v>
       </c>
       <c r="C192" t="s">
-        <v>767</v>
+        <v>748</v>
       </c>
       <c r="D192" t="s">
-        <v>774</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>775</v>
+        <v>755</v>
+      </c>
+      <c r="E192" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>768</v>
+        <v>749</v>
       </c>
       <c r="B193" t="s">
-        <v>769</v>
+        <v>750</v>
       </c>
       <c r="C193" t="s">
-        <v>770</v>
+        <v>751</v>
       </c>
       <c r="D193" t="s">
-        <v>776</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>444</v>
+        <v>757</v>
+      </c>
+      <c r="E193" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>771</v>
+        <v>752</v>
       </c>
       <c r="B194" t="s">
-        <v>772</v>
+        <v>753</v>
       </c>
       <c r="C194" t="s">
-        <v>773</v>
+        <v>754</v>
       </c>
       <c r="D194" t="s">
-        <v>777</v>
-      </c>
-      <c r="E194" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="E194" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>778</v>
+        <v>759</v>
       </c>
       <c r="B195" t="s">
-        <v>779</v>
+        <v>760</v>
       </c>
       <c r="C195" t="s">
-        <v>780</v>
+        <v>761</v>
       </c>
       <c r="D195" t="s">
-        <v>787</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>147</v>
+        <v>768</v>
+      </c>
+      <c r="E195" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>781</v>
+        <v>762</v>
       </c>
       <c r="B196" t="s">
-        <v>782</v>
+        <v>763</v>
       </c>
       <c r="C196" t="s">
-        <v>783</v>
+        <v>764</v>
       </c>
       <c r="D196" t="s">
-        <v>788</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>147</v>
+        <v>769</v>
+      </c>
+      <c r="E196" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>784</v>
+        <v>765</v>
       </c>
       <c r="B197" t="s">
-        <v>785</v>
+        <v>766</v>
       </c>
       <c r="C197" t="s">
-        <v>786</v>
+        <v>767</v>
       </c>
       <c r="D197" t="s">
-        <v>789</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>790</v>
+        <v>770</v>
+      </c>
+      <c r="E197" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>791</v>
+        <v>772</v>
       </c>
       <c r="B198" t="s">
-        <v>792</v>
+        <v>773</v>
       </c>
       <c r="C198" t="s">
-        <v>793</v>
+        <v>774</v>
       </c>
       <c r="D198" t="s">
-        <v>816</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>527</v>
+        <v>796</v>
+      </c>
+      <c r="E198" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>794</v>
+        <v>775</v>
       </c>
       <c r="B199" t="s">
-        <v>795</v>
+        <v>776</v>
       </c>
       <c r="C199" t="s">
-        <v>796</v>
+        <v>777</v>
       </c>
       <c r="D199" t="s">
-        <v>815</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>147</v>
+        <v>890</v>
+      </c>
+      <c r="E199" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>797</v>
+        <v>778</v>
       </c>
       <c r="B200" t="s">
-        <v>798</v>
+        <v>779</v>
       </c>
       <c r="C200" t="s">
-        <v>799</v>
+        <v>780</v>
       </c>
       <c r="D200" t="s">
-        <v>817</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>147</v>
+        <v>891</v>
+      </c>
+      <c r="E200" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>800</v>
+        <v>781</v>
       </c>
       <c r="B201" t="s">
-        <v>801</v>
+        <v>782</v>
       </c>
       <c r="C201" t="s">
-        <v>802</v>
+        <v>783</v>
       </c>
       <c r="D201" t="s">
-        <v>818</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>147</v>
+        <v>892</v>
+      </c>
+      <c r="E201" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>803</v>
+        <v>784</v>
       </c>
       <c r="B202" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="C202" t="s">
-        <v>805</v>
+        <v>786</v>
       </c>
       <c r="D202" t="s">
-        <v>819</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>527</v>
+        <v>797</v>
+      </c>
+      <c r="E202" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>806</v>
+        <v>787</v>
       </c>
       <c r="B203" t="s">
-        <v>807</v>
+        <v>788</v>
       </c>
       <c r="C203" t="s">
-        <v>808</v>
+        <v>789</v>
       </c>
       <c r="D203" t="s">
-        <v>820</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>821</v>
+        <v>798</v>
+      </c>
+      <c r="E203" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>809</v>
+        <v>790</v>
       </c>
       <c r="B204" t="s">
-        <v>810</v>
+        <v>791</v>
       </c>
       <c r="C204" t="s">
-        <v>811</v>
+        <v>792</v>
       </c>
       <c r="D204" t="s">
-        <v>822</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>823</v>
+        <v>800</v>
+      </c>
+      <c r="E204" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>812</v>
+        <v>793</v>
       </c>
       <c r="B205" t="s">
-        <v>813</v>
+        <v>794</v>
       </c>
       <c r="C205" t="s">
-        <v>814</v>
+        <v>795</v>
       </c>
       <c r="D205" t="s">
-        <v>824</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>147</v>
+        <v>893</v>
+      </c>
+      <c r="E205" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>825</v>
+        <v>801</v>
       </c>
       <c r="B206" t="s">
-        <v>826</v>
+        <v>802</v>
       </c>
       <c r="C206" t="s">
-        <v>827</v>
+        <v>803</v>
       </c>
       <c r="D206" t="s">
-        <v>834</v>
-      </c>
-      <c r="E206" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E206" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>828</v>
+        <v>804</v>
       </c>
       <c r="B207" t="s">
-        <v>829</v>
+        <v>805</v>
       </c>
       <c r="C207" t="s">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="D207" t="s">
-        <v>835</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>147</v>
+        <v>894</v>
+      </c>
+      <c r="E207" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>831</v>
+        <v>807</v>
       </c>
       <c r="B208" t="s">
-        <v>832</v>
+        <v>808</v>
       </c>
       <c r="C208" t="s">
-        <v>833</v>
+        <v>809</v>
       </c>
       <c r="D208" t="s">
-        <v>836</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>147</v>
+        <v>811</v>
+      </c>
+      <c r="E208" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>839</v>
+        <v>814</v>
       </c>
       <c r="B209" t="s">
-        <v>840</v>
+        <v>815</v>
       </c>
       <c r="C209" t="s">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="D209" t="s">
-        <v>857</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>165</v>
+        <v>832</v>
+      </c>
+      <c r="E209" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>841</v>
+        <v>816</v>
       </c>
       <c r="B210" t="s">
-        <v>842</v>
+        <v>817</v>
       </c>
       <c r="C210" t="s">
-        <v>843</v>
+        <v>818</v>
       </c>
       <c r="D210" t="s">
-        <v>858</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>147</v>
+        <v>833</v>
+      </c>
+      <c r="E210" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="B211" t="s">
-        <v>845</v>
+        <v>820</v>
       </c>
       <c r="C211" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="D211" t="s">
-        <v>859</v>
-      </c>
-      <c r="E211" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E211" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>847</v>
+        <v>822</v>
       </c>
       <c r="B212" t="s">
-        <v>848</v>
+        <v>823</v>
       </c>
       <c r="C212" t="s">
-        <v>849</v>
+        <v>824</v>
       </c>
       <c r="D212" t="s">
-        <v>860</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>181</v>
+        <v>835</v>
+      </c>
+      <c r="E212" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>850</v>
+        <v>825</v>
       </c>
       <c r="B213" t="s">
-        <v>851</v>
+        <v>826</v>
       </c>
       <c r="C213" t="s">
-        <v>852</v>
+        <v>827</v>
       </c>
       <c r="D213" t="s">
-        <v>861</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>147</v>
+        <v>895</v>
+      </c>
+      <c r="E213" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>828</v>
+      </c>
+      <c r="B214" t="s">
+        <v>829</v>
+      </c>
+      <c r="C214" t="s">
+        <v>830</v>
+      </c>
+      <c r="D214" t="s">
+        <v>836</v>
+      </c>
+      <c r="E214" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>837</v>
+      </c>
+      <c r="B215" t="s">
+        <v>838</v>
+      </c>
+      <c r="C215" t="s">
+        <v>839</v>
+      </c>
+      <c r="D215" t="s">
+        <v>840</v>
+      </c>
+      <c r="E215" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>846</v>
+      </c>
+      <c r="B216" t="s">
+        <v>847</v>
+      </c>
+      <c r="C216" t="s">
+        <v>848</v>
+      </c>
+      <c r="D216" t="s">
+        <v>849</v>
+      </c>
+      <c r="E216" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>850</v>
+      </c>
+      <c r="B217" t="s">
+        <v>851</v>
+      </c>
+      <c r="C217" t="s">
+        <v>852</v>
+      </c>
+      <c r="D217" t="s">
         <v>853</v>
       </c>
-      <c r="B214" t="s">
+      <c r="E217" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>841</v>
+      </c>
+      <c r="B218" t="s">
+        <v>842</v>
+      </c>
+      <c r="C218" t="s">
+        <v>843</v>
+      </c>
+      <c r="D218" t="s">
+        <v>844</v>
+      </c>
+      <c r="E218" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>854</v>
       </c>
-      <c r="C214" t="s">
+      <c r="B219" t="s">
         <v>855</v>
       </c>
-      <c r="D214" t="s">
+      <c r="C219" t="s">
+        <v>856</v>
+      </c>
+      <c r="D219" t="s">
+        <v>857</v>
+      </c>
+      <c r="E219" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>858</v>
+      </c>
+      <c r="B220" t="s">
+        <v>859</v>
+      </c>
+      <c r="C220" t="s">
+        <v>860</v>
+      </c>
+      <c r="D220" t="s">
+        <v>861</v>
+      </c>
+      <c r="E220" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>862</v>
       </c>
-      <c r="E214" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="B221" t="s">
         <v>863</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C221" t="s">
         <v>864</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D221" t="s">
+        <v>840</v>
+      </c>
+      <c r="E221" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>865</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="B222" t="s">
         <v>866</v>
       </c>
-      <c r="E215" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+      <c r="C222" t="s">
+        <v>867</v>
+      </c>
+      <c r="D222" t="s">
+        <v>868</v>
+      </c>
+      <c r="E222" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>869</v>
+      </c>
+      <c r="B223" t="s">
+        <v>870</v>
+      </c>
+      <c r="C223" t="s">
+        <v>871</v>
+      </c>
+      <c r="D223" t="s">
+        <v>868</v>
+      </c>
+      <c r="E223" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>897</v>
+      </c>
+      <c r="B224" t="s">
+        <v>898</v>
+      </c>
+      <c r="C224" t="s">
+        <v>899</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E224" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>900</v>
+      </c>
+      <c r="B225" t="s">
+        <v>901</v>
+      </c>
+      <c r="C225" t="s">
+        <v>902</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E225" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>903</v>
+      </c>
+      <c r="B226" t="s">
+        <v>904</v>
+      </c>
+      <c r="C226" t="s">
+        <v>905</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E226" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>906</v>
+      </c>
+      <c r="B227" t="s">
+        <v>907</v>
+      </c>
+      <c r="C227" t="s">
+        <v>908</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E227" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>909</v>
+      </c>
+      <c r="B228" t="s">
+        <v>910</v>
+      </c>
+      <c r="C228" t="s">
+        <v>911</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E228" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>912</v>
+      </c>
+      <c r="B229" t="s">
+        <v>913</v>
+      </c>
+      <c r="C229" t="s">
+        <v>914</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E229" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>915</v>
+      </c>
+      <c r="B230" t="s">
+        <v>916</v>
+      </c>
+      <c r="C230" t="s">
+        <v>917</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E230" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>918</v>
+      </c>
+      <c r="B231" t="s">
+        <v>919</v>
+      </c>
+      <c r="C231" t="s">
+        <v>920</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E231" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>921</v>
+      </c>
+      <c r="B232" t="s">
+        <v>922</v>
+      </c>
+      <c r="C232" t="s">
+        <v>923</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E232" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>924</v>
+      </c>
+      <c r="B233" t="s">
+        <v>925</v>
+      </c>
+      <c r="C233" t="s">
+        <v>926</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E233" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>927</v>
+      </c>
+      <c r="B234" t="s">
+        <v>928</v>
+      </c>
+      <c r="C234" t="s">
+        <v>929</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E234" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>930</v>
+      </c>
+      <c r="B235" t="s">
+        <v>931</v>
+      </c>
+      <c r="C235" t="s">
+        <v>932</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E235" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>933</v>
+      </c>
+      <c r="B236" t="s">
+        <v>934</v>
+      </c>
+      <c r="C236" t="s">
+        <v>935</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E236" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>936</v>
+      </c>
+      <c r="B237" t="s">
+        <v>937</v>
+      </c>
+      <c r="C237" t="s">
+        <v>938</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E237" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>939</v>
+      </c>
+      <c r="B238" t="s">
+        <v>940</v>
+      </c>
+      <c r="C238" t="s">
+        <v>941</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E238" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>942</v>
+      </c>
+      <c r="B239" t="s">
+        <v>943</v>
+      </c>
+      <c r="C239" t="s">
+        <v>944</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E239" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>945</v>
+      </c>
+      <c r="B240" t="s">
+        <v>946</v>
+      </c>
+      <c r="C240" t="s">
+        <v>947</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E240" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>948</v>
+      </c>
+      <c r="B241" t="s">
+        <v>949</v>
+      </c>
+      <c r="C241" t="s">
+        <v>950</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E241" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>952</v>
+      </c>
+      <c r="B242" t="s">
+        <v>953</v>
+      </c>
+      <c r="C242" t="s">
+        <v>954</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E242" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>955</v>
+      </c>
+      <c r="B243" t="s">
+        <v>956</v>
+      </c>
+      <c r="C243" t="s">
+        <v>957</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E243" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>958</v>
+      </c>
+      <c r="B244" t="s">
+        <v>959</v>
+      </c>
+      <c r="C244" t="s">
+        <v>960</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E244" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>961</v>
+      </c>
+      <c r="B245" t="s">
+        <v>962</v>
+      </c>
+      <c r="C245" t="s">
+        <v>963</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E245" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>964</v>
+      </c>
+      <c r="B246" t="s">
+        <v>965</v>
+      </c>
+      <c r="C246" t="s">
+        <v>966</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E246" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>967</v>
+      </c>
+      <c r="B247" t="s">
+        <v>968</v>
+      </c>
+      <c r="C247" t="s">
+        <v>969</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E247" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>970</v>
+      </c>
+      <c r="B248" t="s">
+        <v>971</v>
+      </c>
+      <c r="C248" t="s">
+        <v>972</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E248" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>973</v>
+      </c>
+      <c r="B249" t="s">
+        <v>974</v>
+      </c>
+      <c r="C249" t="s">
+        <v>975</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E249" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>976</v>
+      </c>
+      <c r="B250" t="s">
+        <v>977</v>
+      </c>
+      <c r="C250" t="s">
+        <v>978</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E250" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>979</v>
+      </c>
+      <c r="B251" t="s">
+        <v>980</v>
+      </c>
+      <c r="C251" t="s">
+        <v>981</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E251" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>982</v>
+      </c>
+      <c r="B252" t="s">
+        <v>983</v>
+      </c>
+      <c r="C252" t="s">
+        <v>984</v>
+      </c>
+      <c r="D252" t="s">
+        <v>985</v>
+      </c>
+      <c r="E252" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>986</v>
+      </c>
+      <c r="B253" t="s">
+        <v>987</v>
+      </c>
+      <c r="C253" t="s">
+        <v>988</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E253" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>989</v>
+      </c>
+      <c r="B254" t="s">
+        <v>990</v>
+      </c>
+      <c r="C254" t="s">
+        <v>991</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E254" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>992</v>
+      </c>
+      <c r="B255" t="s">
+        <v>993</v>
+      </c>
+      <c r="C255" t="s">
+        <v>994</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E255" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>995</v>
+      </c>
+      <c r="B256" t="s">
+        <v>996</v>
+      </c>
+      <c r="C256" t="s">
+        <v>997</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E256" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>998</v>
+      </c>
+      <c r="B257" t="s">
+        <v>999</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E257" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E258" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E259" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E260" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E261" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E263" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B264" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E264" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E265" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E266" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E267" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E268" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E269" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E270" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E271" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E272" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E273" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1326</v>
+      </c>
+      <c r="E274" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E275" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E276" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E277" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E278" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E279" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E280" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E281" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E282" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E283" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E284" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E285" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E286" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E287" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E288" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E290" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E291" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D292" t="s">
         <v>876</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E292" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E293" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D294" t="s">
+        <v>876</v>
+      </c>
+      <c r="E294" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E295" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E296" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E297" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E298" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E299" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E300" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E301" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E302" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E303" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E304" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E305" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E306" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E307" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E308" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E309" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E310" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E311" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E312" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D313" t="s">
+        <v>876</v>
+      </c>
+      <c r="E313" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E314" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E315" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E316" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E318" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E319" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E320" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E321" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E322" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E323" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E324" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E325" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E326" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E327" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E328" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E329" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E330" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E331" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E332" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C333" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C334" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E334" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C335" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E335" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C336" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E336" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E337" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E338" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E339" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C340" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E340" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C341" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E341" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E342" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E343" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E344" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E345" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E346" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E347" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E348" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7582,17 +11072,10 @@
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A104" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A106" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A109" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A112" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A116" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658D9168-5754-435F-914F-68235BCFC4E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D3D61-9C81-425C-BCEF-F23167EAF1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1524">
   <si>
     <t>Symbol</t>
   </si>
@@ -4208,13 +4208,397 @@
   </si>
   <si>
     <t>55 East 52nd Street, New York, NY 10055, United States</t>
+  </si>
+  <si>
+    <t>AGR.US</t>
+  </si>
+  <si>
+    <t>US05351W1036</t>
+  </si>
+  <si>
+    <t>Avangrid Inc</t>
+  </si>
+  <si>
+    <t>180 Marsh Hill Road, Orange, CT 06477, USA</t>
+  </si>
+  <si>
+    <t>QYLD</t>
+  </si>
+  <si>
+    <t>US37954Y4834</t>
+  </si>
+  <si>
+    <t>Global X Nasdaq 100 Covered Call ETF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirae Asset Global Investments Co., Ltd., 625 Madison Avenue, 3rd Floor New York, NY 10022 </t>
+  </si>
+  <si>
+    <t>IBE</t>
+  </si>
+  <si>
+    <t>ES0144580Y14</t>
+  </si>
+  <si>
+    <t>Iberdrola</t>
+  </si>
+  <si>
+    <t>PL EUSKADI 5, 48008 BILBAO, Spain</t>
+  </si>
+  <si>
+    <t>AQN</t>
+  </si>
+  <si>
+    <t>CA0158571053</t>
+  </si>
+  <si>
+    <t>Algonquin Power &amp; Utilities Corp</t>
+  </si>
+  <si>
+    <t>354 Davis Road, Suite 100, Oakville, ON L6J 2X1, Canada</t>
+  </si>
+  <si>
+    <t>SPHD</t>
+  </si>
+  <si>
+    <t>US46138E3624</t>
+  </si>
+  <si>
+    <t>Invesco S&amp;P 500 High Dividend Low Volatility ETF</t>
+  </si>
+  <si>
+    <t>Invesco Ltd., Two Peachtree Pointe, 1555 Peachtree Street, N.E., Suite 1800, Atlanta, Georgia 30309</t>
+  </si>
+  <si>
+    <t>SHY</t>
+  </si>
+  <si>
+    <t>US4642874576</t>
+  </si>
+  <si>
+    <t>iShares 1-3 Year Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>BlackRock Fund Advisors, 400 Howard Street, San Francisco, CA 94105, USA</t>
+  </si>
+  <si>
+    <t>IEF</t>
+  </si>
+  <si>
+    <t>US4642874402</t>
+  </si>
+  <si>
+    <t>iShares 7-10 Year Treasury Bond ETF</t>
+  </si>
+  <si>
+    <t>SDIV</t>
+  </si>
+  <si>
+    <t>US37960A6698</t>
+  </si>
+  <si>
+    <t>Global X SuperDividend ETF</t>
+  </si>
+  <si>
+    <t>LNT</t>
+  </si>
+  <si>
+    <t>US0188021085</t>
+  </si>
+  <si>
+    <t>Alliant Energy Corp</t>
+  </si>
+  <si>
+    <t>4902 North Biltmore Lane, 53718 Madison, WI, USA</t>
+  </si>
+  <si>
+    <t>SSE.L</t>
+  </si>
+  <si>
+    <t>GB0007908733</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>SSE plc, Inveralmond House, 200 Dunkeld Road, Perth PH1 3AQ, United Kingdom</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>US5184391044</t>
+  </si>
+  <si>
+    <t>Estee Lauder Companies Inc</t>
+  </si>
+  <si>
+    <t>767 Fifth Avenue, New York, NY 10153, United States</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>US2091151041</t>
+  </si>
+  <si>
+    <t>Consolidated Edison Inc</t>
+  </si>
+  <si>
+    <t>4 Irving Place, New York, New York 10003, USA</t>
+  </si>
+  <si>
+    <t>VEU</t>
+  </si>
+  <si>
+    <t>US9220427754</t>
+  </si>
+  <si>
+    <t>Vanguard FTSE All-World ex-US</t>
+  </si>
+  <si>
+    <t>The Vanguard Group Instl, P.O. Box 2900 Valley Forge, PA 19482-2900 USA</t>
+  </si>
+  <si>
+    <t>ORA.US</t>
+  </si>
+  <si>
+    <t>US6866881021</t>
+  </si>
+  <si>
+    <t>Ormat Technologies Inc.</t>
+  </si>
+  <si>
+    <t>6140 Plumas Street, Reno, NV 89519-6075, USA</t>
+  </si>
+  <si>
+    <t>VTV</t>
+  </si>
+  <si>
+    <t>US9229087443</t>
+  </si>
+  <si>
+    <t>Vanguard Value ETF</t>
+  </si>
+  <si>
+    <t>SCHD</t>
+  </si>
+  <si>
+    <t>US8085247976</t>
+  </si>
+  <si>
+    <t>Schwab US Dividend Equity ETF</t>
+  </si>
+  <si>
+    <t>Charles Schwab &amp; Co., Inc., 1360 3RD Ave FL 1 New York, NY, 10075-0461 USA</t>
+  </si>
+  <si>
+    <t>NOBL</t>
+  </si>
+  <si>
+    <t>US74348A4673</t>
+  </si>
+  <si>
+    <t>ProShares S&amp;P 500 Dividend Aristocrats ETF</t>
+  </si>
+  <si>
+    <t>ProShares, 7272 Wisconsin Ave. 21st Floor Bethesda, MD 20814</t>
+  </si>
+  <si>
+    <t>IJR</t>
+  </si>
+  <si>
+    <t>US4642878049</t>
+  </si>
+  <si>
+    <t>iShares Core S&amp;P Small-Cap ETF</t>
+  </si>
+  <si>
+    <t>VOOG</t>
+  </si>
+  <si>
+    <t>US9219325050</t>
+  </si>
+  <si>
+    <t>Vanguard S&amp;P 500 Growth ETF</t>
+  </si>
+  <si>
+    <t>VFH</t>
+  </si>
+  <si>
+    <t>US92204A4058</t>
+  </si>
+  <si>
+    <t>Vanguard Financials ETF</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>GB00BLP5YB54</t>
+  </si>
+  <si>
+    <t>Atlantica Sustainable Infrastructure PLC</t>
+  </si>
+  <si>
+    <t>Great West House, GW1 17th Floor Great West Road, Brentford TW8 9DF, United Kingdom</t>
+  </si>
+  <si>
+    <t>LQDE</t>
+  </si>
+  <si>
+    <t>IE0032895942</t>
+  </si>
+  <si>
+    <t>iShares $ Corporate Bond UCITS ETF</t>
+  </si>
+  <si>
+    <t>EDP.LSB</t>
+  </si>
+  <si>
+    <t>PTEDP0AM0009</t>
+  </si>
+  <si>
+    <t>EDP - Energias de Portugal SA</t>
+  </si>
+  <si>
+    <t>Avenida 24 de Julho 12, 4th Floor, Lisbon 1249-300, Portugal</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>ENGI</t>
+  </si>
+  <si>
+    <t>FR0010208488</t>
+  </si>
+  <si>
+    <t>Engie SA</t>
+  </si>
+  <si>
+    <t>1, place Samuel de Champlain, Courbevoie 92400, France</t>
+  </si>
+  <si>
+    <t>RWE.DE</t>
+  </si>
+  <si>
+    <t>DE0007037129</t>
+  </si>
+  <si>
+    <t>RWE AG</t>
+  </si>
+  <si>
+    <t>RWE Platz 1-7, 45141 Essen, Deutschland</t>
+  </si>
+  <si>
+    <t>NIBEB.ST</t>
+  </si>
+  <si>
+    <t>SE0015988019</t>
+  </si>
+  <si>
+    <t>Nibe Industrier AB Ser. B</t>
+  </si>
+  <si>
+    <t>Järnvägsgatan 40, Markaryd 285 32, Sweden</t>
+  </si>
+  <si>
+    <t>RSP</t>
+  </si>
+  <si>
+    <t>US46137V3574</t>
+  </si>
+  <si>
+    <t>Invesco S&amp;P 500 Equal Weight ETF</t>
+  </si>
+  <si>
+    <t>XLP</t>
+  </si>
+  <si>
+    <t>US81369Y3080</t>
+  </si>
+  <si>
+    <t>Consumer Staples Select Sector SPDR</t>
+  </si>
+  <si>
+    <t>SQQQ</t>
+  </si>
+  <si>
+    <t>US74347G4322</t>
+  </si>
+  <si>
+    <t>ProShares UltraPro Short QQQ</t>
+  </si>
+  <si>
+    <t>SRTY</t>
+  </si>
+  <si>
+    <t>US74347G3902</t>
+  </si>
+  <si>
+    <t>ProShares UltraPro Short Russell2000</t>
+  </si>
+  <si>
+    <t>TMF</t>
+  </si>
+  <si>
+    <t>US25460G1388</t>
+  </si>
+  <si>
+    <t>Direxion Daily 20 Year Plus Treasury Bull 3x Shares</t>
+  </si>
+  <si>
+    <t>3800.HK</t>
+  </si>
+  <si>
+    <t>KYG3774X1088</t>
+  </si>
+  <si>
+    <t>GCL Technology Holdings Ltd</t>
+  </si>
+  <si>
+    <t>International Commerce Centre, Level 17 Unit 1703B-1706 1 Austin Road West, Kowloon, Hong Kong</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>ES0125220311</t>
+  </si>
+  <si>
+    <t>Acciona</t>
+  </si>
+  <si>
+    <t>Avenida de Europa, 18, Parque Empresarial La Moraleja, Alcobendas 28108, Spain</t>
+  </si>
+  <si>
+    <t>0916.HK</t>
+  </si>
+  <si>
+    <t>CNE100000HD4</t>
+  </si>
+  <si>
+    <t>China Longyuan</t>
+  </si>
+  <si>
+    <t>Block C, 6-9 Fuchengmen North Street Bejing, China, 100034</t>
+  </si>
+  <si>
+    <t>TAN</t>
+  </si>
+  <si>
+    <t>US46138G7060</t>
+  </si>
+  <si>
+    <t>Invesco Solar ETF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4225,10 +4609,23 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -4250,21 +4647,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Navadno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Navadno 2 2" xfId="2" xr:uid="{A6128BC9-A440-44F0-B407-83B01CC70D87}"/>
+    <cellStyle name="Navadno 3" xfId="3" xr:uid="{78F38918-51BC-4D42-8584-4E63912D672B}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -4314,7 +4717,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E348" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E383" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
@@ -4526,8 +4929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
+      <selection activeCell="B383" sqref="B383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10457,42 +10860,602 @@
         <v>146</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>1460</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11072,6 +12035,7 @@
     <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jozem/Razvijam/GitHub/etoro-edavki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D3D61-9C81-425C-BCEF-F23167EAF1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B342C3-4821-A944-9259-853B1AF2F0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1582">
   <si>
     <t>Symbol</t>
   </si>
@@ -4592,6 +4605,181 @@
   </si>
   <si>
     <t>Invesco Solar ETF</t>
+  </si>
+  <si>
+    <t>US4642872422</t>
+  </si>
+  <si>
+    <t>LQD</t>
+  </si>
+  <si>
+    <t>iShares iBoxx $ Investment Grade Corporate Bond ETF</t>
+  </si>
+  <si>
+    <t>AU000000PLS0</t>
+  </si>
+  <si>
+    <t>PLS.ASX</t>
+  </si>
+  <si>
+    <t>Pilbara Minerals Limited</t>
+  </si>
+  <si>
+    <t>CA8787422044</t>
+  </si>
+  <si>
+    <t>TECK</t>
+  </si>
+  <si>
+    <t>Teck Resources Ltd</t>
+  </si>
+  <si>
+    <t>US58155Q1031</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> McKesson Corp</t>
+  </si>
+  <si>
+    <t>US9256521090</t>
+  </si>
+  <si>
+    <t>VICI</t>
+  </si>
+  <si>
+    <t>VICI Properties Inc</t>
+  </si>
+  <si>
+    <t>US05946K1016</t>
+  </si>
+  <si>
+    <t>BBVA.US</t>
+  </si>
+  <si>
+    <t>Banco Bilbao Vizcaya Argentaria SA-ADR</t>
+  </si>
+  <si>
+    <t>LU0075646355</t>
+  </si>
+  <si>
+    <t>SUBC</t>
+  </si>
+  <si>
+    <t>GB0005405286</t>
+  </si>
+  <si>
+    <t>HSBA.L</t>
+  </si>
+  <si>
+    <t>HSBC Holdings</t>
+  </si>
+  <si>
+    <t>NO0010345853</t>
+  </si>
+  <si>
+    <t>AKRBP.OL</t>
+  </si>
+  <si>
+    <t>Aker BP ASA</t>
+  </si>
+  <si>
+    <t>NO0005052605</t>
+  </si>
+  <si>
+    <t>NHY</t>
+  </si>
+  <si>
+    <t>Norsk Hydro</t>
+  </si>
+  <si>
+    <t>US7827001089</t>
+  </si>
+  <si>
+    <t>RTY</t>
+  </si>
+  <si>
+    <t>Russell 2000 Index</t>
+  </si>
+  <si>
+    <t>GB0031743007</t>
+  </si>
+  <si>
+    <t>Burberry Group</t>
+  </si>
+  <si>
+    <t>BRBY.L</t>
+  </si>
+  <si>
+    <t>DK0062498333</t>
+  </si>
+  <si>
+    <t>NOVO-B</t>
+  </si>
+  <si>
+    <t>Novo Nordisk B A/S</t>
+  </si>
+  <si>
+    <t>US5324571083</t>
+  </si>
+  <si>
+    <t>LLY</t>
+  </si>
+  <si>
+    <t>Eli Lilly &amp; Co</t>
+  </si>
+  <si>
+    <t>146 Colin Street Level 2, 6005, West Perth</t>
+  </si>
+  <si>
+    <t>550 Burrard Street Suite 3300, Bentall 5, V6C 0B3, Vancouver</t>
+  </si>
+  <si>
+    <t>BlackRock Fund Advisors, 400 Howard Street, San Francisco, CA 94105</t>
+  </si>
+  <si>
+    <t>6555 State Highway 161, 75039, Irving</t>
+  </si>
+  <si>
+    <t>535 Madison Avenue 20th floor, 10022, New York</t>
+  </si>
+  <si>
+    <t>Ciudad BBVA Calle Azul 4
+28050, Madrid</t>
+  </si>
+  <si>
+    <t>40 Brighton Road Sutton, SM2 5BN, London</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Subsea 7</t>
+  </si>
+  <si>
+    <t>8 Canada Square, E14 5HQ, London</t>
+  </si>
+  <si>
+    <t>Fornebuporten Building B Oksenoyveien 10, 1366, Lysaker</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Drammensveien 264, 0283, Oslo</t>
+  </si>
+  <si>
+    <t>Horseferry House Horseferry Road, SW1 P2AW, London</t>
+  </si>
+  <si>
+    <t>Novo Allé 1, 2880, Bagsværd</t>
+  </si>
+  <si>
+    <t>Lilly Corporate Center, 46285, Indianapolis</t>
+  </si>
+  <si>
+    <t>10 Paternoster Square, London, EC4M 7LS</t>
   </si>
 </sst>
 </file>
@@ -4617,6 +4805,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4653,21 +4842,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Navadno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Navadno 2 2" xfId="2" xr:uid="{A6128BC9-A440-44F0-B407-83B01CC70D87}"/>
     <cellStyle name="Navadno 3" xfId="3" xr:uid="{78F38918-51BC-4D42-8584-4E63912D672B}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -4717,13 +4909,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E383" headerRowCellStyle="Navadno" dataCellStyle="Navadno" totalsRowCellStyle="Navadno">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E397">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol" dataCellStyle="Navadno"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN" dataCellStyle="Navadno"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name" dataCellStyle="Navadno"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address" dataCellStyle="Navadno"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode" dataDxfId="0" dataCellStyle="Navadno"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CountryCode" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Info-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4929,22 +5121,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A366" workbookViewId="0">
-      <selection activeCell="B383" sqref="B383"/>
+    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
+      <selection activeCell="E395" sqref="E395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="103.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="103.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4961,7 +5153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4978,7 +5170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4995,7 +5187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5012,7 +5204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5029,7 +5221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5046,7 +5238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -5063,7 +5255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5080,7 +5272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -5097,7 +5289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -5114,7 +5306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5131,7 +5323,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5148,7 +5340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5165,7 +5357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -5182,7 +5374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -5199,7 +5391,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -5216,7 +5408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5233,7 +5425,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -5250,7 +5442,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -5267,7 +5459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5284,7 +5476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -5301,7 +5493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -5318,7 +5510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -5335,7 +5527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -5352,7 +5544,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -5369,7 +5561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -5386,7 +5578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -5403,7 +5595,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -5420,7 +5612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5437,7 +5629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -5454,7 +5646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -5471,7 +5663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -5488,7 +5680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -5505,7 +5697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -5522,7 +5714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -5539,7 +5731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5556,7 +5748,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5573,7 +5765,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -5590,7 +5782,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -5607,7 +5799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -5624,7 +5816,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -5641,7 +5833,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -5658,7 +5850,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -5675,7 +5867,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -5692,7 +5884,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -5709,7 +5901,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -5726,7 +5918,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -5743,7 +5935,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -5760,7 +5952,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -5777,7 +5969,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>197</v>
       </c>
@@ -5794,7 +5986,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -5811,7 +6003,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>205</v>
       </c>
@@ -5828,7 +6020,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>209</v>
       </c>
@@ -5845,7 +6037,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>213</v>
       </c>
@@ -5862,7 +6054,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -5879,7 +6071,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>220</v>
       </c>
@@ -5896,7 +6088,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -5913,7 +6105,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -5930,7 +6122,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -5947,7 +6139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>236</v>
       </c>
@@ -5964,7 +6156,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>240</v>
       </c>
@@ -5981,7 +6173,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -5998,7 +6190,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>247</v>
       </c>
@@ -6015,7 +6207,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>251</v>
       </c>
@@ -6032,7 +6224,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -6049,7 +6241,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>259</v>
       </c>
@@ -6066,7 +6258,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -6083,7 +6275,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>267</v>
       </c>
@@ -6100,7 +6292,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>271</v>
       </c>
@@ -6117,7 +6309,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>275</v>
       </c>
@@ -6134,7 +6326,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>278</v>
       </c>
@@ -6151,7 +6343,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -6168,7 +6360,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>286</v>
       </c>
@@ -6185,7 +6377,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>289</v>
       </c>
@@ -6202,7 +6394,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -6219,7 +6411,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -6236,7 +6428,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>299</v>
       </c>
@@ -6253,7 +6445,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -6270,7 +6462,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -6287,7 +6479,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -6304,7 +6496,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>313</v>
       </c>
@@ -6321,7 +6513,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>317</v>
       </c>
@@ -6338,7 +6530,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>321</v>
       </c>
@@ -6355,7 +6547,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>325</v>
       </c>
@@ -6372,7 +6564,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>329</v>
       </c>
@@ -6389,7 +6581,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>332</v>
       </c>
@@ -6406,7 +6598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>336</v>
       </c>
@@ -6423,7 +6615,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>340</v>
       </c>
@@ -6440,7 +6632,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>344</v>
       </c>
@@ -6457,7 +6649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>347</v>
       </c>
@@ -6474,7 +6666,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>350</v>
       </c>
@@ -6491,7 +6683,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>354</v>
       </c>
@@ -6508,7 +6700,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>358</v>
       </c>
@@ -6525,7 +6717,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>363</v>
       </c>
@@ -6542,7 +6734,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>368</v>
       </c>
@@ -6559,7 +6751,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -6576,7 +6768,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>376</v>
       </c>
@@ -6593,7 +6785,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -6610,7 +6802,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>383</v>
       </c>
@@ -6627,7 +6819,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>387</v>
       </c>
@@ -6644,7 +6836,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>391</v>
       </c>
@@ -6661,7 +6853,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>395</v>
       </c>
@@ -6678,7 +6870,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>399</v>
       </c>
@@ -6695,7 +6887,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>402</v>
       </c>
@@ -6712,7 +6904,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>406</v>
       </c>
@@ -6729,7 +6921,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>409</v>
       </c>
@@ -6746,7 +6938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>413</v>
       </c>
@@ -6763,7 +6955,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>415</v>
       </c>
@@ -6780,7 +6972,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>419</v>
       </c>
@@ -6797,7 +6989,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>423</v>
       </c>
@@ -6814,7 +7006,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>427</v>
       </c>
@@ -6831,7 +7023,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>431</v>
       </c>
@@ -6848,7 +7040,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -6865,7 +7057,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>439</v>
       </c>
@@ -6882,7 +7074,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>443</v>
       </c>
@@ -6899,7 +7091,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>445</v>
       </c>
@@ -6916,7 +7108,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>449</v>
       </c>
@@ -6933,7 +7125,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>453</v>
       </c>
@@ -6950,7 +7142,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>454</v>
       </c>
@@ -6967,7 +7159,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>455</v>
       </c>
@@ -6984,7 +7176,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>456</v>
       </c>
@@ -7001,7 +7193,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>457</v>
       </c>
@@ -7018,7 +7210,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>458</v>
       </c>
@@ -7035,7 +7227,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>459</v>
       </c>
@@ -7052,7 +7244,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>460</v>
       </c>
@@ -7069,7 +7261,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>461</v>
       </c>
@@ -7086,7 +7278,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>462</v>
       </c>
@@ -7103,7 +7295,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>463</v>
       </c>
@@ -7120,7 +7312,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>464</v>
       </c>
@@ -7137,7 +7329,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>465</v>
       </c>
@@ -7154,7 +7346,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>466</v>
       </c>
@@ -7171,7 +7363,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>468</v>
       </c>
@@ -7188,7 +7380,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>469</v>
       </c>
@@ -7205,7 +7397,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>470</v>
       </c>
@@ -7222,7 +7414,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>471</v>
       </c>
@@ -7239,7 +7431,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>472</v>
       </c>
@@ -7256,7 +7448,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>467</v>
       </c>
@@ -7273,7 +7465,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>531</v>
       </c>
@@ -7290,7 +7482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>547</v>
       </c>
@@ -7307,7 +7499,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>549</v>
       </c>
@@ -7324,7 +7516,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>535</v>
       </c>
@@ -7341,7 +7533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>542</v>
       </c>
@@ -7358,7 +7550,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>545</v>
       </c>
@@ -7375,7 +7567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>533</v>
       </c>
@@ -7392,7 +7584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>536</v>
       </c>
@@ -7409,7 +7601,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>546</v>
       </c>
@@ -7426,7 +7618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>537</v>
       </c>
@@ -7443,7 +7635,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>538</v>
       </c>
@@ -7460,7 +7652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>573</v>
       </c>
@@ -7477,7 +7669,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>540</v>
       </c>
@@ -7494,7 +7686,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>544</v>
       </c>
@@ -7511,7 +7703,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>539</v>
       </c>
@@ -7528,7 +7720,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>532</v>
       </c>
@@ -7545,7 +7737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>541</v>
       </c>
@@ -7562,7 +7754,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>543</v>
       </c>
@@ -7579,7 +7771,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>548</v>
       </c>
@@ -7596,7 +7788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>534</v>
       </c>
@@ -7613,7 +7805,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>608</v>
       </c>
@@ -7630,7 +7822,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>612</v>
       </c>
@@ -7647,7 +7839,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>616</v>
       </c>
@@ -7664,7 +7856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>620</v>
       </c>
@@ -7681,7 +7873,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>624</v>
       </c>
@@ -7698,7 +7890,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>629</v>
       </c>
@@ -7715,7 +7907,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>634</v>
       </c>
@@ -7732,7 +7924,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>638</v>
       </c>
@@ -7749,7 +7941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>642</v>
       </c>
@@ -7766,7 +7958,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>647</v>
       </c>
@@ -7783,7 +7975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>650</v>
       </c>
@@ -7800,7 +7992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>654</v>
       </c>
@@ -7817,7 +8009,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>657</v>
       </c>
@@ -7834,7 +8026,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>661</v>
       </c>
@@ -7851,7 +8043,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>665</v>
       </c>
@@ -7868,7 +8060,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>669</v>
       </c>
@@ -7885,7 +8077,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>673</v>
       </c>
@@ -7902,7 +8094,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>677</v>
       </c>
@@ -7919,7 +8111,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>681</v>
       </c>
@@ -7936,7 +8128,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>684</v>
       </c>
@@ -7953,7 +8145,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>688</v>
       </c>
@@ -7970,7 +8162,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>692</v>
       </c>
@@ -7987,7 +8179,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>696</v>
       </c>
@@ -8004,7 +8196,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>700</v>
       </c>
@@ -8021,7 +8213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>704</v>
       </c>
@@ -8038,7 +8230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>715</v>
       </c>
@@ -8055,7 +8247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>718</v>
       </c>
@@ -8072,7 +8264,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>720</v>
       </c>
@@ -8089,7 +8281,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>721</v>
       </c>
@@ -8106,7 +8298,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>722</v>
       </c>
@@ -8123,7 +8315,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>723</v>
       </c>
@@ -8140,7 +8332,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>719</v>
       </c>
@@ -8157,7 +8349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>738</v>
       </c>
@@ -8174,7 +8366,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>741</v>
       </c>
@@ -8191,7 +8383,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>747</v>
       </c>
@@ -8208,7 +8400,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>749</v>
       </c>
@@ -8225,7 +8417,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>752</v>
       </c>
@@ -8242,7 +8434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>759</v>
       </c>
@@ -8259,7 +8451,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>762</v>
       </c>
@@ -8276,7 +8468,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>765</v>
       </c>
@@ -8293,7 +8485,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>772</v>
       </c>
@@ -8310,7 +8502,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>775</v>
       </c>
@@ -8327,7 +8519,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>778</v>
       </c>
@@ -8344,7 +8536,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>781</v>
       </c>
@@ -8361,7 +8553,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>784</v>
       </c>
@@ -8378,7 +8570,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>787</v>
       </c>
@@ -8395,7 +8587,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>790</v>
       </c>
@@ -8412,7 +8604,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>793</v>
       </c>
@@ -8429,7 +8621,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>801</v>
       </c>
@@ -8446,7 +8638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>804</v>
       </c>
@@ -8463,7 +8655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>807</v>
       </c>
@@ -8480,7 +8672,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>814</v>
       </c>
@@ -8497,7 +8689,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>816</v>
       </c>
@@ -8514,7 +8706,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>819</v>
       </c>
@@ -8531,7 +8723,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>822</v>
       </c>
@@ -8548,7 +8740,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>825</v>
       </c>
@@ -8565,7 +8757,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>828</v>
       </c>
@@ -8582,7 +8774,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>837</v>
       </c>
@@ -8599,7 +8791,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>846</v>
       </c>
@@ -8616,7 +8808,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>850</v>
       </c>
@@ -8633,7 +8825,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>841</v>
       </c>
@@ -8650,7 +8842,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>854</v>
       </c>
@@ -8667,7 +8859,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>858</v>
       </c>
@@ -8684,7 +8876,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>862</v>
       </c>
@@ -8701,7 +8893,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>865</v>
       </c>
@@ -8718,7 +8910,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>869</v>
       </c>
@@ -8735,7 +8927,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>897</v>
       </c>
@@ -8752,7 +8944,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>900</v>
       </c>
@@ -8769,7 +8961,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>903</v>
       </c>
@@ -8786,7 +8978,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>906</v>
       </c>
@@ -8803,7 +8995,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>909</v>
       </c>
@@ -8820,7 +9012,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>912</v>
       </c>
@@ -8837,7 +9029,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>915</v>
       </c>
@@ -8854,7 +9046,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>918</v>
       </c>
@@ -8871,7 +9063,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>921</v>
       </c>
@@ -8888,7 +9080,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>924</v>
       </c>
@@ -8905,7 +9097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>927</v>
       </c>
@@ -8922,7 +9114,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>930</v>
       </c>
@@ -8939,7 +9131,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>933</v>
       </c>
@@ -8956,7 +9148,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>936</v>
       </c>
@@ -8973,7 +9165,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>939</v>
       </c>
@@ -8990,7 +9182,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>942</v>
       </c>
@@ -9007,7 +9199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>945</v>
       </c>
@@ -9024,7 +9216,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>948</v>
       </c>
@@ -9041,7 +9233,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>952</v>
       </c>
@@ -9058,7 +9250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>955</v>
       </c>
@@ -9075,7 +9267,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>958</v>
       </c>
@@ -9092,7 +9284,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>961</v>
       </c>
@@ -9109,7 +9301,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>964</v>
       </c>
@@ -9126,7 +9318,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>967</v>
       </c>
@@ -9143,7 +9335,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>970</v>
       </c>
@@ -9160,7 +9352,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>973</v>
       </c>
@@ -9177,7 +9369,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>976</v>
       </c>
@@ -9194,7 +9386,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>979</v>
       </c>
@@ -9211,7 +9403,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>982</v>
       </c>
@@ -9228,7 +9420,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>986</v>
       </c>
@@ -9245,7 +9437,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>989</v>
       </c>
@@ -9262,7 +9454,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>992</v>
       </c>
@@ -9279,7 +9471,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>995</v>
       </c>
@@ -9296,7 +9488,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>998</v>
       </c>
@@ -9313,7 +9505,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>1002</v>
       </c>
@@ -9330,7 +9522,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1006</v>
       </c>
@@ -9347,7 +9539,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>1009</v>
       </c>
@@ -9364,7 +9556,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>1012</v>
       </c>
@@ -9381,7 +9573,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>1015</v>
       </c>
@@ -9398,7 +9590,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>1019</v>
       </c>
@@ -9415,7 +9607,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>1022</v>
       </c>
@@ -9432,7 +9624,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>1025</v>
       </c>
@@ -9449,7 +9641,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>1028</v>
       </c>
@@ -9466,7 +9658,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1031</v>
       </c>
@@ -9483,7 +9675,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1034</v>
       </c>
@@ -9500,7 +9692,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1037</v>
       </c>
@@ -9517,7 +9709,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1040</v>
       </c>
@@ -9534,7 +9726,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1043</v>
       </c>
@@ -9551,7 +9743,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1046</v>
       </c>
@@ -9568,7 +9760,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1049</v>
       </c>
@@ -9585,7 +9777,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1052</v>
       </c>
@@ -9602,7 +9794,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1055</v>
       </c>
@@ -9619,7 +9811,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1058</v>
       </c>
@@ -9636,7 +9828,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1061</v>
       </c>
@@ -9653,7 +9845,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1064</v>
       </c>
@@ -9670,7 +9862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1067</v>
       </c>
@@ -9687,7 +9879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1070</v>
       </c>
@@ -9704,7 +9896,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1073</v>
       </c>
@@ -9721,7 +9913,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1076</v>
       </c>
@@ -9738,7 +9930,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1079</v>
       </c>
@@ -9755,7 +9947,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1082</v>
       </c>
@@ -9772,7 +9964,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1085</v>
       </c>
@@ -9789,7 +9981,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1088</v>
       </c>
@@ -9806,7 +9998,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1091</v>
       </c>
@@ -9823,7 +10015,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1094</v>
       </c>
@@ -9840,7 +10032,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1097</v>
       </c>
@@ -9857,7 +10049,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1101</v>
       </c>
@@ -9874,7 +10066,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1104</v>
       </c>
@@ -9891,7 +10083,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1107</v>
       </c>
@@ -9908,7 +10100,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1110</v>
       </c>
@@ -9925,7 +10117,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1113</v>
       </c>
@@ -9942,7 +10134,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1116</v>
       </c>
@@ -9959,7 +10151,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1119</v>
       </c>
@@ -9976,7 +10168,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1122</v>
       </c>
@@ -9993,7 +10185,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1125</v>
       </c>
@@ -10010,7 +10202,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1128</v>
       </c>
@@ -10027,7 +10219,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1131</v>
       </c>
@@ -10044,7 +10236,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1134</v>
       </c>
@@ -10061,7 +10253,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1137</v>
       </c>
@@ -10078,7 +10270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1140</v>
       </c>
@@ -10095,7 +10287,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1143</v>
       </c>
@@ -10112,7 +10304,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1146</v>
       </c>
@@ -10129,7 +10321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1149</v>
       </c>
@@ -10146,7 +10338,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1152</v>
       </c>
@@ -10163,7 +10355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1155</v>
       </c>
@@ -10180,7 +10372,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1158</v>
       </c>
@@ -10197,7 +10389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1161</v>
       </c>
@@ -10214,7 +10406,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1164</v>
       </c>
@@ -10231,7 +10423,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1167</v>
       </c>
@@ -10248,7 +10440,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1170</v>
       </c>
@@ -10265,7 +10457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1173</v>
       </c>
@@ -10282,7 +10474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1176</v>
       </c>
@@ -10299,7 +10491,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1179</v>
       </c>
@@ -10316,7 +10508,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1182</v>
       </c>
@@ -10333,7 +10525,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1186</v>
       </c>
@@ -10350,7 +10542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1189</v>
       </c>
@@ -10367,7 +10559,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1192</v>
       </c>
@@ -10384,7 +10576,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1195</v>
       </c>
@@ -10401,7 +10593,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1198</v>
       </c>
@@ -10418,7 +10610,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1201</v>
       </c>
@@ -10435,7 +10627,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1204</v>
       </c>
@@ -10452,7 +10644,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1207</v>
       </c>
@@ -10469,7 +10661,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1210</v>
       </c>
@@ -10486,7 +10678,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1213</v>
       </c>
@@ -10503,7 +10695,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1216</v>
       </c>
@@ -10520,7 +10712,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1219</v>
       </c>
@@ -10537,7 +10729,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1222</v>
       </c>
@@ -10554,7 +10746,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1225</v>
       </c>
@@ -10571,7 +10763,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1228</v>
       </c>
@@ -10588,7 +10780,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1231</v>
       </c>
@@ -10605,7 +10797,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1235</v>
       </c>
@@ -10622,7 +10814,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1238</v>
       </c>
@@ -10639,7 +10831,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1241</v>
       </c>
@@ -10656,7 +10848,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1244</v>
       </c>
@@ -10673,7 +10865,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1247</v>
       </c>
@@ -10690,7 +10882,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1250</v>
       </c>
@@ -10707,7 +10899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1253</v>
       </c>
@@ -10724,7 +10916,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1256</v>
       </c>
@@ -10741,7 +10933,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1259</v>
       </c>
@@ -10758,7 +10950,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1262</v>
       </c>
@@ -10775,7 +10967,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1265</v>
       </c>
@@ -10792,7 +10984,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1268</v>
       </c>
@@ -10809,7 +11001,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1271</v>
       </c>
@@ -10826,7 +11018,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1274</v>
       </c>
@@ -10843,7 +11035,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1277</v>
       </c>
@@ -10860,1180 +11052,1404 @@
         <v>146</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="2" t="s">
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
         <v>1396</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" t="s">
         <v>1397</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C349" t="s">
         <v>1398</v>
       </c>
-      <c r="D349" s="2" t="s">
+      <c r="D349" t="s">
         <v>1399</v>
       </c>
-      <c r="E349" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="2" t="s">
+      <c r="E349" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
         <v>1400</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" t="s">
         <v>1401</v>
       </c>
-      <c r="C350" s="2" t="s">
+      <c r="C350" t="s">
         <v>1402</v>
       </c>
-      <c r="D350" s="2" t="s">
+      <c r="D350" t="s">
         <v>1403</v>
       </c>
-      <c r="E350" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="2" t="s">
+      <c r="E350" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
         <v>1404</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" t="s">
         <v>1405</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="C351" t="s">
         <v>1406</v>
       </c>
-      <c r="D351" s="2" t="s">
+      <c r="D351" t="s">
         <v>1407</v>
       </c>
-      <c r="E351" s="3" t="s">
+      <c r="E351" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="2" t="s">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
         <v>1408</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" t="s">
         <v>1409</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="C352" t="s">
         <v>1410</v>
       </c>
-      <c r="D352" s="2" t="s">
+      <c r="D352" t="s">
         <v>1411</v>
       </c>
-      <c r="E352" s="3" t="s">
+      <c r="E352" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="2" t="s">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
         <v>1412</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" t="s">
         <v>1413</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="C353" t="s">
         <v>1414</v>
       </c>
-      <c r="D353" s="2" t="s">
+      <c r="D353" t="s">
         <v>1415</v>
       </c>
-      <c r="E353" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="2" t="s">
+      <c r="E353" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
         <v>1416</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" t="s">
         <v>1417</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="C354" t="s">
         <v>1418</v>
       </c>
-      <c r="D354" s="2" t="s">
+      <c r="D354" t="s">
         <v>1419</v>
       </c>
-      <c r="E354" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="2" t="s">
+      <c r="E354" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
         <v>1420</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" t="s">
         <v>1421</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="C355" t="s">
         <v>1422</v>
       </c>
-      <c r="D355" s="2" t="s">
+      <c r="D355" t="s">
         <v>1419</v>
       </c>
-      <c r="E355" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="2" t="s">
+      <c r="E355" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
         <v>1423</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" t="s">
         <v>1424</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="C356" t="s">
         <v>1425</v>
       </c>
-      <c r="D356" s="2" t="s">
+      <c r="D356" t="s">
         <v>1403</v>
       </c>
-      <c r="E356" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="2" t="s">
+      <c r="E356" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
         <v>1426</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" t="s">
         <v>1427</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="C357" t="s">
         <v>1428</v>
       </c>
-      <c r="D357" s="2" t="s">
+      <c r="D357" t="s">
         <v>1429</v>
       </c>
-      <c r="E357" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="2" t="s">
+      <c r="E357" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>1430</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" t="s">
         <v>1431</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="C358" t="s">
         <v>1432</v>
       </c>
-      <c r="D358" s="2" t="s">
+      <c r="D358" t="s">
         <v>1433</v>
       </c>
-      <c r="E358" s="3" t="s">
+      <c r="E358" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="2" t="s">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
         <v>1434</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" t="s">
         <v>1435</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="C359" t="s">
         <v>1436</v>
       </c>
-      <c r="D359" s="2" t="s">
+      <c r="D359" t="s">
         <v>1437</v>
       </c>
-      <c r="E359" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="2" t="s">
+      <c r="E359" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
         <v>1438</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" t="s">
         <v>1439</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="C360" t="s">
         <v>1440</v>
       </c>
-      <c r="D360" s="2" t="s">
+      <c r="D360" t="s">
         <v>1441</v>
       </c>
-      <c r="E360" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="2" t="s">
+      <c r="E360" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
         <v>1442</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" t="s">
         <v>1443</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="C361" t="s">
         <v>1444</v>
       </c>
-      <c r="D361" s="2" t="s">
+      <c r="D361" t="s">
         <v>1445</v>
       </c>
-      <c r="E361" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="2" t="s">
+      <c r="E361" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
         <v>1446</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" t="s">
         <v>1447</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="C362" t="s">
         <v>1448</v>
       </c>
-      <c r="D362" s="2" t="s">
+      <c r="D362" t="s">
         <v>1449</v>
       </c>
-      <c r="E362" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="2" t="s">
+      <c r="E362" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
         <v>1450</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" t="s">
         <v>1451</v>
       </c>
-      <c r="C363" s="2" t="s">
+      <c r="C363" t="s">
         <v>1452</v>
       </c>
-      <c r="D363" s="2" t="s">
+      <c r="D363" t="s">
         <v>1445</v>
       </c>
-      <c r="E363" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="2" t="s">
+      <c r="E363" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
         <v>1453</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" t="s">
         <v>1454</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="C364" t="s">
         <v>1455</v>
       </c>
-      <c r="D364" s="2" t="s">
+      <c r="D364" t="s">
         <v>1456</v>
       </c>
-      <c r="E364" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
+      <c r="E364" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
         <v>1457</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" t="s">
         <v>1458</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="C365" t="s">
         <v>1459</v>
       </c>
-      <c r="D365" s="2" t="s">
+      <c r="D365" t="s">
         <v>1460</v>
       </c>
-      <c r="E365" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="2" t="s">
+      <c r="E365" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
         <v>1461</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" t="s">
         <v>1462</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="C366" t="s">
         <v>1463</v>
       </c>
-      <c r="D366" s="2" t="s">
+      <c r="D366" t="s">
         <v>1419</v>
       </c>
-      <c r="E366" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="2" t="s">
+      <c r="E366" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
         <v>1464</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" t="s">
         <v>1465</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="C367" t="s">
         <v>1466</v>
       </c>
-      <c r="D367" s="2" t="s">
+      <c r="D367" t="s">
         <v>1445</v>
       </c>
-      <c r="E367" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="2" t="s">
+      <c r="E367" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
         <v>1467</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" t="s">
         <v>1468</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C368" t="s">
         <v>1469</v>
       </c>
-      <c r="D368" s="2" t="s">
+      <c r="D368" t="s">
         <v>1445</v>
       </c>
-      <c r="E368" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="2" t="s">
+      <c r="E368" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
         <v>1470</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" t="s">
         <v>1471</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C369" t="s">
         <v>1472</v>
       </c>
-      <c r="D369" s="2" t="s">
+      <c r="D369" t="s">
         <v>1473</v>
       </c>
-      <c r="E369" s="3" t="s">
+      <c r="E369" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="2" t="s">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
         <v>1474</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" t="s">
         <v>1475</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C370" t="s">
         <v>1476</v>
       </c>
-      <c r="D370" s="2" t="s">
+      <c r="D370" t="s">
         <v>1419</v>
       </c>
-      <c r="E370" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="2" t="s">
+      <c r="E370" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
         <v>1477</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" t="s">
         <v>1478</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="C371" t="s">
         <v>1479</v>
       </c>
-      <c r="D371" s="2" t="s">
+      <c r="D371" t="s">
         <v>1480</v>
       </c>
-      <c r="E371" s="3" t="s">
+      <c r="E371" s="2" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="2" t="s">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
         <v>1482</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" t="s">
         <v>1483</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="C372" t="s">
         <v>1484</v>
       </c>
-      <c r="D372" s="2" t="s">
+      <c r="D372" t="s">
         <v>1485</v>
       </c>
-      <c r="E372" s="3" t="s">
+      <c r="E372" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="2" t="s">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
         <v>1486</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" t="s">
         <v>1487</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="C373" t="s">
         <v>1488</v>
       </c>
-      <c r="D373" s="2" t="s">
+      <c r="D373" t="s">
         <v>1489</v>
       </c>
-      <c r="E373" s="3" t="s">
+      <c r="E373" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="2" t="s">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
         <v>1490</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" t="s">
         <v>1491</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="C374" t="s">
         <v>1492</v>
       </c>
-      <c r="D374" s="2" t="s">
+      <c r="D374" t="s">
         <v>1493</v>
       </c>
-      <c r="E374" s="3" t="s">
+      <c r="E374" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="2" t="s">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
         <v>1494</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" t="s">
         <v>1495</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="C375" t="s">
         <v>1496</v>
       </c>
-      <c r="D375" s="2" t="s">
+      <c r="D375" t="s">
         <v>1415</v>
       </c>
-      <c r="E375" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="2" t="s">
+      <c r="E375" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
         <v>1497</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" t="s">
         <v>1498</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="C376" t="s">
         <v>1499</v>
       </c>
-      <c r="D376" s="2" t="s">
+      <c r="D376" t="s">
         <v>881</v>
       </c>
-      <c r="E376" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="2" t="s">
+      <c r="E376" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
         <v>1500</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" t="s">
         <v>1501</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="C377" t="s">
         <v>1502</v>
       </c>
-      <c r="D377" s="2" t="s">
+      <c r="D377" t="s">
         <v>1460</v>
       </c>
-      <c r="E377" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="2" t="s">
+      <c r="E377" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
         <v>1503</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" t="s">
         <v>1504</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C378" t="s">
         <v>1505</v>
       </c>
-      <c r="D378" s="2" t="s">
+      <c r="D378" t="s">
         <v>1460</v>
       </c>
-      <c r="E378" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="2" t="s">
+      <c r="E378" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
         <v>1506</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" t="s">
         <v>1507</v>
       </c>
-      <c r="C379" s="2" t="s">
+      <c r="C379" t="s">
         <v>1508</v>
       </c>
-      <c r="D379" s="2" t="s">
+      <c r="D379" t="s">
         <v>619</v>
       </c>
-      <c r="E379" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="2" t="s">
+      <c r="E379" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
         <v>1509</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" t="s">
         <v>1510</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C380" t="s">
         <v>1511</v>
       </c>
-      <c r="D380" s="2" t="s">
+      <c r="D380" t="s">
         <v>1512</v>
       </c>
-      <c r="E380" s="3" t="s">
+      <c r="E380" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="2" t="s">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
         <v>1513</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" t="s">
         <v>1514</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C381" t="s">
         <v>1515</v>
       </c>
-      <c r="D381" s="2" t="s">
+      <c r="D381" t="s">
         <v>1516</v>
       </c>
-      <c r="E381" s="3" t="s">
+      <c r="E381" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="2" t="s">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
         <v>1517</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" t="s">
         <v>1518</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C382" t="s">
         <v>1519</v>
       </c>
-      <c r="D382" s="2" t="s">
+      <c r="D382" t="s">
         <v>1520</v>
       </c>
-      <c r="E382" s="3" t="s">
+      <c r="E382" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="2" t="s">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
         <v>1521</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" t="s">
         <v>1522</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C383" t="s">
         <v>1523</v>
       </c>
-      <c r="D383" s="2" t="s">
+      <c r="D383" t="s">
         <v>1415</v>
       </c>
-      <c r="E383" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E383" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D384" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D385" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D386" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D388" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D390" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D392" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D393" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D394" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D395" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D396" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D397" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jozem/Razvijam/GitHub/etoro-edavki/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B342C3-4821-A944-9259-853B1AF2F0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2FE7F0-BB85-46C0-9681-91715B5F9EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="880" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1590">
   <si>
     <t>Symbol</t>
   </si>
@@ -4780,18 +4780,50 @@
   </si>
   <si>
     <t>10 Paternoster Square, London, EC4M 7LS</t>
+  </si>
+  <si>
+    <t>GEST.MC</t>
+  </si>
+  <si>
+    <t>ES0105223004</t>
+  </si>
+  <si>
+    <t>Gestamp Automocion</t>
+  </si>
+  <si>
+    <t>Calle Alfonso XII, 16, 28014, Madrid, Spain</t>
+  </si>
+  <si>
+    <t>QFIN</t>
+  </si>
+  <si>
+    <t>US88557W1018</t>
+  </si>
+  <si>
+    <t>Qifu Technology Inc</t>
+  </si>
+  <si>
+    <t>7/F Lujiazui Finance Plaza No. 1217 Dongfang Road, 200122, Shanghai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4836,34 +4868,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Navadno" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Navadno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Navadno 2 2" xfId="2" xr:uid="{A6128BC9-A440-44F0-B407-83B01CC70D87}"/>
+    <cellStyle name="Navadno 2 2 2" xfId="4" xr:uid="{1C4BC3D0-CA89-4B07-9533-25D50BA6DBA3}"/>
     <cellStyle name="Navadno 3" xfId="3" xr:uid="{78F38918-51BC-4D42-8584-4E63912D672B}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Navadno 3 2" xfId="5" xr:uid="{D149EF83-4190-4FBF-93B3-C85030AACC23}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -4909,7 +4942,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E397">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E399">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN"/>
@@ -5121,22 +5154,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" workbookViewId="0">
-      <selection activeCell="E395" sqref="E395"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="35.1640625" customWidth="1"/>
-    <col min="4" max="4" width="103.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.140625" customWidth="1"/>
+    <col min="4" max="4" width="103.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5149,11 +5182,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5166,11 +5199,11 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5183,11 +5216,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -5200,11 +5233,11 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5217,11 +5250,11 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5234,11 +5267,11 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -5251,11 +5284,11 @@
       <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -5268,11 +5301,11 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -5285,11 +5318,11 @@
       <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -5302,11 +5335,11 @@
       <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5319,11 +5352,11 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5336,11 +5369,11 @@
       <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5353,11 +5386,11 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -5370,11 +5403,11 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -5387,11 +5420,11 @@
       <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -5404,11 +5437,11 @@
       <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -5421,11 +5454,11 @@
       <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -5438,11 +5471,11 @@
       <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>76</v>
       </c>
@@ -5455,11 +5488,11 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -5472,11 +5505,11 @@
       <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -5489,11 +5522,11 @@
       <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -5506,11 +5539,11 @@
       <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -5523,11 +5556,11 @@
       <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -5540,11 +5573,11 @@
       <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>100</v>
       </c>
@@ -5557,11 +5590,11 @@
       <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -5574,11 +5607,11 @@
       <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>108</v>
       </c>
@@ -5591,11 +5624,11 @@
       <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>112</v>
       </c>
@@ -5608,11 +5641,11 @@
       <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>116</v>
       </c>
@@ -5625,11 +5658,11 @@
       <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -5642,11 +5675,11 @@
       <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -5659,11 +5692,11 @@
       <c r="D31" t="s">
         <v>127</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>128</v>
       </c>
@@ -5676,11 +5709,11 @@
       <c r="D32" t="s">
         <v>131</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>132</v>
       </c>
@@ -5693,11 +5726,11 @@
       <c r="D33" t="s">
         <v>134</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>135</v>
       </c>
@@ -5710,11 +5743,11 @@
       <c r="D34" t="s">
         <v>138</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>139</v>
       </c>
@@ -5727,11 +5760,11 @@
       <c r="D35" t="s">
         <v>142</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -5744,11 +5777,11 @@
       <c r="D36" t="s">
         <v>872</v>
       </c>
-      <c r="E36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5761,11 +5794,11 @@
       <c r="D37" t="s">
         <v>150</v>
       </c>
-      <c r="E37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>151</v>
       </c>
@@ -5778,11 +5811,11 @@
       <c r="D38" t="s">
         <v>873</v>
       </c>
-      <c r="E38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -5795,11 +5828,11 @@
       <c r="D39" t="s">
         <v>157</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -5812,11 +5845,11 @@
       <c r="D40" t="s">
         <v>162</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>164</v>
       </c>
@@ -5829,11 +5862,11 @@
       <c r="D41" t="s">
         <v>874</v>
       </c>
-      <c r="E41" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -5846,11 +5879,11 @@
       <c r="D42" t="s">
         <v>875</v>
       </c>
-      <c r="E42" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>170</v>
       </c>
@@ -5863,11 +5896,11 @@
       <c r="D43" t="s">
         <v>172</v>
       </c>
-      <c r="E43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -5880,11 +5913,11 @@
       <c r="D44" t="s">
         <v>176</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -5897,11 +5930,11 @@
       <c r="D45" t="s">
         <v>181</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>183</v>
       </c>
@@ -5914,11 +5947,11 @@
       <c r="D46" t="s">
         <v>186</v>
       </c>
-      <c r="E46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>187</v>
       </c>
@@ -5931,11 +5964,11 @@
       <c r="D47" t="s">
         <v>876</v>
       </c>
-      <c r="E47" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -5948,11 +5981,11 @@
       <c r="D48" t="s">
         <v>193</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>194</v>
       </c>
@@ -5965,11 +5998,11 @@
       <c r="D49" t="s">
         <v>196</v>
       </c>
-      <c r="E49" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>197</v>
       </c>
@@ -5982,11 +6015,11 @@
       <c r="D50" t="s">
         <v>200</v>
       </c>
-      <c r="E50" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>201</v>
       </c>
@@ -5999,11 +6032,11 @@
       <c r="D51" t="s">
         <v>204</v>
       </c>
-      <c r="E51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>205</v>
       </c>
@@ -6016,11 +6049,11 @@
       <c r="D52" t="s">
         <v>208</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>209</v>
       </c>
@@ -6033,11 +6066,11 @@
       <c r="D53" t="s">
         <v>212</v>
       </c>
-      <c r="E53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>213</v>
       </c>
@@ -6050,11 +6083,11 @@
       <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>217</v>
       </c>
@@ -6067,11 +6100,11 @@
       <c r="D55" t="s">
         <v>876</v>
       </c>
-      <c r="E55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>220</v>
       </c>
@@ -6084,11 +6117,11 @@
       <c r="D56" t="s">
         <v>223</v>
       </c>
-      <c r="E56" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>224</v>
       </c>
@@ -6101,11 +6134,11 @@
       <c r="D57" t="s">
         <v>227</v>
       </c>
-      <c r="E57" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>228</v>
       </c>
@@ -6118,11 +6151,11 @@
       <c r="D58" t="s">
         <v>231</v>
       </c>
-      <c r="E58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>232</v>
       </c>
@@ -6135,11 +6168,11 @@
       <c r="D59" t="s">
         <v>235</v>
       </c>
-      <c r="E59" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>236</v>
       </c>
@@ -6152,11 +6185,11 @@
       <c r="D60" t="s">
         <v>239</v>
       </c>
-      <c r="E60" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>240</v>
       </c>
@@ -6169,11 +6202,11 @@
       <c r="D61" t="s">
         <v>243</v>
       </c>
-      <c r="E61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -6186,11 +6219,11 @@
       <c r="D62" t="s">
         <v>876</v>
       </c>
-      <c r="E62" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>247</v>
       </c>
@@ -6203,11 +6236,11 @@
       <c r="D63" t="s">
         <v>250</v>
       </c>
-      <c r="E63" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>251</v>
       </c>
@@ -6220,11 +6253,11 @@
       <c r="D64" t="s">
         <v>254</v>
       </c>
-      <c r="E64" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>255</v>
       </c>
@@ -6237,11 +6270,11 @@
       <c r="D65" t="s">
         <v>258</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>259</v>
       </c>
@@ -6254,11 +6287,11 @@
       <c r="D66" t="s">
         <v>262</v>
       </c>
-      <c r="E66" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>263</v>
       </c>
@@ -6271,11 +6304,11 @@
       <c r="D67" t="s">
         <v>266</v>
       </c>
-      <c r="E67" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>267</v>
       </c>
@@ -6288,11 +6321,11 @@
       <c r="D68" t="s">
         <v>270</v>
       </c>
-      <c r="E68" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>271</v>
       </c>
@@ -6305,11 +6338,11 @@
       <c r="D69" t="s">
         <v>274</v>
       </c>
-      <c r="E69" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>275</v>
       </c>
@@ -6322,11 +6355,11 @@
       <c r="D70" t="s">
         <v>877</v>
       </c>
-      <c r="E70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>278</v>
       </c>
@@ -6339,11 +6372,11 @@
       <c r="D71" t="s">
         <v>281</v>
       </c>
-      <c r="E71" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -6356,11 +6389,11 @@
       <c r="D72" t="s">
         <v>285</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>286</v>
       </c>
@@ -6373,11 +6406,11 @@
       <c r="D73" t="s">
         <v>285</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>289</v>
       </c>
@@ -6390,11 +6423,11 @@
       <c r="D74" t="s">
         <v>285</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>291</v>
       </c>
@@ -6407,11 +6440,11 @@
       <c r="D75" t="s">
         <v>294</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -6424,11 +6457,11 @@
       <c r="D76" t="s">
         <v>298</v>
       </c>
-      <c r="E76" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>299</v>
       </c>
@@ -6441,11 +6474,11 @@
       <c r="D77" t="s">
         <v>876</v>
       </c>
-      <c r="E77" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>302</v>
       </c>
@@ -6458,11 +6491,11 @@
       <c r="D78" t="s">
         <v>305</v>
       </c>
-      <c r="E78" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>306</v>
       </c>
@@ -6475,11 +6508,11 @@
       <c r="D79" t="s">
         <v>309</v>
       </c>
-      <c r="E79" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E79" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>310</v>
       </c>
@@ -6492,11 +6525,11 @@
       <c r="D80" t="s">
         <v>312</v>
       </c>
-      <c r="E80" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E80" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>313</v>
       </c>
@@ -6509,11 +6542,11 @@
       <c r="D81" t="s">
         <v>316</v>
       </c>
-      <c r="E81" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>317</v>
       </c>
@@ -6526,11 +6559,11 @@
       <c r="D82" t="s">
         <v>320</v>
       </c>
-      <c r="E82" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>321</v>
       </c>
@@ -6543,11 +6576,11 @@
       <c r="D83" t="s">
         <v>324</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>325</v>
       </c>
@@ -6560,11 +6593,11 @@
       <c r="D84" t="s">
         <v>328</v>
       </c>
-      <c r="E84" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>329</v>
       </c>
@@ -6577,11 +6610,11 @@
       <c r="D85" t="s">
         <v>876</v>
       </c>
-      <c r="E85" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>332</v>
       </c>
@@ -6594,11 +6627,11 @@
       <c r="D86" t="s">
         <v>335</v>
       </c>
-      <c r="E86" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>336</v>
       </c>
@@ -6611,11 +6644,11 @@
       <c r="D87" t="s">
         <v>339</v>
       </c>
-      <c r="E87" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>340</v>
       </c>
@@ -6628,11 +6661,11 @@
       <c r="D88" t="s">
         <v>343</v>
       </c>
-      <c r="E88" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>344</v>
       </c>
@@ -6645,11 +6678,11 @@
       <c r="D89" t="s">
         <v>878</v>
       </c>
-      <c r="E89" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>347</v>
       </c>
@@ -6662,11 +6695,11 @@
       <c r="D90" t="s">
         <v>878</v>
       </c>
-      <c r="E90" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>350</v>
       </c>
@@ -6679,11 +6712,11 @@
       <c r="D91" t="s">
         <v>353</v>
       </c>
-      <c r="E91" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>354</v>
       </c>
@@ -6696,11 +6729,11 @@
       <c r="D92" t="s">
         <v>357</v>
       </c>
-      <c r="E92" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>358</v>
       </c>
@@ -6713,11 +6746,11 @@
       <c r="D93" t="s">
         <v>361</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>363</v>
       </c>
@@ -6730,11 +6763,11 @@
       <c r="D94" t="s">
         <v>366</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>368</v>
       </c>
@@ -6747,11 +6780,11 @@
       <c r="D95" t="s">
         <v>371</v>
       </c>
-      <c r="E95" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>372</v>
       </c>
@@ -6764,11 +6797,11 @@
       <c r="D96" t="s">
         <v>375</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>376</v>
       </c>
@@ -6781,11 +6814,11 @@
       <c r="D97" t="s">
         <v>379</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>380</v>
       </c>
@@ -6798,11 +6831,11 @@
       <c r="D98" t="s">
         <v>879</v>
       </c>
-      <c r="E98" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>383</v>
       </c>
@@ -6815,11 +6848,11 @@
       <c r="D99" t="s">
         <v>386</v>
       </c>
-      <c r="E99" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>387</v>
       </c>
@@ -6832,11 +6865,11 @@
       <c r="D100" t="s">
         <v>390</v>
       </c>
-      <c r="E100" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>391</v>
       </c>
@@ -6849,11 +6882,11 @@
       <c r="D101" t="s">
         <v>394</v>
       </c>
-      <c r="E101" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>395</v>
       </c>
@@ -6866,11 +6899,11 @@
       <c r="D102" t="s">
         <v>398</v>
       </c>
-      <c r="E102" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>399</v>
       </c>
@@ -6883,11 +6916,11 @@
       <c r="D103" t="s">
         <v>880</v>
       </c>
-      <c r="E103" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E103" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>402</v>
       </c>
@@ -6900,11 +6933,11 @@
       <c r="D104" t="s">
         <v>405</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>406</v>
       </c>
@@ -6917,11 +6950,11 @@
       <c r="D105" t="s">
         <v>881</v>
       </c>
-      <c r="E105" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>409</v>
       </c>
@@ -6934,11 +6967,11 @@
       <c r="D106" t="s">
         <v>412</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>413</v>
       </c>
@@ -6951,11 +6984,11 @@
       <c r="D107" t="s">
         <v>711</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="3" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>415</v>
       </c>
@@ -6968,11 +7001,11 @@
       <c r="D108" t="s">
         <v>418</v>
       </c>
-      <c r="E108" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>419</v>
       </c>
@@ -6985,11 +7018,11 @@
       <c r="D109" t="s">
         <v>422</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>423</v>
       </c>
@@ -7002,11 +7035,11 @@
       <c r="D110" t="s">
         <v>426</v>
       </c>
-      <c r="E110" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>427</v>
       </c>
@@ -7019,11 +7052,11 @@
       <c r="D111" t="s">
         <v>430</v>
       </c>
-      <c r="E111" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E111" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>431</v>
       </c>
@@ -7036,11 +7069,11 @@
       <c r="D112" t="s">
         <v>434</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>436</v>
       </c>
@@ -7053,11 +7086,11 @@
       <c r="D113" t="s">
         <v>881</v>
       </c>
-      <c r="E113" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>439</v>
       </c>
@@ -7070,11 +7103,11 @@
       <c r="D114" t="s">
         <v>442</v>
       </c>
-      <c r="E114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>443</v>
       </c>
@@ -7087,11 +7120,11 @@
       <c r="D115" t="s">
         <v>709</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>445</v>
       </c>
@@ -7104,11 +7137,11 @@
       <c r="D116" t="s">
         <v>448</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>449</v>
       </c>
@@ -7121,11 +7154,11 @@
       <c r="D117" t="s">
         <v>452</v>
       </c>
-      <c r="E117" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E117" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>453</v>
       </c>
@@ -7138,11 +7171,11 @@
       <c r="D118" t="s">
         <v>474</v>
       </c>
-      <c r="E118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E118" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>454</v>
       </c>
@@ -7155,11 +7188,11 @@
       <c r="D119" t="s">
         <v>477</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>455</v>
       </c>
@@ -7172,11 +7205,11 @@
       <c r="D120" t="s">
         <v>480</v>
       </c>
-      <c r="E120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>456</v>
       </c>
@@ -7189,11 +7222,11 @@
       <c r="D121" t="s">
         <v>483</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>457</v>
       </c>
@@ -7206,11 +7239,11 @@
       <c r="D122" t="s">
         <v>485</v>
       </c>
-      <c r="E122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E122" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>458</v>
       </c>
@@ -7223,11 +7256,11 @@
       <c r="D123" t="s">
         <v>488</v>
       </c>
-      <c r="E123" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E123" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>459</v>
       </c>
@@ -7240,11 +7273,11 @@
       <c r="D124" t="s">
         <v>491</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>460</v>
       </c>
@@ -7257,11 +7290,11 @@
       <c r="D125" t="s">
         <v>876</v>
       </c>
-      <c r="E125" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E125" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>461</v>
       </c>
@@ -7274,11 +7307,11 @@
       <c r="D126" t="s">
         <v>496</v>
       </c>
-      <c r="E126" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E126" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>462</v>
       </c>
@@ -7291,11 +7324,11 @@
       <c r="D127" t="s">
         <v>499</v>
       </c>
-      <c r="E127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E127" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>463</v>
       </c>
@@ -7308,11 +7341,11 @@
       <c r="D128" t="s">
         <v>876</v>
       </c>
-      <c r="E128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E128" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>464</v>
       </c>
@@ -7325,11 +7358,11 @@
       <c r="D129" t="s">
         <v>504</v>
       </c>
-      <c r="E129" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E129" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>465</v>
       </c>
@@ -7342,11 +7375,11 @@
       <c r="D130" t="s">
         <v>507</v>
       </c>
-      <c r="E130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>466</v>
       </c>
@@ -7359,11 +7392,11 @@
       <c r="D131" t="s">
         <v>881</v>
       </c>
-      <c r="E131" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>468</v>
       </c>
@@ -7376,11 +7409,11 @@
       <c r="D132" t="s">
         <v>512</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>469</v>
       </c>
@@ -7393,11 +7426,11 @@
       <c r="D133" t="s">
         <v>515</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>470</v>
       </c>
@@ -7410,11 +7443,11 @@
       <c r="D134" t="s">
         <v>519</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>471</v>
       </c>
@@ -7427,11 +7460,11 @@
       <c r="D135" t="s">
         <v>522</v>
       </c>
-      <c r="E135" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E135" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>472</v>
       </c>
@@ -7444,11 +7477,11 @@
       <c r="D136" t="s">
         <v>525</v>
       </c>
-      <c r="E136" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E136" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>467</v>
       </c>
@@ -7461,11 +7494,11 @@
       <c r="D137" t="s">
         <v>528</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>531</v>
       </c>
@@ -7478,11 +7511,11 @@
       <c r="D138" t="s">
         <v>550</v>
       </c>
-      <c r="E138" t="s">
+      <c r="E138" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>547</v>
       </c>
@@ -7495,11 +7528,11 @@
       <c r="D139" t="s">
         <v>591</v>
       </c>
-      <c r="E139" t="s">
+      <c r="E139" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>549</v>
       </c>
@@ -7512,11 +7545,11 @@
       <c r="D140" t="s">
         <v>592</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>535</v>
       </c>
@@ -7529,11 +7562,11 @@
       <c r="D141" t="s">
         <v>593</v>
       </c>
-      <c r="E141" t="s">
+      <c r="E141" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>542</v>
       </c>
@@ -7546,11 +7579,11 @@
       <c r="D142" t="s">
         <v>882</v>
       </c>
-      <c r="E142" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E142" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>545</v>
       </c>
@@ -7563,11 +7596,11 @@
       <c r="D143" t="s">
         <v>594</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>533</v>
       </c>
@@ -7580,11 +7613,11 @@
       <c r="D144" t="s">
         <v>595</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E144" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>536</v>
       </c>
@@ -7597,11 +7630,11 @@
       <c r="D145" t="s">
         <v>596</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>546</v>
       </c>
@@ -7614,11 +7647,11 @@
       <c r="D146" t="s">
         <v>597</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>537</v>
       </c>
@@ -7631,11 +7664,11 @@
       <c r="D147" t="s">
         <v>598</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>538</v>
       </c>
@@ -7648,11 +7681,11 @@
       <c r="D148" t="s">
         <v>599</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E148" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>573</v>
       </c>
@@ -7665,11 +7698,11 @@
       <c r="D149" t="s">
         <v>600</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E149" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>540</v>
       </c>
@@ -7682,11 +7715,11 @@
       <c r="D150" t="s">
         <v>601</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>544</v>
       </c>
@@ -7699,11 +7732,11 @@
       <c r="D151" t="s">
         <v>602</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>539</v>
       </c>
@@ -7716,11 +7749,11 @@
       <c r="D152" t="s">
         <v>603</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>532</v>
       </c>
@@ -7733,11 +7766,11 @@
       <c r="D153" t="s">
         <v>604</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>541</v>
       </c>
@@ -7750,11 +7783,11 @@
       <c r="D154" t="s">
         <v>605</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>543</v>
       </c>
@@ -7767,11 +7800,11 @@
       <c r="D155" t="s">
         <v>606</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>548</v>
       </c>
@@ -7784,11 +7817,11 @@
       <c r="D156" t="s">
         <v>607</v>
       </c>
-      <c r="E156" t="s">
+      <c r="E156" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>534</v>
       </c>
@@ -7801,11 +7834,11 @@
       <c r="D157" t="s">
         <v>883</v>
       </c>
-      <c r="E157" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E157" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>608</v>
       </c>
@@ -7818,11 +7851,11 @@
       <c r="D158" t="s">
         <v>611</v>
       </c>
-      <c r="E158" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E158" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>612</v>
       </c>
@@ -7835,11 +7868,11 @@
       <c r="D159" t="s">
         <v>615</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>616</v>
       </c>
@@ -7852,11 +7885,11 @@
       <c r="D160" t="s">
         <v>619</v>
       </c>
-      <c r="E160" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E160" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>620</v>
       </c>
@@ -7869,11 +7902,11 @@
       <c r="D161" t="s">
         <v>623</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>624</v>
       </c>
@@ -7886,11 +7919,11 @@
       <c r="D162" t="s">
         <v>627</v>
       </c>
-      <c r="E162" t="s">
+      <c r="E162" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>629</v>
       </c>
@@ -7903,11 +7936,11 @@
       <c r="D163" t="s">
         <v>632</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>634</v>
       </c>
@@ -7920,11 +7953,11 @@
       <c r="D164" t="s">
         <v>637</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>638</v>
       </c>
@@ -7937,11 +7970,11 @@
       <c r="D165" t="s">
         <v>641</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>642</v>
       </c>
@@ -7954,11 +7987,11 @@
       <c r="D166" t="s">
         <v>645</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>647</v>
       </c>
@@ -7971,11 +8004,11 @@
       <c r="D167" t="s">
         <v>649</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>650</v>
       </c>
@@ -7988,11 +8021,11 @@
       <c r="D168" t="s">
         <v>653</v>
       </c>
-      <c r="E168" t="s">
+      <c r="E168" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>654</v>
       </c>
@@ -8005,11 +8038,11 @@
       <c r="D169" t="s">
         <v>884</v>
       </c>
-      <c r="E169" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E169" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>657</v>
       </c>
@@ -8022,11 +8055,11 @@
       <c r="D170" t="s">
         <v>660</v>
       </c>
-      <c r="E170" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E170" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>661</v>
       </c>
@@ -8039,11 +8072,11 @@
       <c r="D171" t="s">
         <v>664</v>
       </c>
-      <c r="E171" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E171" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>665</v>
       </c>
@@ -8056,11 +8089,11 @@
       <c r="D172" t="s">
         <v>885</v>
       </c>
-      <c r="E172" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E172" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>669</v>
       </c>
@@ -8073,11 +8106,11 @@
       <c r="D173" t="s">
         <v>672</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>673</v>
       </c>
@@ -8090,11 +8123,11 @@
       <c r="D174" t="s">
         <v>676</v>
       </c>
-      <c r="E174" t="s">
+      <c r="E174" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>677</v>
       </c>
@@ -8107,11 +8140,11 @@
       <c r="D175" t="s">
         <v>680</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>681</v>
       </c>
@@ -8124,11 +8157,11 @@
       <c r="D176" t="s">
         <v>683</v>
       </c>
-      <c r="E176" t="s">
+      <c r="E176" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>684</v>
       </c>
@@ -8141,11 +8174,11 @@
       <c r="D177" t="s">
         <v>687</v>
       </c>
-      <c r="E177" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E177" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>688</v>
       </c>
@@ -8158,11 +8191,11 @@
       <c r="D178" t="s">
         <v>691</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>692</v>
       </c>
@@ -8175,11 +8208,11 @@
       <c r="D179" t="s">
         <v>695</v>
       </c>
-      <c r="E179" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E179" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>696</v>
       </c>
@@ -8192,11 +8225,11 @@
       <c r="D180" t="s">
         <v>699</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E180" s="3" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>700</v>
       </c>
@@ -8209,11 +8242,11 @@
       <c r="D181" t="s">
         <v>703</v>
       </c>
-      <c r="E181" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E181" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>704</v>
       </c>
@@ -8226,11 +8259,11 @@
       <c r="D182" t="s">
         <v>707</v>
       </c>
-      <c r="E182" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E182" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>715</v>
       </c>
@@ -8243,11 +8276,11 @@
       <c r="D183" t="s">
         <v>886</v>
       </c>
-      <c r="E183" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E183" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>718</v>
       </c>
@@ -8260,11 +8293,11 @@
       <c r="D184" t="s">
         <v>887</v>
       </c>
-      <c r="E184" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E184" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>720</v>
       </c>
@@ -8277,11 +8310,11 @@
       <c r="D185" t="s">
         <v>745</v>
       </c>
-      <c r="E185" t="s">
+      <c r="E185" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>721</v>
       </c>
@@ -8294,11 +8327,11 @@
       <c r="D186" t="s">
         <v>888</v>
       </c>
-      <c r="E186" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E186" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>722</v>
       </c>
@@ -8311,11 +8344,11 @@
       <c r="D187" t="s">
         <v>735</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>723</v>
       </c>
@@ -8328,11 +8361,11 @@
       <c r="D188" t="s">
         <v>736</v>
       </c>
-      <c r="E188" t="s">
+      <c r="E188" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>719</v>
       </c>
@@ -8345,11 +8378,11 @@
       <c r="D189" t="s">
         <v>737</v>
       </c>
-      <c r="E189" t="s">
+      <c r="E189" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>738</v>
       </c>
@@ -8362,11 +8395,11 @@
       <c r="D190" t="s">
         <v>889</v>
       </c>
-      <c r="E190" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E190" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>741</v>
       </c>
@@ -8379,11 +8412,11 @@
       <c r="D191" t="s">
         <v>744</v>
       </c>
-      <c r="E191" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E191" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>747</v>
       </c>
@@ -8396,11 +8429,11 @@
       <c r="D192" t="s">
         <v>755</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="3" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>749</v>
       </c>
@@ -8413,11 +8446,11 @@
       <c r="D193" t="s">
         <v>757</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>752</v>
       </c>
@@ -8430,11 +8463,11 @@
       <c r="D194" t="s">
         <v>758</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>759</v>
       </c>
@@ -8447,11 +8480,11 @@
       <c r="D195" t="s">
         <v>768</v>
       </c>
-      <c r="E195" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E195" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>762</v>
       </c>
@@ -8464,11 +8497,11 @@
       <c r="D196" t="s">
         <v>769</v>
       </c>
-      <c r="E196" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E196" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>765</v>
       </c>
@@ -8481,11 +8514,11 @@
       <c r="D197" t="s">
         <v>770</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E197" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>772</v>
       </c>
@@ -8498,11 +8531,11 @@
       <c r="D198" t="s">
         <v>796</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>775</v>
       </c>
@@ -8515,11 +8548,11 @@
       <c r="D199" t="s">
         <v>890</v>
       </c>
-      <c r="E199" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E199" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>778</v>
       </c>
@@ -8532,11 +8565,11 @@
       <c r="D200" t="s">
         <v>891</v>
       </c>
-      <c r="E200" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E200" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>781</v>
       </c>
@@ -8549,11 +8582,11 @@
       <c r="D201" t="s">
         <v>892</v>
       </c>
-      <c r="E201" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E201" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>784</v>
       </c>
@@ -8566,11 +8599,11 @@
       <c r="D202" t="s">
         <v>797</v>
       </c>
-      <c r="E202" t="s">
+      <c r="E202" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>787</v>
       </c>
@@ -8583,11 +8616,11 @@
       <c r="D203" t="s">
         <v>798</v>
       </c>
-      <c r="E203" t="s">
+      <c r="E203" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>790</v>
       </c>
@@ -8600,11 +8633,11 @@
       <c r="D204" t="s">
         <v>800</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>793</v>
       </c>
@@ -8617,11 +8650,11 @@
       <c r="D205" t="s">
         <v>893</v>
       </c>
-      <c r="E205" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E205" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>801</v>
       </c>
@@ -8634,11 +8667,11 @@
       <c r="D206" t="s">
         <v>810</v>
       </c>
-      <c r="E206" t="s">
+      <c r="E206" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>804</v>
       </c>
@@ -8651,11 +8684,11 @@
       <c r="D207" t="s">
         <v>894</v>
       </c>
-      <c r="E207" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E207" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>807</v>
       </c>
@@ -8668,11 +8701,11 @@
       <c r="D208" t="s">
         <v>811</v>
       </c>
-      <c r="E208" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E208" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>814</v>
       </c>
@@ -8685,11 +8718,11 @@
       <c r="D209" t="s">
         <v>832</v>
       </c>
-      <c r="E209" t="s">
+      <c r="E209" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>816</v>
       </c>
@@ -8702,11 +8735,11 @@
       <c r="D210" t="s">
         <v>833</v>
       </c>
-      <c r="E210" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E210" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>819</v>
       </c>
@@ -8719,11 +8752,11 @@
       <c r="D211" t="s">
         <v>834</v>
       </c>
-      <c r="E211" t="s">
+      <c r="E211" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>822</v>
       </c>
@@ -8736,11 +8769,11 @@
       <c r="D212" t="s">
         <v>835</v>
       </c>
-      <c r="E212" t="s">
+      <c r="E212" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>825</v>
       </c>
@@ -8753,11 +8786,11 @@
       <c r="D213" t="s">
         <v>895</v>
       </c>
-      <c r="E213" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E213" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>828</v>
       </c>
@@ -8770,11 +8803,11 @@
       <c r="D214" t="s">
         <v>836</v>
       </c>
-      <c r="E214" t="s">
+      <c r="E214" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>837</v>
       </c>
@@ -8787,11 +8820,11 @@
       <c r="D215" t="s">
         <v>840</v>
       </c>
-      <c r="E215" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E215" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>846</v>
       </c>
@@ -8804,11 +8837,11 @@
       <c r="D216" t="s">
         <v>849</v>
       </c>
-      <c r="E216" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E216" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>850</v>
       </c>
@@ -8821,11 +8854,11 @@
       <c r="D217" t="s">
         <v>853</v>
       </c>
-      <c r="E217" t="s">
+      <c r="E217" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>841</v>
       </c>
@@ -8838,11 +8871,11 @@
       <c r="D218" t="s">
         <v>844</v>
       </c>
-      <c r="E218" t="s">
+      <c r="E218" s="3" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>854</v>
       </c>
@@ -8855,11 +8888,11 @@
       <c r="D219" t="s">
         <v>857</v>
       </c>
-      <c r="E219" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E219" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>858</v>
       </c>
@@ -8872,11 +8905,11 @@
       <c r="D220" t="s">
         <v>861</v>
       </c>
-      <c r="E220" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E220" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>862</v>
       </c>
@@ -8889,11 +8922,11 @@
       <c r="D221" t="s">
         <v>840</v>
       </c>
-      <c r="E221" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E221" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>865</v>
       </c>
@@ -8906,11 +8939,11 @@
       <c r="D222" t="s">
         <v>868</v>
       </c>
-      <c r="E222" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E222" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>869</v>
       </c>
@@ -8923,11 +8956,11 @@
       <c r="D223" t="s">
         <v>868</v>
       </c>
-      <c r="E223" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E223" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>897</v>
       </c>
@@ -8940,11 +8973,11 @@
       <c r="D224" t="s">
         <v>1280</v>
       </c>
-      <c r="E224" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E224" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>900</v>
       </c>
@@ -8957,11 +8990,11 @@
       <c r="D225" t="s">
         <v>1281</v>
       </c>
-      <c r="E225" t="s">
+      <c r="E225" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>903</v>
       </c>
@@ -8974,11 +9007,11 @@
       <c r="D226" t="s">
         <v>1282</v>
       </c>
-      <c r="E226" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E226" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>906</v>
       </c>
@@ -8991,11 +9024,11 @@
       <c r="D227" t="s">
         <v>1283</v>
       </c>
-      <c r="E227" t="s">
+      <c r="E227" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>909</v>
       </c>
@@ -9008,11 +9041,11 @@
       <c r="D228" t="s">
         <v>1284</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E228" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>912</v>
       </c>
@@ -9025,11 +9058,11 @@
       <c r="D229" t="s">
         <v>1285</v>
       </c>
-      <c r="E229" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E229" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>915</v>
       </c>
@@ -9042,11 +9075,11 @@
       <c r="D230" t="s">
         <v>1286</v>
       </c>
-      <c r="E230" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E230" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>918</v>
       </c>
@@ -9059,11 +9092,11 @@
       <c r="D231" t="s">
         <v>1287</v>
       </c>
-      <c r="E231" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E231" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>921</v>
       </c>
@@ -9076,11 +9109,11 @@
       <c r="D232" t="s">
         <v>1288</v>
       </c>
-      <c r="E232" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E232" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>924</v>
       </c>
@@ -9093,11 +9126,11 @@
       <c r="D233" t="s">
         <v>1289</v>
       </c>
-      <c r="E233" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E233" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>927</v>
       </c>
@@ -9110,11 +9143,11 @@
       <c r="D234" t="s">
         <v>1290</v>
       </c>
-      <c r="E234" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E234" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>930</v>
       </c>
@@ -9127,11 +9160,11 @@
       <c r="D235" t="s">
         <v>1291</v>
       </c>
-      <c r="E235" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E235" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>933</v>
       </c>
@@ -9144,11 +9177,11 @@
       <c r="D236" t="s">
         <v>1292</v>
       </c>
-      <c r="E236" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E236" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>936</v>
       </c>
@@ -9161,11 +9194,11 @@
       <c r="D237" t="s">
         <v>1293</v>
       </c>
-      <c r="E237" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E237" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>939</v>
       </c>
@@ -9178,11 +9211,11 @@
       <c r="D238" t="s">
         <v>1294</v>
       </c>
-      <c r="E238" t="s">
+      <c r="E238" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>942</v>
       </c>
@@ -9195,11 +9228,11 @@
       <c r="D239" t="s">
         <v>1295</v>
       </c>
-      <c r="E239" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E239" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>945</v>
       </c>
@@ -9212,11 +9245,11 @@
       <c r="D240" t="s">
         <v>1296</v>
       </c>
-      <c r="E240" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E240" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>948</v>
       </c>
@@ -9229,11 +9262,11 @@
       <c r="D241" t="s">
         <v>1297</v>
       </c>
-      <c r="E241" t="s">
+      <c r="E241" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>952</v>
       </c>
@@ -9246,11 +9279,11 @@
       <c r="D242" t="s">
         <v>1298</v>
       </c>
-      <c r="E242" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E242" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>955</v>
       </c>
@@ -9263,11 +9296,11 @@
       <c r="D243" t="s">
         <v>1299</v>
       </c>
-      <c r="E243" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E243" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>958</v>
       </c>
@@ -9280,11 +9313,11 @@
       <c r="D244" t="s">
         <v>1300</v>
       </c>
-      <c r="E244" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E244" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>961</v>
       </c>
@@ -9297,11 +9330,11 @@
       <c r="D245" t="s">
         <v>1301</v>
       </c>
-      <c r="E245" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E245" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>964</v>
       </c>
@@ -9314,11 +9347,11 @@
       <c r="D246" t="s">
         <v>1301</v>
       </c>
-      <c r="E246" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E246" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>967</v>
       </c>
@@ -9331,11 +9364,11 @@
       <c r="D247" t="s">
         <v>1302</v>
       </c>
-      <c r="E247" t="s">
+      <c r="E247" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>970</v>
       </c>
@@ -9348,11 +9381,11 @@
       <c r="D248" t="s">
         <v>1303</v>
       </c>
-      <c r="E248" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E248" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>973</v>
       </c>
@@ -9365,11 +9398,11 @@
       <c r="D249" t="s">
         <v>1304</v>
       </c>
-      <c r="E249" t="s">
+      <c r="E249" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>976</v>
       </c>
@@ -9382,11 +9415,11 @@
       <c r="D250" t="s">
         <v>1305</v>
       </c>
-      <c r="E250" t="s">
+      <c r="E250" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>979</v>
       </c>
@@ -9399,11 +9432,11 @@
       <c r="D251" t="s">
         <v>1306</v>
       </c>
-      <c r="E251" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E251" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>982</v>
       </c>
@@ -9416,11 +9449,11 @@
       <c r="D252" t="s">
         <v>985</v>
       </c>
-      <c r="E252" t="s">
+      <c r="E252" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>986</v>
       </c>
@@ -9433,11 +9466,11 @@
       <c r="D253" t="s">
         <v>1307</v>
       </c>
-      <c r="E253" t="s">
+      <c r="E253" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>989</v>
       </c>
@@ -9450,11 +9483,11 @@
       <c r="D254" t="s">
         <v>1308</v>
       </c>
-      <c r="E254" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E254" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>992</v>
       </c>
@@ -9467,11 +9500,11 @@
       <c r="D255" t="s">
         <v>1309</v>
       </c>
-      <c r="E255" t="s">
+      <c r="E255" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>995</v>
       </c>
@@ -9484,11 +9517,11 @@
       <c r="D256" t="s">
         <v>1310</v>
       </c>
-      <c r="E256" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E256" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>998</v>
       </c>
@@ -9501,11 +9534,11 @@
       <c r="D257" t="s">
         <v>1001</v>
       </c>
-      <c r="E257" t="s">
+      <c r="E257" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1002</v>
       </c>
@@ -9518,11 +9551,11 @@
       <c r="D258" t="s">
         <v>1005</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E258" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>1006</v>
       </c>
@@ -9535,11 +9568,11 @@
       <c r="D259" t="s">
         <v>1311</v>
       </c>
-      <c r="E259" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E259" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1009</v>
       </c>
@@ -9552,11 +9585,11 @@
       <c r="D260" t="s">
         <v>1312</v>
       </c>
-      <c r="E260" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E260" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1012</v>
       </c>
@@ -9569,11 +9602,11 @@
       <c r="D261" t="s">
         <v>1313</v>
       </c>
-      <c r="E261" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E261" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1015</v>
       </c>
@@ -9586,11 +9619,11 @@
       <c r="D262" t="s">
         <v>1314</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E262" s="3" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>1019</v>
       </c>
@@ -9603,11 +9636,11 @@
       <c r="D263" t="s">
         <v>1315</v>
       </c>
-      <c r="E263" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E263" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1022</v>
       </c>
@@ -9620,11 +9653,11 @@
       <c r="D264" t="s">
         <v>1316</v>
       </c>
-      <c r="E264" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E264" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1025</v>
       </c>
@@ -9637,11 +9670,11 @@
       <c r="D265" t="s">
         <v>1317</v>
       </c>
-      <c r="E265" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E265" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1028</v>
       </c>
@@ -9654,11 +9687,11 @@
       <c r="D266" t="s">
         <v>1318</v>
       </c>
-      <c r="E266" t="s">
+      <c r="E266" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1031</v>
       </c>
@@ -9671,11 +9704,11 @@
       <c r="D267" t="s">
         <v>1319</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E267" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1034</v>
       </c>
@@ -9688,11 +9721,11 @@
       <c r="D268" t="s">
         <v>1320</v>
       </c>
-      <c r="E268" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E268" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>1037</v>
       </c>
@@ -9705,11 +9738,11 @@
       <c r="D269" t="s">
         <v>1321</v>
       </c>
-      <c r="E269" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E269" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>1040</v>
       </c>
@@ -9722,11 +9755,11 @@
       <c r="D270" t="s">
         <v>1322</v>
       </c>
-      <c r="E270" t="s">
+      <c r="E270" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>1043</v>
       </c>
@@ -9739,11 +9772,11 @@
       <c r="D271" t="s">
         <v>1323</v>
       </c>
-      <c r="E271" t="s">
+      <c r="E271" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>1046</v>
       </c>
@@ -9756,11 +9789,11 @@
       <c r="D272" t="s">
         <v>1324</v>
       </c>
-      <c r="E272" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E272" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>1049</v>
       </c>
@@ -9773,11 +9806,11 @@
       <c r="D273" t="s">
         <v>1325</v>
       </c>
-      <c r="E273" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E273" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>1052</v>
       </c>
@@ -9790,11 +9823,11 @@
       <c r="D274" t="s">
         <v>1326</v>
       </c>
-      <c r="E274" t="s">
+      <c r="E274" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>1055</v>
       </c>
@@ -9807,11 +9840,11 @@
       <c r="D275" t="s">
         <v>1327</v>
       </c>
-      <c r="E275" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E275" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>1058</v>
       </c>
@@ -9824,11 +9857,11 @@
       <c r="D276" t="s">
         <v>1328</v>
       </c>
-      <c r="E276" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E276" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>1061</v>
       </c>
@@ -9841,11 +9874,11 @@
       <c r="D277" t="s">
         <v>1329</v>
       </c>
-      <c r="E277" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E277" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>1064</v>
       </c>
@@ -9858,11 +9891,11 @@
       <c r="D278" t="s">
         <v>1330</v>
       </c>
-      <c r="E278" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E278" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>1067</v>
       </c>
@@ -9875,11 +9908,11 @@
       <c r="D279" t="s">
         <v>1331</v>
       </c>
-      <c r="E279" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E279" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>1070</v>
       </c>
@@ -9892,11 +9925,11 @@
       <c r="D280" t="s">
         <v>1332</v>
       </c>
-      <c r="E280" t="s">
+      <c r="E280" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>1073</v>
       </c>
@@ -9909,11 +9942,11 @@
       <c r="D281" t="s">
         <v>1333</v>
       </c>
-      <c r="E281" t="s">
+      <c r="E281" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>1076</v>
       </c>
@@ -9926,11 +9959,11 @@
       <c r="D282" t="s">
         <v>1334</v>
       </c>
-      <c r="E282" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E282" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>1079</v>
       </c>
@@ -9943,11 +9976,11 @@
       <c r="D283" t="s">
         <v>1335</v>
       </c>
-      <c r="E283" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E283" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>1082</v>
       </c>
@@ -9960,11 +9993,11 @@
       <c r="D284" t="s">
         <v>1336</v>
       </c>
-      <c r="E284" t="s">
+      <c r="E284" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>1085</v>
       </c>
@@ -9977,11 +10010,11 @@
       <c r="D285" t="s">
         <v>1337</v>
       </c>
-      <c r="E285" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E285" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>1088</v>
       </c>
@@ -9994,11 +10027,11 @@
       <c r="D286" t="s">
         <v>1338</v>
       </c>
-      <c r="E286" t="s">
+      <c r="E286" s="3" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>1091</v>
       </c>
@@ -10011,11 +10044,11 @@
       <c r="D287" t="s">
         <v>1339</v>
       </c>
-      <c r="E287" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E287" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>1094</v>
       </c>
@@ -10028,11 +10061,11 @@
       <c r="D288" t="s">
         <v>1340</v>
       </c>
-      <c r="E288" t="s">
+      <c r="E288" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>1097</v>
       </c>
@@ -10045,11 +10078,11 @@
       <c r="D289" t="s">
         <v>1341</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E289" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>1101</v>
       </c>
@@ -10062,11 +10095,11 @@
       <c r="D290" t="s">
         <v>1342</v>
       </c>
-      <c r="E290" t="s">
+      <c r="E290" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>1104</v>
       </c>
@@ -10079,11 +10112,11 @@
       <c r="D291" t="s">
         <v>1343</v>
       </c>
-      <c r="E291" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E291" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>1107</v>
       </c>
@@ -10096,11 +10129,11 @@
       <c r="D292" t="s">
         <v>876</v>
       </c>
-      <c r="E292" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E292" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>1110</v>
       </c>
@@ -10113,11 +10146,11 @@
       <c r="D293" t="s">
         <v>1344</v>
       </c>
-      <c r="E293" t="s">
+      <c r="E293" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>1113</v>
       </c>
@@ -10130,11 +10163,11 @@
       <c r="D294" t="s">
         <v>876</v>
       </c>
-      <c r="E294" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E294" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>1116</v>
       </c>
@@ -10147,11 +10180,11 @@
       <c r="D295" t="s">
         <v>1345</v>
       </c>
-      <c r="E295" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E295" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>1119</v>
       </c>
@@ -10164,11 +10197,11 @@
       <c r="D296" t="s">
         <v>1346</v>
       </c>
-      <c r="E296" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E296" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>1122</v>
       </c>
@@ -10181,11 +10214,11 @@
       <c r="D297" t="s">
         <v>1347</v>
       </c>
-      <c r="E297" t="s">
+      <c r="E297" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>1125</v>
       </c>
@@ -10198,11 +10231,11 @@
       <c r="D298" t="s">
         <v>1348</v>
       </c>
-      <c r="E298" t="s">
+      <c r="E298" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>1128</v>
       </c>
@@ -10215,11 +10248,11 @@
       <c r="D299" t="s">
         <v>1349</v>
       </c>
-      <c r="E299" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E299" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>1131</v>
       </c>
@@ -10232,11 +10265,11 @@
       <c r="D300" t="s">
         <v>1350</v>
       </c>
-      <c r="E300" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E300" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>1134</v>
       </c>
@@ -10249,11 +10282,11 @@
       <c r="D301" t="s">
         <v>1351</v>
       </c>
-      <c r="E301" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E301" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>1137</v>
       </c>
@@ -10266,11 +10299,11 @@
       <c r="D302" t="s">
         <v>1352</v>
       </c>
-      <c r="E302" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E302" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>1140</v>
       </c>
@@ -10283,11 +10316,11 @@
       <c r="D303" t="s">
         <v>1353</v>
       </c>
-      <c r="E303" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E303" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>1143</v>
       </c>
@@ -10300,11 +10333,11 @@
       <c r="D304" t="s">
         <v>1354</v>
       </c>
-      <c r="E304" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E304" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>1146</v>
       </c>
@@ -10317,11 +10350,11 @@
       <c r="D305" t="s">
         <v>1355</v>
       </c>
-      <c r="E305" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E305" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>1149</v>
       </c>
@@ -10334,11 +10367,11 @@
       <c r="D306" t="s">
         <v>1356</v>
       </c>
-      <c r="E306" t="s">
+      <c r="E306" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>1152</v>
       </c>
@@ -10351,11 +10384,11 @@
       <c r="D307" t="s">
         <v>1357</v>
       </c>
-      <c r="E307" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E307" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>1155</v>
       </c>
@@ -10368,11 +10401,11 @@
       <c r="D308" t="s">
         <v>1358</v>
       </c>
-      <c r="E308" t="s">
+      <c r="E308" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>1158</v>
       </c>
@@ -10385,11 +10418,11 @@
       <c r="D309" t="s">
         <v>1359</v>
       </c>
-      <c r="E309" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E309" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>1161</v>
       </c>
@@ -10402,11 +10435,11 @@
       <c r="D310" t="s">
         <v>1360</v>
       </c>
-      <c r="E310" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E310" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1164</v>
       </c>
@@ -10419,11 +10452,11 @@
       <c r="D311" t="s">
         <v>1361</v>
       </c>
-      <c r="E311" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E311" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>1167</v>
       </c>
@@ -10436,11 +10469,11 @@
       <c r="D312" t="s">
         <v>1362</v>
       </c>
-      <c r="E312" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E312" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1170</v>
       </c>
@@ -10453,11 +10486,11 @@
       <c r="D313" t="s">
         <v>876</v>
       </c>
-      <c r="E313" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E313" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1173</v>
       </c>
@@ -10470,11 +10503,11 @@
       <c r="D314" t="s">
         <v>1363</v>
       </c>
-      <c r="E314" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E314" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1176</v>
       </c>
@@ -10487,11 +10520,11 @@
       <c r="D315" t="s">
         <v>1363</v>
       </c>
-      <c r="E315" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E315" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1179</v>
       </c>
@@ -10504,11 +10537,11 @@
       <c r="D316" t="s">
         <v>1363</v>
       </c>
-      <c r="E316" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E316" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>1182</v>
       </c>
@@ -10521,11 +10554,11 @@
       <c r="D317" t="s">
         <v>1364</v>
       </c>
-      <c r="E317" t="s">
+      <c r="E317" s="3" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>1186</v>
       </c>
@@ -10538,11 +10571,11 @@
       <c r="D318" t="s">
         <v>1365</v>
       </c>
-      <c r="E318" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E318" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>1189</v>
       </c>
@@ -10555,11 +10588,11 @@
       <c r="D319" t="s">
         <v>1366</v>
       </c>
-      <c r="E319" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E319" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1192</v>
       </c>
@@ -10572,11 +10605,11 @@
       <c r="D320" t="s">
         <v>1367</v>
       </c>
-      <c r="E320" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E320" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1195</v>
       </c>
@@ -10589,11 +10622,11 @@
       <c r="D321" t="s">
         <v>1368</v>
       </c>
-      <c r="E321" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E321" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1198</v>
       </c>
@@ -10606,11 +10639,11 @@
       <c r="D322" t="s">
         <v>1369</v>
       </c>
-      <c r="E322" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E322" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1201</v>
       </c>
@@ -10623,11 +10656,11 @@
       <c r="D323" t="s">
         <v>1370</v>
       </c>
-      <c r="E323" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E323" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1204</v>
       </c>
@@ -10640,11 +10673,11 @@
       <c r="D324" t="s">
         <v>1371</v>
       </c>
-      <c r="E324" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E324" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1207</v>
       </c>
@@ -10657,11 +10690,11 @@
       <c r="D325" t="s">
         <v>1372</v>
       </c>
-      <c r="E325" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E325" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1210</v>
       </c>
@@ -10674,11 +10707,11 @@
       <c r="D326" t="s">
         <v>1373</v>
       </c>
-      <c r="E326" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E326" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1213</v>
       </c>
@@ -10691,11 +10724,11 @@
       <c r="D327" t="s">
         <v>1374</v>
       </c>
-      <c r="E327" t="s">
+      <c r="E327" s="3" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1216</v>
       </c>
@@ -10708,11 +10741,11 @@
       <c r="D328" t="s">
         <v>1375</v>
       </c>
-      <c r="E328" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E328" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1219</v>
       </c>
@@ -10725,11 +10758,11 @@
       <c r="D329" t="s">
         <v>1376</v>
       </c>
-      <c r="E329" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E329" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1222</v>
       </c>
@@ -10742,11 +10775,11 @@
       <c r="D330" t="s">
         <v>1377</v>
       </c>
-      <c r="E330" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E330" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1225</v>
       </c>
@@ -10759,11 +10792,11 @@
       <c r="D331" t="s">
         <v>1378</v>
       </c>
-      <c r="E331" t="s">
+      <c r="E331" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1228</v>
       </c>
@@ -10776,11 +10809,11 @@
       <c r="D332" t="s">
         <v>1379</v>
       </c>
-      <c r="E332" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E332" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1231</v>
       </c>
@@ -10793,11 +10826,11 @@
       <c r="D333" t="s">
         <v>1380</v>
       </c>
-      <c r="E333" t="s">
+      <c r="E333" s="3" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1235</v>
       </c>
@@ -10810,11 +10843,11 @@
       <c r="D334" t="s">
         <v>1381</v>
       </c>
-      <c r="E334" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E334" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1238</v>
       </c>
@@ -10827,11 +10860,11 @@
       <c r="D335" t="s">
         <v>1382</v>
       </c>
-      <c r="E335" t="s">
+      <c r="E335" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1241</v>
       </c>
@@ -10844,11 +10877,11 @@
       <c r="D336" t="s">
         <v>1383</v>
       </c>
-      <c r="E336" t="s">
+      <c r="E336" s="3" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1244</v>
       </c>
@@ -10861,11 +10894,11 @@
       <c r="D337" t="s">
         <v>1384</v>
       </c>
-      <c r="E337" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E337" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1247</v>
       </c>
@@ -10878,11 +10911,11 @@
       <c r="D338" t="s">
         <v>1385</v>
       </c>
-      <c r="E338" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E338" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1250</v>
       </c>
@@ -10895,11 +10928,11 @@
       <c r="D339" t="s">
         <v>1386</v>
       </c>
-      <c r="E339" t="s">
+      <c r="E339" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1253</v>
       </c>
@@ -10912,11 +10945,11 @@
       <c r="D340" t="s">
         <v>1387</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E340" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1256</v>
       </c>
@@ -10929,11 +10962,11 @@
       <c r="D341" t="s">
         <v>1388</v>
       </c>
-      <c r="E341" t="s">
+      <c r="E341" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1259</v>
       </c>
@@ -10946,11 +10979,11 @@
       <c r="D342" t="s">
         <v>1389</v>
       </c>
-      <c r="E342" t="s">
+      <c r="E342" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1262</v>
       </c>
@@ -10963,11 +10996,11 @@
       <c r="D343" t="s">
         <v>1390</v>
       </c>
-      <c r="E343" t="s">
+      <c r="E343" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1265</v>
       </c>
@@ -10980,11 +11013,11 @@
       <c r="D344" t="s">
         <v>1391</v>
       </c>
-      <c r="E344" t="s">
+      <c r="E344" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1268</v>
       </c>
@@ -10997,11 +11030,11 @@
       <c r="D345" t="s">
         <v>1392</v>
       </c>
-      <c r="E345" t="s">
+      <c r="E345" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1271</v>
       </c>
@@ -11014,11 +11047,11 @@
       <c r="D346" t="s">
         <v>1393</v>
       </c>
-      <c r="E346" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E346" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1274</v>
       </c>
@@ -11031,11 +11064,11 @@
       <c r="D347" t="s">
         <v>1394</v>
       </c>
-      <c r="E347" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E347" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1277</v>
       </c>
@@ -11048,11 +11081,11 @@
       <c r="D348" t="s">
         <v>1395</v>
       </c>
-      <c r="E348" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E348" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1396</v>
       </c>
@@ -11065,11 +11098,11 @@
       <c r="D349" t="s">
         <v>1399</v>
       </c>
-      <c r="E349" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E349" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1400</v>
       </c>
@@ -11082,11 +11115,11 @@
       <c r="D350" t="s">
         <v>1403</v>
       </c>
-      <c r="E350" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E350" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1404</v>
       </c>
@@ -11099,11 +11132,11 @@
       <c r="D351" t="s">
         <v>1407</v>
       </c>
-      <c r="E351" s="2" t="s">
+      <c r="E351" s="3" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1408</v>
       </c>
@@ -11116,11 +11149,11 @@
       <c r="D352" t="s">
         <v>1411</v>
       </c>
-      <c r="E352" s="2" t="s">
+      <c r="E352" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1412</v>
       </c>
@@ -11133,11 +11166,11 @@
       <c r="D353" t="s">
         <v>1415</v>
       </c>
-      <c r="E353" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E353" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1416</v>
       </c>
@@ -11150,11 +11183,11 @@
       <c r="D354" t="s">
         <v>1419</v>
       </c>
-      <c r="E354" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E354" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1420</v>
       </c>
@@ -11167,11 +11200,11 @@
       <c r="D355" t="s">
         <v>1419</v>
       </c>
-      <c r="E355" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E355" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1423</v>
       </c>
@@ -11184,11 +11217,11 @@
       <c r="D356" t="s">
         <v>1403</v>
       </c>
-      <c r="E356" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E356" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1426</v>
       </c>
@@ -11201,11 +11234,11 @@
       <c r="D357" t="s">
         <v>1429</v>
       </c>
-      <c r="E357" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E357" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1430</v>
       </c>
@@ -11218,11 +11251,11 @@
       <c r="D358" t="s">
         <v>1433</v>
       </c>
-      <c r="E358" s="2" t="s">
+      <c r="E358" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1434</v>
       </c>
@@ -11235,11 +11268,11 @@
       <c r="D359" t="s">
         <v>1437</v>
       </c>
-      <c r="E359" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E359" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1438</v>
       </c>
@@ -11252,11 +11285,11 @@
       <c r="D360" t="s">
         <v>1441</v>
       </c>
-      <c r="E360" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E360" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1442</v>
       </c>
@@ -11269,11 +11302,11 @@
       <c r="D361" t="s">
         <v>1445</v>
       </c>
-      <c r="E361" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E361" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1446</v>
       </c>
@@ -11286,11 +11319,11 @@
       <c r="D362" t="s">
         <v>1449</v>
       </c>
-      <c r="E362" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E362" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1450</v>
       </c>
@@ -11303,11 +11336,11 @@
       <c r="D363" t="s">
         <v>1445</v>
       </c>
-      <c r="E363" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E363" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1453</v>
       </c>
@@ -11320,11 +11353,11 @@
       <c r="D364" t="s">
         <v>1456</v>
       </c>
-      <c r="E364" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E364" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1457</v>
       </c>
@@ -11337,11 +11370,11 @@
       <c r="D365" t="s">
         <v>1460</v>
       </c>
-      <c r="E365" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E365" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1461</v>
       </c>
@@ -11354,11 +11387,11 @@
       <c r="D366" t="s">
         <v>1419</v>
       </c>
-      <c r="E366" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E366" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1464</v>
       </c>
@@ -11371,11 +11404,11 @@
       <c r="D367" t="s">
         <v>1445</v>
       </c>
-      <c r="E367" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E367" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1467</v>
       </c>
@@ -11388,11 +11421,11 @@
       <c r="D368" t="s">
         <v>1445</v>
       </c>
-      <c r="E368" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E368" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1470</v>
       </c>
@@ -11405,11 +11438,11 @@
       <c r="D369" t="s">
         <v>1473</v>
       </c>
-      <c r="E369" s="2" t="s">
+      <c r="E369" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1474</v>
       </c>
@@ -11422,11 +11455,11 @@
       <c r="D370" t="s">
         <v>1419</v>
       </c>
-      <c r="E370" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E370" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1477</v>
       </c>
@@ -11439,11 +11472,11 @@
       <c r="D371" t="s">
         <v>1480</v>
       </c>
-      <c r="E371" s="2" t="s">
+      <c r="E371" s="3" t="s">
         <v>1481</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1482</v>
       </c>
@@ -11456,11 +11489,11 @@
       <c r="D372" t="s">
         <v>1485</v>
       </c>
-      <c r="E372" s="2" t="s">
+      <c r="E372" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1486</v>
       </c>
@@ -11473,11 +11506,11 @@
       <c r="D373" t="s">
         <v>1489</v>
       </c>
-      <c r="E373" s="2" t="s">
+      <c r="E373" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1490</v>
       </c>
@@ -11490,11 +11523,11 @@
       <c r="D374" t="s">
         <v>1493</v>
       </c>
-      <c r="E374" s="2" t="s">
+      <c r="E374" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1494</v>
       </c>
@@ -11507,11 +11540,11 @@
       <c r="D375" t="s">
         <v>1415</v>
       </c>
-      <c r="E375" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E375" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1497</v>
       </c>
@@ -11524,11 +11557,11 @@
       <c r="D376" t="s">
         <v>881</v>
       </c>
-      <c r="E376" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E376" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1500</v>
       </c>
@@ -11541,11 +11574,11 @@
       <c r="D377" t="s">
         <v>1460</v>
       </c>
-      <c r="E377" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E377" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1503</v>
       </c>
@@ -11558,11 +11591,11 @@
       <c r="D378" t="s">
         <v>1460</v>
       </c>
-      <c r="E378" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E378" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1506</v>
       </c>
@@ -11575,11 +11608,11 @@
       <c r="D379" t="s">
         <v>619</v>
       </c>
-      <c r="E379" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E379" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1509</v>
       </c>
@@ -11592,11 +11625,11 @@
       <c r="D380" t="s">
         <v>1512</v>
       </c>
-      <c r="E380" s="2" t="s">
+      <c r="E380" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1513</v>
       </c>
@@ -11609,11 +11642,11 @@
       <c r="D381" t="s">
         <v>1516</v>
       </c>
-      <c r="E381" s="2" t="s">
+      <c r="E381" s="3" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1517</v>
       </c>
@@ -11626,11 +11659,11 @@
       <c r="D382" t="s">
         <v>1520</v>
       </c>
-      <c r="E382" s="2" t="s">
+      <c r="E382" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1521</v>
       </c>
@@ -11643,11 +11676,11 @@
       <c r="D383" t="s">
         <v>1415</v>
       </c>
-      <c r="E383" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E383" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1525</v>
       </c>
@@ -11660,11 +11693,11 @@
       <c r="D384" t="s">
         <v>1567</v>
       </c>
-      <c r="E384" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E384" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1528</v>
       </c>
@@ -11677,11 +11710,11 @@
       <c r="D385" t="s">
         <v>1565</v>
       </c>
-      <c r="E385" s="2" t="s">
+      <c r="E385" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1531</v>
       </c>
@@ -11694,11 +11727,11 @@
       <c r="D386" t="s">
         <v>1566</v>
       </c>
-      <c r="E386" s="2" t="s">
+      <c r="E386" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1534</v>
       </c>
@@ -11711,11 +11744,11 @@
       <c r="D387" t="s">
         <v>1568</v>
       </c>
-      <c r="E387" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E387" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1537</v>
       </c>
@@ -11728,11 +11761,11 @@
       <c r="D388" t="s">
         <v>1569</v>
       </c>
-      <c r="E388" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E388" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1540</v>
       </c>
@@ -11742,14 +11775,14 @@
       <c r="C389" t="s">
         <v>1541</v>
       </c>
-      <c r="D389" s="3" t="s">
+      <c r="D389" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="E389" s="2" t="s">
+      <c r="E389" s="3" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1543</v>
       </c>
@@ -11762,11 +11795,11 @@
       <c r="D390" t="s">
         <v>1571</v>
       </c>
-      <c r="E390" s="2" t="s">
+      <c r="E390" s="3" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1545</v>
       </c>
@@ -11779,11 +11812,11 @@
       <c r="D391" t="s">
         <v>1574</v>
       </c>
-      <c r="E391" s="2" t="s">
+      <c r="E391" s="3" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1548</v>
       </c>
@@ -11796,11 +11829,11 @@
       <c r="D392" t="s">
         <v>1575</v>
       </c>
-      <c r="E392" s="2" t="s">
+      <c r="E392" s="3" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1551</v>
       </c>
@@ -11813,11 +11846,11 @@
       <c r="D393" t="s">
         <v>1577</v>
       </c>
-      <c r="E393" s="2" t="s">
+      <c r="E393" s="3" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1554</v>
       </c>
@@ -11830,11 +11863,11 @@
       <c r="D394" t="s">
         <v>1581</v>
       </c>
-      <c r="E394" s="2" t="s">
+      <c r="E394" s="3" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1558</v>
       </c>
@@ -11847,28 +11880,28 @@
       <c r="D395" t="s">
         <v>1578</v>
       </c>
-      <c r="E395" s="2" t="s">
+      <c r="E395" s="3" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1560</v>
       </c>
       <c r="B396" t="s">
         <v>1559</v>
       </c>
-      <c r="C396" s="4" t="s">
+      <c r="C396" t="s">
         <v>1561</v>
       </c>
       <c r="D396" t="s">
         <v>1579</v>
       </c>
-      <c r="E396" s="2" t="s">
+      <c r="E396" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1563</v>
       </c>
@@ -11881,577 +11914,609 @@
       <c r="D397" t="s">
         <v>1580</v>
       </c>
-      <c r="E397" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E397" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/Company_info.xlsx
+++ b/Company_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Dev\eDavki\etoro-edavki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2FE7F0-BB85-46C0-9681-91715B5F9EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CD7A19-7A0A-4F3A-B255-EC82C7E37869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1995" uniqueCount="1590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2070" uniqueCount="1648">
   <si>
     <t>Symbol</t>
   </si>
@@ -4804,6 +4802,180 @@
   </si>
   <si>
     <t>7/F Lujiazui Finance Plaza No. 1217 Dongfang Road, 200122, Shanghai</t>
+  </si>
+  <si>
+    <t>9988.HK</t>
+  </si>
+  <si>
+    <t>Alibaba Group Holding Ltd (Hong Kong)</t>
+  </si>
+  <si>
+    <t>SPXS</t>
+  </si>
+  <si>
+    <t>Direxion Daily S&amp;P 500 Bear 3X Shares</t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>Meta Platforms Inc</t>
+  </si>
+  <si>
+    <t>HSBC</t>
+  </si>
+  <si>
+    <t>HSBC-ADR</t>
+  </si>
+  <si>
+    <t>LLOY.L</t>
+  </si>
+  <si>
+    <t>Lloyd's Banking Group PLC</t>
+  </si>
+  <si>
+    <t>NN.NV</t>
+  </si>
+  <si>
+    <t>NN Group NV</t>
+  </si>
+  <si>
+    <t>TME</t>
+  </si>
+  <si>
+    <t>Tencent Music Entertainment Group-ADR</t>
+  </si>
+  <si>
+    <t>BABA</t>
+  </si>
+  <si>
+    <t>Alibaba-ADR</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>3988.HK</t>
+  </si>
+  <si>
+    <t>Bank of China</t>
+  </si>
+  <si>
+    <t>TNK</t>
+  </si>
+  <si>
+    <t>Teekay Tankers Ltd</t>
+  </si>
+  <si>
+    <t>DOYU</t>
+  </si>
+  <si>
+    <t>Douyu -ADR</t>
+  </si>
+  <si>
+    <t>SPXL</t>
+  </si>
+  <si>
+    <t>Direxion Daily S&amp;P 500 Bull 3X</t>
+  </si>
+  <si>
+    <t>TQQQ</t>
+  </si>
+  <si>
+    <t>ProShares UltraPro QQQ</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
+    <t>US02079K1079</t>
+  </si>
+  <si>
+    <t>1600 Amphitheatre Parkway, 94043, Mountain View, USA</t>
+  </si>
+  <si>
+    <t>KYG017191142</t>
+  </si>
+  <si>
+    <t>US25460E2651</t>
+  </si>
+  <si>
+    <t>Direxion, 1301 Avenue of the Americas (6th Avenue), 28 th Floor, New York, New York 10019, USA</t>
+  </si>
+  <si>
+    <t>US30303M1027</t>
+  </si>
+  <si>
+    <t>1 Meta Way, 94025, Menlo Park, USA</t>
+  </si>
+  <si>
+    <t>US4042804066</t>
+  </si>
+  <si>
+    <t>8 Canada Square, London, E14 5HQ, United Kingdom</t>
+  </si>
+  <si>
+    <t>GB0008706128</t>
+  </si>
+  <si>
+    <t>25 Gresham Street, EC2V 7HN, London, UK</t>
+  </si>
+  <si>
+    <t>NL0010773842</t>
+  </si>
+  <si>
+    <t>NN Group NV, Schenkkade 65, 2595 AS, The Hague, Netherlands</t>
+  </si>
+  <si>
+    <t>US88034P1093</t>
+  </si>
+  <si>
+    <t>Kexing Science Park, Hi-Tech Park Kejizhongsan Avenue, Unit 3, 518057, Shenzhen, China</t>
+  </si>
+  <si>
+    <t>US01609W1027</t>
+  </si>
+  <si>
+    <t>969 West Wen Yi Road Yu Hang District, 311121, Hangzhou, Hong Kong</t>
+  </si>
+  <si>
+    <t>US2546871060</t>
+  </si>
+  <si>
+    <t>500 South Buena Vista Street, 91521-6205, Burbank, USA</t>
+  </si>
+  <si>
+    <t>CNE1000001Z5</t>
+  </si>
+  <si>
+    <t>No. 1 Fuxingmen Nei Dajie Xicheng District, 100818, Beijing, China</t>
+  </si>
+  <si>
+    <t>BMG8726X1065</t>
+  </si>
+  <si>
+    <t>Swan Building 26 Victoria Street, HM 12, Hamilton, Bermuda</t>
+  </si>
+  <si>
+    <t>US25985W2044</t>
+  </si>
+  <si>
+    <t>DouYu International Holdings Ltd., New Development International Center No. 473 Guanshan Avenue, 430073, Wuhan, China</t>
+  </si>
+  <si>
+    <t>US25459W8626</t>
+  </si>
+  <si>
+    <t>US74347X8314</t>
+  </si>
+  <si>
+    <t>7272 Wisconsin Ave. 21st Floor Bethesda, MD 20814, USA</t>
   </si>
 </sst>
 </file>
@@ -4876,12 +5048,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4942,7 +5113,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E399">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E414">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Symbol"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISIN"/>
@@ -5154,8 +5325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E962"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5164,7 +5335,7 @@
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="103.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -5182,7 +5353,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -5199,7 +5370,7 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5216,7 +5387,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5233,7 +5404,7 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5250,7 +5421,7 @@
       <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5267,7 +5438,7 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5284,7 +5455,7 @@
       <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5301,7 +5472,7 @@
       <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5318,7 +5489,7 @@
       <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5335,7 +5506,7 @@
       <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5352,7 +5523,7 @@
       <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5369,7 +5540,7 @@
       <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5386,7 +5557,7 @@
       <c r="D13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5403,7 +5574,7 @@
       <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5420,7 +5591,7 @@
       <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5437,7 +5608,7 @@
       <c r="D16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5454,7 +5625,7 @@
       <c r="D17" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5471,7 +5642,7 @@
       <c r="D18" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5488,7 +5659,7 @@
       <c r="D19" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5505,7 +5676,7 @@
       <c r="D20" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5522,7 +5693,7 @@
       <c r="D21" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5539,7 +5710,7 @@
       <c r="D22" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5556,7 +5727,7 @@
       <c r="D23" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5573,7 +5744,7 @@
       <c r="D24" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5590,7 +5761,7 @@
       <c r="D25" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5607,7 +5778,7 @@
       <c r="D26" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5624,7 +5795,7 @@
       <c r="D27" t="s">
         <v>111</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5641,7 +5812,7 @@
       <c r="D28" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5658,7 +5829,7 @@
       <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5675,7 +5846,7 @@
       <c r="D30" t="s">
         <v>123</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5692,7 +5863,7 @@
       <c r="D31" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5709,7 +5880,7 @@
       <c r="D32" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5726,7 +5897,7 @@
       <c r="D33" t="s">
         <v>134</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5743,7 +5914,7 @@
       <c r="D34" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5760,7 +5931,7 @@
       <c r="D35" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5777,7 +5948,7 @@
       <c r="D36" t="s">
         <v>872</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5794,7 +5965,7 @@
       <c r="D37" t="s">
         <v>150</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5811,7 +5982,7 @@
       <c r="D38" t="s">
         <v>873</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5828,7 +5999,7 @@
       <c r="D39" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5845,7 +6016,7 @@
       <c r="D40" t="s">
         <v>162</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5862,7 +6033,7 @@
       <c r="D41" t="s">
         <v>874</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5879,7 +6050,7 @@
       <c r="D42" t="s">
         <v>875</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5896,7 +6067,7 @@
       <c r="D43" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5913,7 +6084,7 @@
       <c r="D44" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5930,7 +6101,7 @@
       <c r="D45" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5947,7 +6118,7 @@
       <c r="D46" t="s">
         <v>186</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5964,7 +6135,7 @@
       <c r="D47" t="s">
         <v>876</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5981,7 +6152,7 @@
       <c r="D48" t="s">
         <v>193</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -5998,7 +6169,7 @@
       <c r="D49" t="s">
         <v>196</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6015,7 +6186,7 @@
       <c r="D50" t="s">
         <v>200</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6032,7 +6203,7 @@
       <c r="D51" t="s">
         <v>204</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6049,7 +6220,7 @@
       <c r="D52" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6066,7 +6237,7 @@
       <c r="D53" t="s">
         <v>212</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6083,7 +6254,7 @@
       <c r="D54" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6100,7 +6271,7 @@
       <c r="D55" t="s">
         <v>876</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6117,7 +6288,7 @@
       <c r="D56" t="s">
         <v>223</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6134,7 +6305,7 @@
       <c r="D57" t="s">
         <v>227</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6151,7 +6322,7 @@
       <c r="D58" t="s">
         <v>231</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6168,7 +6339,7 @@
       <c r="D59" t="s">
         <v>235</v>
       </c>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6185,7 +6356,7 @@
       <c r="D60" t="s">
         <v>239</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6202,7 +6373,7 @@
       <c r="D61" t="s">
         <v>243</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6219,7 +6390,7 @@
       <c r="D62" t="s">
         <v>876</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6236,7 +6407,7 @@
       <c r="D63" t="s">
         <v>250</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6253,7 +6424,7 @@
       <c r="D64" t="s">
         <v>254</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6270,7 +6441,7 @@
       <c r="D65" t="s">
         <v>258</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6287,7 +6458,7 @@
       <c r="D66" t="s">
         <v>262</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6304,7 +6475,7 @@
       <c r="D67" t="s">
         <v>266</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6321,7 +6492,7 @@
       <c r="D68" t="s">
         <v>270</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6338,7 +6509,7 @@
       <c r="D69" t="s">
         <v>274</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6355,7 +6526,7 @@
       <c r="D70" t="s">
         <v>877</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6372,7 +6543,7 @@
       <c r="D71" t="s">
         <v>281</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6389,7 +6560,7 @@
       <c r="D72" t="s">
         <v>285</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6406,7 +6577,7 @@
       <c r="D73" t="s">
         <v>285</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6423,7 +6594,7 @@
       <c r="D74" t="s">
         <v>285</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6440,7 +6611,7 @@
       <c r="D75" t="s">
         <v>294</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6457,7 +6628,7 @@
       <c r="D76" t="s">
         <v>298</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6474,7 +6645,7 @@
       <c r="D77" t="s">
         <v>876</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6491,7 +6662,7 @@
       <c r="D78" t="s">
         <v>305</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6508,7 +6679,7 @@
       <c r="D79" t="s">
         <v>309</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6525,7 +6696,7 @@
       <c r="D80" t="s">
         <v>312</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6542,7 +6713,7 @@
       <c r="D81" t="s">
         <v>316</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6559,7 +6730,7 @@
       <c r="D82" t="s">
         <v>320</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6576,7 +6747,7 @@
       <c r="D83" t="s">
         <v>324</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -6593,7 +6764,7 @@
       <c r="D84" t="s">
         <v>328</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6610,7 +6781,7 @@
       <c r="D85" t="s">
         <v>876</v>
       </c>
-      <c r="E85" s="3" t="s">
+      <c r="E85" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6627,7 +6798,7 @@
       <c r="D86" t="s">
         <v>335</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6644,7 +6815,7 @@
       <c r="D87" t="s">
         <v>339</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6661,7 +6832,7 @@
       <c r="D88" t="s">
         <v>343</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6678,7 +6849,7 @@
       <c r="D89" t="s">
         <v>878</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6695,7 +6866,7 @@
       <c r="D90" t="s">
         <v>878</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6712,7 +6883,7 @@
       <c r="D91" t="s">
         <v>353</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6729,7 +6900,7 @@
       <c r="D92" t="s">
         <v>357</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6746,7 +6917,7 @@
       <c r="D93" t="s">
         <v>361</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6763,7 +6934,7 @@
       <c r="D94" t="s">
         <v>366</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6780,7 +6951,7 @@
       <c r="D95" t="s">
         <v>371</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6797,7 +6968,7 @@
       <c r="D96" t="s">
         <v>375</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6814,7 +6985,7 @@
       <c r="D97" t="s">
         <v>379</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6831,7 +7002,7 @@
       <c r="D98" t="s">
         <v>879</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6848,7 +7019,7 @@
       <c r="D99" t="s">
         <v>386</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6865,7 +7036,7 @@
       <c r="D100" t="s">
         <v>390</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6882,7 +7053,7 @@
       <c r="D101" t="s">
         <v>394</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6899,7 +7070,7 @@
       <c r="D102" t="s">
         <v>398</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6916,7 +7087,7 @@
       <c r="D103" t="s">
         <v>880</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6933,7 +7104,7 @@
       <c r="D104" t="s">
         <v>405</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -6950,7 +7121,7 @@
       <c r="D105" t="s">
         <v>881</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6967,7 +7138,7 @@
       <c r="D106" t="s">
         <v>412</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6984,7 +7155,7 @@
       <c r="D107" t="s">
         <v>711</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="2" t="s">
         <v>712</v>
       </c>
     </row>
@@ -7001,7 +7172,7 @@
       <c r="D108" t="s">
         <v>418</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7018,7 +7189,7 @@
       <c r="D109" t="s">
         <v>422</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7035,7 +7206,7 @@
       <c r="D110" t="s">
         <v>426</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7052,7 +7223,7 @@
       <c r="D111" t="s">
         <v>430</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7069,7 +7240,7 @@
       <c r="D112" t="s">
         <v>434</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -7086,7 +7257,7 @@
       <c r="D113" t="s">
         <v>881</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7103,7 +7274,7 @@
       <c r="D114" t="s">
         <v>442</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7120,7 +7291,7 @@
       <c r="D115" t="s">
         <v>709</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7137,7 +7308,7 @@
       <c r="D116" t="s">
         <v>448</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -7154,7 +7325,7 @@
       <c r="D117" t="s">
         <v>452</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7171,7 +7342,7 @@
       <c r="D118" t="s">
         <v>474</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7188,7 +7359,7 @@
       <c r="D119" t="s">
         <v>477</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7205,7 +7376,7 @@
       <c r="D120" t="s">
         <v>480</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7222,7 +7393,7 @@
       <c r="D121" t="s">
         <v>483</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7239,7 +7410,7 @@
       <c r="D122" t="s">
         <v>485</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7256,7 +7427,7 @@
       <c r="D123" t="s">
         <v>488</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7273,7 +7444,7 @@
       <c r="D124" t="s">
         <v>491</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7290,7 +7461,7 @@
       <c r="D125" t="s">
         <v>876</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7307,7 +7478,7 @@
       <c r="D126" t="s">
         <v>496</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7324,7 +7495,7 @@
       <c r="D127" t="s">
         <v>499</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7341,7 +7512,7 @@
       <c r="D128" t="s">
         <v>876</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7358,7 +7529,7 @@
       <c r="D129" t="s">
         <v>504</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7375,7 +7546,7 @@
       <c r="D130" t="s">
         <v>507</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7392,7 +7563,7 @@
       <c r="D131" t="s">
         <v>881</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7409,7 +7580,7 @@
       <c r="D132" t="s">
         <v>512</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7426,7 +7597,7 @@
       <c r="D133" t="s">
         <v>515</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -7443,7 +7614,7 @@
       <c r="D134" t="s">
         <v>519</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7460,7 +7631,7 @@
       <c r="D135" t="s">
         <v>522</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7477,7 +7648,7 @@
       <c r="D136" t="s">
         <v>525</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7494,7 +7665,7 @@
       <c r="D137" t="s">
         <v>528</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7511,7 +7682,7 @@
       <c r="D138" t="s">
         <v>550</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7528,7 +7699,7 @@
       <c r="D139" t="s">
         <v>591</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7545,7 +7716,7 @@
       <c r="D140" t="s">
         <v>592</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7562,7 +7733,7 @@
       <c r="D141" t="s">
         <v>593</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7579,7 +7750,7 @@
       <c r="D142" t="s">
         <v>882</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7596,7 +7767,7 @@
       <c r="D143" t="s">
         <v>594</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7613,7 +7784,7 @@
       <c r="D144" t="s">
         <v>595</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7630,7 +7801,7 @@
       <c r="D145" t="s">
         <v>596</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7647,7 +7818,7 @@
       <c r="D146" t="s">
         <v>597</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7664,7 +7835,7 @@
       <c r="D147" t="s">
         <v>598</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7681,7 +7852,7 @@
       <c r="D148" t="s">
         <v>599</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7698,7 +7869,7 @@
       <c r="D149" t="s">
         <v>600</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7715,7 +7886,7 @@
       <c r="D150" t="s">
         <v>601</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7732,7 +7903,7 @@
       <c r="D151" t="s">
         <v>602</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7749,7 +7920,7 @@
       <c r="D152" t="s">
         <v>603</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -7766,7 +7937,7 @@
       <c r="D153" t="s">
         <v>604</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7783,7 +7954,7 @@
       <c r="D154" t="s">
         <v>605</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7800,7 +7971,7 @@
       <c r="D155" t="s">
         <v>606</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7817,7 +7988,7 @@
       <c r="D156" t="s">
         <v>607</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -7834,7 +8005,7 @@
       <c r="D157" t="s">
         <v>883</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7851,7 +8022,7 @@
       <c r="D158" t="s">
         <v>611</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7868,7 +8039,7 @@
       <c r="D159" t="s">
         <v>615</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -7885,7 +8056,7 @@
       <c r="D160" t="s">
         <v>619</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7902,7 +8073,7 @@
       <c r="D161" t="s">
         <v>623</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7919,7 +8090,7 @@
       <c r="D162" t="s">
         <v>627</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="2" t="s">
         <v>628</v>
       </c>
     </row>
@@ -7936,7 +8107,7 @@
       <c r="D163" t="s">
         <v>632</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="2" t="s">
         <v>633</v>
       </c>
     </row>
@@ -7953,7 +8124,7 @@
       <c r="D164" t="s">
         <v>637</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7970,7 +8141,7 @@
       <c r="D165" t="s">
         <v>641</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7987,7 +8158,7 @@
       <c r="D166" t="s">
         <v>645</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="2" t="s">
         <v>646</v>
       </c>
     </row>
@@ -8004,7 +8175,7 @@
       <c r="D167" t="s">
         <v>649</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8021,7 +8192,7 @@
       <c r="D168" t="s">
         <v>653</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8038,7 +8209,7 @@
       <c r="D169" t="s">
         <v>884</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8055,7 +8226,7 @@
       <c r="D170" t="s">
         <v>660</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8072,7 +8243,7 @@
       <c r="D171" t="s">
         <v>664</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8089,7 +8260,7 @@
       <c r="D172" t="s">
         <v>885</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8106,7 +8277,7 @@
       <c r="D173" t="s">
         <v>672</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8123,7 +8294,7 @@
       <c r="D174" t="s">
         <v>676</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8140,7 +8311,7 @@
       <c r="D175" t="s">
         <v>680</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -8157,7 +8328,7 @@
       <c r="D176" t="s">
         <v>683</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8174,7 +8345,7 @@
       <c r="D177" t="s">
         <v>687</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8191,7 +8362,7 @@
       <c r="D178" t="s">
         <v>691</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="2" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8208,7 +8379,7 @@
       <c r="D179" t="s">
         <v>695</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8225,7 +8396,7 @@
       <c r="D180" t="s">
         <v>699</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="2" t="s">
         <v>633</v>
       </c>
     </row>
@@ -8242,7 +8413,7 @@
       <c r="D181" t="s">
         <v>703</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8259,7 +8430,7 @@
       <c r="D182" t="s">
         <v>707</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8276,7 +8447,7 @@
       <c r="D183" t="s">
         <v>886</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8293,7 +8464,7 @@
       <c r="D184" t="s">
         <v>887</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8310,7 +8481,7 @@
       <c r="D185" t="s">
         <v>745</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -8327,7 +8498,7 @@
       <c r="D186" t="s">
         <v>888</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8344,7 +8515,7 @@
       <c r="D187" t="s">
         <v>735</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="2" t="s">
         <v>734</v>
       </c>
     </row>
@@ -8361,7 +8532,7 @@
       <c r="D188" t="s">
         <v>736</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8378,7 +8549,7 @@
       <c r="D189" t="s">
         <v>737</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8395,7 +8566,7 @@
       <c r="D190" t="s">
         <v>889</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8412,7 +8583,7 @@
       <c r="D191" t="s">
         <v>744</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8429,7 +8600,7 @@
       <c r="D192" t="s">
         <v>755</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="2" t="s">
         <v>756</v>
       </c>
     </row>
@@ -8446,7 +8617,7 @@
       <c r="D193" t="s">
         <v>757</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8463,7 +8634,7 @@
       <c r="D194" t="s">
         <v>758</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8480,7 +8651,7 @@
       <c r="D195" t="s">
         <v>768</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8497,7 +8668,7 @@
       <c r="D196" t="s">
         <v>769</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8514,7 +8685,7 @@
       <c r="D197" t="s">
         <v>770</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="2" t="s">
         <v>771</v>
       </c>
     </row>
@@ -8531,7 +8702,7 @@
       <c r="D198" t="s">
         <v>796</v>
       </c>
-      <c r="E198" s="3" t="s">
+      <c r="E198" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8548,7 +8719,7 @@
       <c r="D199" t="s">
         <v>890</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8565,7 +8736,7 @@
       <c r="D200" t="s">
         <v>891</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8582,7 +8753,7 @@
       <c r="D201" t="s">
         <v>892</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8599,7 +8770,7 @@
       <c r="D202" t="s">
         <v>797</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="2" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8616,7 +8787,7 @@
       <c r="D203" t="s">
         <v>798</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E203" s="2" t="s">
         <v>799</v>
       </c>
     </row>
@@ -8633,7 +8804,7 @@
       <c r="D204" t="s">
         <v>800</v>
       </c>
-      <c r="E204" s="3" t="s">
+      <c r="E204" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -8650,7 +8821,7 @@
       <c r="D205" t="s">
         <v>893</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8667,7 +8838,7 @@
       <c r="D206" t="s">
         <v>810</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -8684,7 +8855,7 @@
       <c r="D207" t="s">
         <v>894</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8701,7 +8872,7 @@
       <c r="D208" t="s">
         <v>811</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E208" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8718,7 +8889,7 @@
       <c r="D209" t="s">
         <v>832</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -8735,7 +8906,7 @@
       <c r="D210" t="s">
         <v>833</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8752,7 +8923,7 @@
       <c r="D211" t="s">
         <v>834</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -8769,7 +8940,7 @@
       <c r="D212" t="s">
         <v>835</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="E212" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -8786,7 +8957,7 @@
       <c r="D213" t="s">
         <v>895</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8803,7 +8974,7 @@
       <c r="D214" t="s">
         <v>836</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="E214" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -8820,7 +8991,7 @@
       <c r="D215" t="s">
         <v>840</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E215" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8837,7 +9008,7 @@
       <c r="D216" t="s">
         <v>849</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E216" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8854,7 +9025,7 @@
       <c r="D217" t="s">
         <v>853</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E217" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -8871,7 +9042,7 @@
       <c r="D218" t="s">
         <v>844</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E218" s="2" t="s">
         <v>845</v>
       </c>
     </row>
@@ -8888,7 +9059,7 @@
       <c r="D219" t="s">
         <v>857</v>
       </c>
-      <c r="E219" s="3" t="s">
+      <c r="E219" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8905,7 +9076,7 @@
       <c r="D220" t="s">
         <v>861</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E220" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8922,7 +9093,7 @@
       <c r="D221" t="s">
         <v>840</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E221" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8939,7 +9110,7 @@
       <c r="D222" t="s">
         <v>868</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E222" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8956,7 +9127,7 @@
       <c r="D223" t="s">
         <v>868</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E223" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8973,7 +9144,7 @@
       <c r="D224" t="s">
         <v>1280</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E224" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -8990,7 +9161,7 @@
       <c r="D225" t="s">
         <v>1281</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="E225" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9007,7 +9178,7 @@
       <c r="D226" t="s">
         <v>1282</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E226" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9024,7 +9195,7 @@
       <c r="D227" t="s">
         <v>1283</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9041,7 +9212,7 @@
       <c r="D228" t="s">
         <v>1284</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E228" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9058,7 +9229,7 @@
       <c r="D229" t="s">
         <v>1285</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9075,7 +9246,7 @@
       <c r="D230" t="s">
         <v>1286</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9092,7 +9263,7 @@
       <c r="D231" t="s">
         <v>1287</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="E231" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9109,7 +9280,7 @@
       <c r="D232" t="s">
         <v>1288</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E232" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9126,7 +9297,7 @@
       <c r="D233" t="s">
         <v>1289</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E233" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9143,7 +9314,7 @@
       <c r="D234" t="s">
         <v>1290</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E234" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9160,7 +9331,7 @@
       <c r="D235" t="s">
         <v>1291</v>
       </c>
-      <c r="E235" s="3" t="s">
+      <c r="E235" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9177,7 +9348,7 @@
       <c r="D236" t="s">
         <v>1292</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9194,7 +9365,7 @@
       <c r="D237" t="s">
         <v>1293</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="E237" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9211,7 +9382,7 @@
       <c r="D238" t="s">
         <v>1294</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="E238" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9228,7 +9399,7 @@
       <c r="D239" t="s">
         <v>1295</v>
       </c>
-      <c r="E239" s="3" t="s">
+      <c r="E239" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9245,7 +9416,7 @@
       <c r="D240" t="s">
         <v>1296</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E240" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9262,7 +9433,7 @@
       <c r="D241" t="s">
         <v>1297</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E241" s="2" t="s">
         <v>951</v>
       </c>
     </row>
@@ -9279,7 +9450,7 @@
       <c r="D242" t="s">
         <v>1298</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E242" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9296,7 +9467,7 @@
       <c r="D243" t="s">
         <v>1299</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="E243" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9313,7 +9484,7 @@
       <c r="D244" t="s">
         <v>1300</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E244" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9330,7 +9501,7 @@
       <c r="D245" t="s">
         <v>1301</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="E245" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9347,7 +9518,7 @@
       <c r="D246" t="s">
         <v>1301</v>
       </c>
-      <c r="E246" s="3" t="s">
+      <c r="E246" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9364,7 +9535,7 @@
       <c r="D247" t="s">
         <v>1302</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="E247" s="2" t="s">
         <v>182</v>
       </c>
     </row>
@@ -9381,7 +9552,7 @@
       <c r="D248" t="s">
         <v>1303</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9398,7 +9569,7 @@
       <c r="D249" t="s">
         <v>1304</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9415,7 +9586,7 @@
       <c r="D250" t="s">
         <v>1305</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E250" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -9432,7 +9603,7 @@
       <c r="D251" t="s">
         <v>1306</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E251" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9449,7 +9620,7 @@
       <c r="D252" t="s">
         <v>985</v>
       </c>
-      <c r="E252" s="3" t="s">
+      <c r="E252" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9466,7 +9637,7 @@
       <c r="D253" t="s">
         <v>1307</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E253" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9483,7 +9654,7 @@
       <c r="D254" t="s">
         <v>1308</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E254" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9500,7 +9671,7 @@
       <c r="D255" t="s">
         <v>1309</v>
       </c>
-      <c r="E255" s="3" t="s">
+      <c r="E255" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9517,7 +9688,7 @@
       <c r="D256" t="s">
         <v>1310</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E256" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9534,7 +9705,7 @@
       <c r="D257" t="s">
         <v>1001</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E257" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9551,7 +9722,7 @@
       <c r="D258" t="s">
         <v>1005</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E258" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -9568,7 +9739,7 @@
       <c r="D259" t="s">
         <v>1311</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E259" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9585,7 +9756,7 @@
       <c r="D260" t="s">
         <v>1312</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E260" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9602,7 +9773,7 @@
       <c r="D261" t="s">
         <v>1313</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="E261" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9619,7 +9790,7 @@
       <c r="D262" t="s">
         <v>1314</v>
       </c>
-      <c r="E262" s="3" t="s">
+      <c r="E262" s="2" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -9636,7 +9807,7 @@
       <c r="D263" t="s">
         <v>1315</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="E263" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9653,7 +9824,7 @@
       <c r="D264" t="s">
         <v>1316</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E264" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9670,7 +9841,7 @@
       <c r="D265" t="s">
         <v>1317</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E265" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9687,7 +9858,7 @@
       <c r="D266" t="s">
         <v>1318</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E266" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9704,7 +9875,7 @@
       <c r="D267" t="s">
         <v>1319</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E267" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9721,7 +9892,7 @@
       <c r="D268" t="s">
         <v>1320</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="E268" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9738,7 +9909,7 @@
       <c r="D269" t="s">
         <v>1321</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E269" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9755,7 +9926,7 @@
       <c r="D270" t="s">
         <v>1322</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="E270" s="2" t="s">
         <v>771</v>
       </c>
     </row>
@@ -9772,7 +9943,7 @@
       <c r="D271" t="s">
         <v>1323</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E271" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9789,7 +9960,7 @@
       <c r="D272" t="s">
         <v>1324</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E272" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9806,7 +9977,7 @@
       <c r="D273" t="s">
         <v>1325</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E273" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9823,7 +9994,7 @@
       <c r="D274" t="s">
         <v>1326</v>
       </c>
-      <c r="E274" s="3" t="s">
+      <c r="E274" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9840,7 +10011,7 @@
       <c r="D275" t="s">
         <v>1327</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E275" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9857,7 +10028,7 @@
       <c r="D276" t="s">
         <v>1328</v>
       </c>
-      <c r="E276" s="3" t="s">
+      <c r="E276" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9874,7 +10045,7 @@
       <c r="D277" t="s">
         <v>1329</v>
       </c>
-      <c r="E277" s="3" t="s">
+      <c r="E277" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9891,7 +10062,7 @@
       <c r="D278" t="s">
         <v>1330</v>
       </c>
-      <c r="E278" s="3" t="s">
+      <c r="E278" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9908,7 +10079,7 @@
       <c r="D279" t="s">
         <v>1331</v>
       </c>
-      <c r="E279" s="3" t="s">
+      <c r="E279" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9925,7 +10096,7 @@
       <c r="D280" t="s">
         <v>1332</v>
       </c>
-      <c r="E280" s="3" t="s">
+      <c r="E280" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9942,7 +10113,7 @@
       <c r="D281" t="s">
         <v>1333</v>
       </c>
-      <c r="E281" s="3" t="s">
+      <c r="E281" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -9959,7 +10130,7 @@
       <c r="D282" t="s">
         <v>1334</v>
       </c>
-      <c r="E282" s="3" t="s">
+      <c r="E282" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9976,7 +10147,7 @@
       <c r="D283" t="s">
         <v>1335</v>
       </c>
-      <c r="E283" s="3" t="s">
+      <c r="E283" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -9993,7 +10164,7 @@
       <c r="D284" t="s">
         <v>1336</v>
       </c>
-      <c r="E284" s="3" t="s">
+      <c r="E284" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10010,7 +10181,7 @@
       <c r="D285" t="s">
         <v>1337</v>
       </c>
-      <c r="E285" s="3" t="s">
+      <c r="E285" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10027,7 +10198,7 @@
       <c r="D286" t="s">
         <v>1338</v>
       </c>
-      <c r="E286" s="3" t="s">
+      <c r="E286" s="2" t="s">
         <v>734</v>
       </c>
     </row>
@@ -10044,7 +10215,7 @@
       <c r="D287" t="s">
         <v>1339</v>
       </c>
-      <c r="E287" s="3" t="s">
+      <c r="E287" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10061,7 +10232,7 @@
       <c r="D288" t="s">
         <v>1340</v>
       </c>
-      <c r="E288" s="3" t="s">
+      <c r="E288" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10078,7 +10249,7 @@
       <c r="D289" t="s">
         <v>1341</v>
       </c>
-      <c r="E289" s="3" t="s">
+      <c r="E289" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -10095,7 +10266,7 @@
       <c r="D290" t="s">
         <v>1342</v>
       </c>
-      <c r="E290" s="3" t="s">
+      <c r="E290" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10112,7 +10283,7 @@
       <c r="D291" t="s">
         <v>1343</v>
       </c>
-      <c r="E291" s="3" t="s">
+      <c r="E291" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10129,7 +10300,7 @@
       <c r="D292" t="s">
         <v>876</v>
       </c>
-      <c r="E292" s="3" t="s">
+      <c r="E292" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10146,7 +10317,7 @@
       <c r="D293" t="s">
         <v>1344</v>
       </c>
-      <c r="E293" s="3" t="s">
+      <c r="E293" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10163,7 +10334,7 @@
       <c r="D294" t="s">
         <v>876</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="E294" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10180,7 +10351,7 @@
       <c r="D295" t="s">
         <v>1345</v>
       </c>
-      <c r="E295" s="3" t="s">
+      <c r="E295" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10197,7 +10368,7 @@
       <c r="D296" t="s">
         <v>1346</v>
       </c>
-      <c r="E296" s="3" t="s">
+      <c r="E296" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10214,7 +10385,7 @@
       <c r="D297" t="s">
         <v>1347</v>
       </c>
-      <c r="E297" s="3" t="s">
+      <c r="E297" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10231,7 +10402,7 @@
       <c r="D298" t="s">
         <v>1348</v>
       </c>
-      <c r="E298" s="3" t="s">
+      <c r="E298" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10248,7 +10419,7 @@
       <c r="D299" t="s">
         <v>1349</v>
       </c>
-      <c r="E299" s="3" t="s">
+      <c r="E299" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10265,7 +10436,7 @@
       <c r="D300" t="s">
         <v>1350</v>
       </c>
-      <c r="E300" s="3" t="s">
+      <c r="E300" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10282,7 +10453,7 @@
       <c r="D301" t="s">
         <v>1351</v>
       </c>
-      <c r="E301" s="3" t="s">
+      <c r="E301" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10299,7 +10470,7 @@
       <c r="D302" t="s">
         <v>1352</v>
       </c>
-      <c r="E302" s="3" t="s">
+      <c r="E302" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10316,7 +10487,7 @@
       <c r="D303" t="s">
         <v>1353</v>
       </c>
-      <c r="E303" s="3" t="s">
+      <c r="E303" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10333,7 +10504,7 @@
       <c r="D304" t="s">
         <v>1354</v>
       </c>
-      <c r="E304" s="3" t="s">
+      <c r="E304" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10350,7 +10521,7 @@
       <c r="D305" t="s">
         <v>1355</v>
       </c>
-      <c r="E305" s="3" t="s">
+      <c r="E305" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10367,7 +10538,7 @@
       <c r="D306" t="s">
         <v>1356</v>
       </c>
-      <c r="E306" s="3" t="s">
+      <c r="E306" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -10384,7 +10555,7 @@
       <c r="D307" t="s">
         <v>1357</v>
       </c>
-      <c r="E307" s="3" t="s">
+      <c r="E307" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10401,7 +10572,7 @@
       <c r="D308" t="s">
         <v>1358</v>
       </c>
-      <c r="E308" s="3" t="s">
+      <c r="E308" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10418,7 +10589,7 @@
       <c r="D309" t="s">
         <v>1359</v>
       </c>
-      <c r="E309" s="3" t="s">
+      <c r="E309" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10435,7 +10606,7 @@
       <c r="D310" t="s">
         <v>1360</v>
       </c>
-      <c r="E310" s="3" t="s">
+      <c r="E310" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10452,7 +10623,7 @@
       <c r="D311" t="s">
         <v>1361</v>
       </c>
-      <c r="E311" s="3" t="s">
+      <c r="E311" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10469,7 +10640,7 @@
       <c r="D312" t="s">
         <v>1362</v>
       </c>
-      <c r="E312" s="3" t="s">
+      <c r="E312" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10486,7 +10657,7 @@
       <c r="D313" t="s">
         <v>876</v>
       </c>
-      <c r="E313" s="3" t="s">
+      <c r="E313" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10503,7 +10674,7 @@
       <c r="D314" t="s">
         <v>1363</v>
       </c>
-      <c r="E314" s="3" t="s">
+      <c r="E314" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10520,7 +10691,7 @@
       <c r="D315" t="s">
         <v>1363</v>
       </c>
-      <c r="E315" s="3" t="s">
+      <c r="E315" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10537,7 +10708,7 @@
       <c r="D316" t="s">
         <v>1363</v>
       </c>
-      <c r="E316" s="3" t="s">
+      <c r="E316" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10554,7 +10725,7 @@
       <c r="D317" t="s">
         <v>1364</v>
       </c>
-      <c r="E317" s="3" t="s">
+      <c r="E317" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -10571,7 +10742,7 @@
       <c r="D318" t="s">
         <v>1365</v>
       </c>
-      <c r="E318" s="3" t="s">
+      <c r="E318" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10588,7 +10759,7 @@
       <c r="D319" t="s">
         <v>1366</v>
       </c>
-      <c r="E319" s="3" t="s">
+      <c r="E319" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10605,7 +10776,7 @@
       <c r="D320" t="s">
         <v>1367</v>
       </c>
-      <c r="E320" s="3" t="s">
+      <c r="E320" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10622,7 +10793,7 @@
       <c r="D321" t="s">
         <v>1368</v>
       </c>
-      <c r="E321" s="3" t="s">
+      <c r="E321" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10639,7 +10810,7 @@
       <c r="D322" t="s">
         <v>1369</v>
       </c>
-      <c r="E322" s="3" t="s">
+      <c r="E322" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10656,7 +10827,7 @@
       <c r="D323" t="s">
         <v>1370</v>
       </c>
-      <c r="E323" s="3" t="s">
+      <c r="E323" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10673,7 +10844,7 @@
       <c r="D324" t="s">
         <v>1371</v>
       </c>
-      <c r="E324" s="3" t="s">
+      <c r="E324" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10690,7 +10861,7 @@
       <c r="D325" t="s">
         <v>1372</v>
       </c>
-      <c r="E325" s="3" t="s">
+      <c r="E325" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10707,7 +10878,7 @@
       <c r="D326" t="s">
         <v>1373</v>
       </c>
-      <c r="E326" s="3" t="s">
+      <c r="E326" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10724,7 +10895,7 @@
       <c r="D327" t="s">
         <v>1374</v>
       </c>
-      <c r="E327" s="3" t="s">
+      <c r="E327" s="2" t="s">
         <v>799</v>
       </c>
     </row>
@@ -10741,7 +10912,7 @@
       <c r="D328" t="s">
         <v>1375</v>
       </c>
-      <c r="E328" s="3" t="s">
+      <c r="E328" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10758,7 +10929,7 @@
       <c r="D329" t="s">
         <v>1376</v>
       </c>
-      <c r="E329" s="3" t="s">
+      <c r="E329" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10775,7 +10946,7 @@
       <c r="D330" t="s">
         <v>1377</v>
       </c>
-      <c r="E330" s="3" t="s">
+      <c r="E330" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10792,7 +10963,7 @@
       <c r="D331" t="s">
         <v>1378</v>
       </c>
-      <c r="E331" s="3" t="s">
+      <c r="E331" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -10809,7 +10980,7 @@
       <c r="D332" t="s">
         <v>1379</v>
       </c>
-      <c r="E332" s="3" t="s">
+      <c r="E332" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10826,7 +10997,7 @@
       <c r="D333" t="s">
         <v>1380</v>
       </c>
-      <c r="E333" s="3" t="s">
+      <c r="E333" s="2" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -10843,7 +11014,7 @@
       <c r="D334" t="s">
         <v>1381</v>
       </c>
-      <c r="E334" s="3" t="s">
+      <c r="E334" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10860,7 +11031,7 @@
       <c r="D335" t="s">
         <v>1382</v>
       </c>
-      <c r="E335" s="3" t="s">
+      <c r="E335" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -10877,7 +11048,7 @@
       <c r="D336" t="s">
         <v>1383</v>
       </c>
-      <c r="E336" s="3" t="s">
+      <c r="E336" s="2" t="s">
         <v>951</v>
       </c>
     </row>
@@ -10894,7 +11065,7 @@
       <c r="D337" t="s">
         <v>1384</v>
       </c>
-      <c r="E337" s="3" t="s">
+      <c r="E337" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10911,7 +11082,7 @@
       <c r="D338" t="s">
         <v>1385</v>
       </c>
-      <c r="E338" s="3" t="s">
+      <c r="E338" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10928,7 +11099,7 @@
       <c r="D339" t="s">
         <v>1386</v>
       </c>
-      <c r="E339" s="3" t="s">
+      <c r="E339" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10945,7 +11116,7 @@
       <c r="D340" t="s">
         <v>1387</v>
       </c>
-      <c r="E340" s="3" t="s">
+      <c r="E340" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10962,7 +11133,7 @@
       <c r="D341" t="s">
         <v>1388</v>
       </c>
-      <c r="E341" s="3" t="s">
+      <c r="E341" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -10979,7 +11150,7 @@
       <c r="D342" t="s">
         <v>1389</v>
       </c>
-      <c r="E342" s="3" t="s">
+      <c r="E342" s="2" t="s">
         <v>464</v>
       </c>
     </row>
@@ -10996,7 +11167,7 @@
       <c r="D343" t="s">
         <v>1390</v>
       </c>
-      <c r="E343" s="3" t="s">
+      <c r="E343" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11013,7 +11184,7 @@
       <c r="D344" t="s">
         <v>1391</v>
       </c>
-      <c r="E344" s="3" t="s">
+      <c r="E344" s="2" t="s">
         <v>771</v>
       </c>
     </row>
@@ -11030,7 +11201,7 @@
       <c r="D345" t="s">
         <v>1392</v>
       </c>
-      <c r="E345" s="3" t="s">
+      <c r="E345" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11047,7 +11218,7 @@
       <c r="D346" t="s">
         <v>1393</v>
       </c>
-      <c r="E346" s="3" t="s">
+      <c r="E346" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11064,7 +11235,7 @@
       <c r="D347" t="s">
         <v>1394</v>
       </c>
-      <c r="E347" s="3" t="s">
+      <c r="E347" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11081,7 +11252,7 @@
       <c r="D348" t="s">
         <v>1395</v>
       </c>
-      <c r="E348" s="3" t="s">
+      <c r="E348" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11098,7 +11269,7 @@
       <c r="D349" t="s">
         <v>1399</v>
       </c>
-      <c r="E349" s="3" t="s">
+      <c r="E349" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11115,7 +11286,7 @@
       <c r="D350" t="s">
         <v>1403</v>
       </c>
-      <c r="E350" s="3" t="s">
+      <c r="E350" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11132,7 +11303,7 @@
       <c r="D351" t="s">
         <v>1407</v>
       </c>
-      <c r="E351" s="3" t="s">
+      <c r="E351" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -11149,7 +11320,7 @@
       <c r="D352" t="s">
         <v>1411</v>
       </c>
-      <c r="E352" s="3" t="s">
+      <c r="E352" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -11166,7 +11337,7 @@
       <c r="D353" t="s">
         <v>1415</v>
       </c>
-      <c r="E353" s="3" t="s">
+      <c r="E353" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11183,7 +11354,7 @@
       <c r="D354" t="s">
         <v>1419</v>
       </c>
-      <c r="E354" s="3" t="s">
+      <c r="E354" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11200,7 +11371,7 @@
       <c r="D355" t="s">
         <v>1419</v>
       </c>
-      <c r="E355" s="3" t="s">
+      <c r="E355" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11217,7 +11388,7 @@
       <c r="D356" t="s">
         <v>1403</v>
       </c>
-      <c r="E356" s="3" t="s">
+      <c r="E356" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11234,7 +11405,7 @@
       <c r="D357" t="s">
         <v>1429</v>
       </c>
-      <c r="E357" s="3" t="s">
+      <c r="E357" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11251,7 +11422,7 @@
       <c r="D358" t="s">
         <v>1433</v>
       </c>
-      <c r="E358" s="3" t="s">
+      <c r="E358" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -11268,7 +11439,7 @@
       <c r="D359" t="s">
         <v>1437</v>
       </c>
-      <c r="E359" s="3" t="s">
+      <c r="E359" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11285,7 +11456,7 @@
       <c r="D360" t="s">
         <v>1441</v>
       </c>
-      <c r="E360" s="3" t="s">
+      <c r="E360" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11302,7 +11473,7 @@
       <c r="D361" t="s">
         <v>1445</v>
       </c>
-      <c r="E361" s="3" t="s">
+      <c r="E361" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11319,7 +11490,7 @@
       <c r="D362" t="s">
         <v>1449</v>
       </c>
-      <c r="E362" s="3" t="s">
+      <c r="E362" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11336,7 +11507,7 @@
       <c r="D363" t="s">
         <v>1445</v>
       </c>
-      <c r="E363" s="3" t="s">
+      <c r="E363" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11353,7 +11524,7 @@
       <c r="D364" t="s">
         <v>1456</v>
       </c>
-      <c r="E364" s="3" t="s">
+      <c r="E364" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11370,7 +11541,7 @@
       <c r="D365" t="s">
         <v>1460</v>
       </c>
-      <c r="E365" s="3" t="s">
+      <c r="E365" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11387,7 +11558,7 @@
       <c r="D366" t="s">
         <v>1419</v>
       </c>
-      <c r="E366" s="3" t="s">
+      <c r="E366" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11404,7 +11575,7 @@
       <c r="D367" t="s">
         <v>1445</v>
       </c>
-      <c r="E367" s="3" t="s">
+      <c r="E367" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11421,7 +11592,7 @@
       <c r="D368" t="s">
         <v>1445</v>
       </c>
-      <c r="E368" s="3" t="s">
+      <c r="E368" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11438,7 +11609,7 @@
       <c r="D369" t="s">
         <v>1473</v>
       </c>
-      <c r="E369" s="3" t="s">
+      <c r="E369" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -11455,7 +11626,7 @@
       <c r="D370" t="s">
         <v>1419</v>
       </c>
-      <c r="E370" s="3" t="s">
+      <c r="E370" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11472,7 +11643,7 @@
       <c r="D371" t="s">
         <v>1480</v>
       </c>
-      <c r="E371" s="3" t="s">
+      <c r="E371" s="2" t="s">
         <v>1481</v>
       </c>
     </row>
@@ -11489,7 +11660,7 @@
       <c r="D372" t="s">
         <v>1485</v>
       </c>
-      <c r="E372" s="3" t="s">
+      <c r="E372" s="2" t="s">
         <v>362</v>
       </c>
     </row>
@@ -11506,7 +11677,7 @@
       <c r="D373" t="s">
         <v>1489</v>
       </c>
-      <c r="E373" s="3" t="s">
+      <c r="E373" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -11523,7 +11694,7 @@
       <c r="D374" t="s">
         <v>1493</v>
       </c>
-      <c r="E374" s="3" t="s">
+      <c r="E374" s="2" t="s">
         <v>435</v>
       </c>
     </row>
@@ -11540,7 +11711,7 @@
       <c r="D375" t="s">
         <v>1415</v>
       </c>
-      <c r="E375" s="3" t="s">
+      <c r="E375" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11557,7 +11728,7 @@
       <c r="D376" t="s">
         <v>881</v>
       </c>
-      <c r="E376" s="3" t="s">
+      <c r="E376" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11574,7 +11745,7 @@
       <c r="D377" t="s">
         <v>1460</v>
       </c>
-      <c r="E377" s="3" t="s">
+      <c r="E377" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11591,7 +11762,7 @@
       <c r="D378" t="s">
         <v>1460</v>
       </c>
-      <c r="E378" s="3" t="s">
+      <c r="E378" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11608,7 +11779,7 @@
       <c r="D379" t="s">
         <v>619</v>
       </c>
-      <c r="E379" s="3" t="s">
+      <c r="E379" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11625,7 +11796,7 @@
       <c r="D380" t="s">
         <v>1512</v>
       </c>
-      <c r="E380" s="3" t="s">
+      <c r="E380" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -11642,7 +11813,7 @@
       <c r="D381" t="s">
         <v>1516</v>
       </c>
-      <c r="E381" s="3" t="s">
+      <c r="E381" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -11659,7 +11830,7 @@
       <c r="D382" t="s">
         <v>1520</v>
       </c>
-      <c r="E382" s="3" t="s">
+      <c r="E382" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -11676,7 +11847,7 @@
       <c r="D383" t="s">
         <v>1415</v>
       </c>
-      <c r="E383" s="3" t="s">
+      <c r="E383" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11693,7 +11864,7 @@
       <c r="D384" t="s">
         <v>1567</v>
       </c>
-      <c r="E384" s="3" t="s">
+      <c r="E384" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11710,7 +11881,7 @@
       <c r="D385" t="s">
         <v>1565</v>
       </c>
-      <c r="E385" s="3" t="s">
+      <c r="E385" s="2" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -11727,7 +11898,7 @@
       <c r="D386" t="s">
         <v>1566</v>
       </c>
-      <c r="E386" s="3" t="s">
+      <c r="E386" s="2" t="s">
         <v>529</v>
       </c>
     </row>
@@ -11744,7 +11915,7 @@
       <c r="D387" t="s">
         <v>1568</v>
       </c>
-      <c r="E387" s="3" t="s">
+      <c r="E387" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11761,7 +11932,7 @@
       <c r="D388" t="s">
         <v>1569</v>
       </c>
-      <c r="E388" s="3" t="s">
+      <c r="E388" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -11778,7 +11949,7 @@
       <c r="D389" s="1" t="s">
         <v>1570</v>
       </c>
-      <c r="E389" s="3" t="s">
+      <c r="E389" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -11795,7 +11966,7 @@
       <c r="D390" t="s">
         <v>1571</v>
       </c>
-      <c r="E390" s="3" t="s">
+      <c r="E390" s="2" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -11812,7 +11983,7 @@
       <c r="D391" t="s">
         <v>1574</v>
       </c>
-      <c r="E391" s="3" t="s">
+      <c r="E391" s="2" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -11829,7 +12000,7 @@
       <c r="D392" t="s">
         <v>1575</v>
       </c>
-      <c r="E392" s="3" t="s">
+      <c r="E392" s="2" t="s">
         <v>1576</v>
       </c>
     </row>
@@ -11846,7 +12017,7 @@
       <c r="D393" t="s">
         <v>1577</v>
       </c>
-      <c r="E393" s="3" t="s">
+      <c r="E393" s="2" t="s">
         <v>1576</v>
       </c>
     </row>
@@ -11863,7 +12034,7 @@
       <c r="D394" t="s">
         <v>1581</v>
       </c>
-      <c r="E394" s="3" t="s">
+      <c r="E394" s="2" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -11880,7 +12051,7 @@
       <c r="D395" t="s">
         <v>1578</v>
       </c>
-      <c r="E395" s="3" t="s">
+      <c r="E395" s="2" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -11897,7 +12068,7 @@
       <c r="D396" t="s">
         <v>1579</v>
       </c>
-      <c r="E396" s="3" t="s">
+      <c r="E396" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -11914,61 +12085,301 @@
       <c r="D397" t="s">
         <v>1580</v>
       </c>
-      <c r="E397" s="3" t="s">
+      <c r="E397" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="2" t="s">
+      <c r="A398" t="s">
         <v>1582</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" t="s">
         <v>1583</v>
       </c>
-      <c r="C398" s="2" t="s">
+      <c r="C398" t="s">
         <v>1584</v>
       </c>
-      <c r="D398" s="2" t="s">
+      <c r="D398" t="s">
         <v>1585</v>
       </c>
-      <c r="E398" s="3" t="s">
+      <c r="E398" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="2" t="s">
+      <c r="A399" t="s">
         <v>1586</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" t="s">
         <v>1587</v>
       </c>
-      <c r="C399" s="2" t="s">
+      <c r="C399" t="s">
         <v>1588</v>
       </c>
-      <c r="D399" s="2" t="s">
+      <c r="D399" t="s">
         <v>1589</v>
       </c>
-      <c r="E399" s="3" t="s">
+      <c r="E399" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D400" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C401" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D401" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C402" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D402" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C403" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D403" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C404" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D404" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C405" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D405" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C406" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D406" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D407" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C408" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D408" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C409" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D409" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C410" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D410" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C411" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D411" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C412" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D412" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C413" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D413" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C414" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D414" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
